--- a/data/enrollment/ENROLLMENT RAW.xlsx
+++ b/data/enrollment/ENROLLMENT RAW.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$V$250</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="all">#REF!</definedName>
     <definedName name="AREA">list!$E$2:$E$5</definedName>
@@ -105,7 +105,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="354">
   <si>
     <t>STATUS</t>
   </si>
@@ -1179,9 +1179,6 @@
     <t>Hand over to Maam Allado for review.</t>
   </si>
   <si>
-    <t>&lt;motor&gt;</t>
-  </si>
-  <si>
     <t>For docusign Sir JC</t>
   </si>
   <si>
@@ -1189,6 +1186,21 @@
   </si>
   <si>
     <t>Count of STATUS</t>
+  </si>
+  <si>
+    <t>&lt;motor pump 1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;motor pump 2&gt;</t>
+  </si>
+  <si>
+    <t>Heat Exchanger (MPLAN)</t>
+  </si>
+  <si>
+    <t>Heat Exchanger (AMM)</t>
+  </si>
+  <si>
+    <t>Only Maam Allado and Sir JC is the lacking signatures.</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1383,67 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1749,7 +1821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3452,7 +3523,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -3800,13 +3871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:V248"/>
+  <dimension ref="A1:V250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,7 +3942,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>95</v>
       </c>
@@ -3889,7 +3960,7 @@
       </c>
       <c r="G2" s="4">
         <f ca="1">IF(E2="DONE",NOW()-D2, NOW()-D2)</f>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H2" s="4" t="str">
         <f ca="1">IF(E2="DONE", "", NOW()-F2)</f>
@@ -3911,7 +3982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>95</v>
       </c>
@@ -3929,7 +4000,7 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G66" ca="1" si="0">IF(E3="DONE",NOW()-D3, NOW()-D3)</f>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H66" ca="1" si="1">IF(E3="DONE", "", NOW()-F3)</f>
@@ -3951,7 +4022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>95</v>
       </c>
@@ -3969,7 +4040,7 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3991,7 +4062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>95</v>
       </c>
@@ -4009,7 +4080,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4031,7 +4102,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>95</v>
       </c>
@@ -4049,7 +4120,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4071,7 +4142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>95</v>
       </c>
@@ -4089,7 +4160,7 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4111,7 +4182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>95</v>
       </c>
@@ -4129,7 +4200,7 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4159,7 +4230,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
@@ -4177,7 +4248,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4207,7 +4278,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
@@ -4225,7 +4296,7 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4255,7 +4326,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>95</v>
       </c>
@@ -4273,7 +4344,7 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4295,7 +4366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>95</v>
       </c>
@@ -4313,7 +4384,7 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4335,7 +4406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>95</v>
       </c>
@@ -4353,7 +4424,7 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4375,7 +4446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>95</v>
       </c>
@@ -4393,7 +4464,7 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4415,7 +4486,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
@@ -4433,7 +4504,7 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4455,7 +4526,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>95</v>
       </c>
@@ -4473,7 +4544,7 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4495,7 +4566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
@@ -4513,7 +4584,7 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4535,7 +4606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
@@ -4553,7 +4624,7 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H18" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4575,7 +4646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
@@ -4593,7 +4664,7 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H19" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4615,7 +4686,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
@@ -4633,7 +4704,7 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H20" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4655,7 +4726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>92</v>
       </c>
@@ -4673,7 +4744,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H21" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4695,7 +4766,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>92</v>
       </c>
@@ -4713,7 +4784,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H22" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4735,7 +4806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>92</v>
       </c>
@@ -4753,7 +4824,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H23" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4775,7 +4846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
@@ -4793,7 +4864,7 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H24" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4815,7 +4886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>92</v>
       </c>
@@ -4833,7 +4904,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H25" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4855,7 +4926,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>92</v>
       </c>
@@ -4873,7 +4944,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H26" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4895,7 +4966,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>92</v>
       </c>
@@ -4913,7 +4984,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H27" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4935,7 +5006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>92</v>
       </c>
@@ -4953,7 +5024,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H28" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4975,7 +5046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>92</v>
       </c>
@@ -4993,7 +5064,7 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H29" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5015,7 +5086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>94</v>
       </c>
@@ -5033,7 +5104,7 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H30" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5055,7 +5126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="6" t="s">
         <v>99</v>
@@ -5074,7 +5145,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>159.33008333333419</v>
+        <v>159.59733333333133</v>
       </c>
       <c r="H31" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5097,7 +5168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>108</v>
       </c>
@@ -5115,11 +5186,11 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H32" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>212</v>
@@ -5137,7 +5208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>108</v>
       </c>
@@ -5155,11 +5226,11 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H33" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>212</v>
@@ -5177,7 +5248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>108</v>
       </c>
@@ -5195,11 +5266,11 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H34" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>212</v>
@@ -5217,7 +5288,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>108</v>
       </c>
@@ -5235,11 +5306,11 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H35" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>212</v>
@@ -5257,7 +5328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>108</v>
       </c>
@@ -5275,11 +5346,11 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H36" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>212</v>
@@ -5297,7 +5368,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>108</v>
       </c>
@@ -5315,11 +5386,11 @@
       </c>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H37" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>212</v>
@@ -5337,7 +5408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>93</v>
       </c>
@@ -5355,11 +5426,11 @@
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H38" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>210</v>
@@ -5377,7 +5448,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>93</v>
       </c>
@@ -5395,11 +5466,11 @@
       </c>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H39" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>210</v>
@@ -5417,7 +5488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>93</v>
       </c>
@@ -5435,11 +5506,11 @@
       </c>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H40" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>210</v>
@@ -5457,7 +5528,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>93</v>
       </c>
@@ -5475,11 +5546,11 @@
       </c>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H41" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>210</v>
@@ -5497,7 +5568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>93</v>
       </c>
@@ -5515,11 +5586,11 @@
       </c>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H42" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>210</v>
@@ -5537,7 +5608,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>93</v>
       </c>
@@ -5555,11 +5626,11 @@
       </c>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H43" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>210</v>
@@ -5577,7 +5648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>93</v>
       </c>
@@ -5595,11 +5666,11 @@
       </c>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H44" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>2.330083333334187</v>
+        <v>2.5973333333313349</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>210</v>
@@ -5620,7 +5691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>93</v>
       </c>
@@ -5638,11 +5709,11 @@
       </c>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H45" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>2.330083333334187</v>
+        <v>2.5973333333313349</v>
       </c>
       <c r="I45" s="37" t="s">
         <v>210</v>
@@ -5663,7 +5734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>93</v>
       </c>
@@ -5681,11 +5752,11 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H46" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>2.330083333334187</v>
+        <v>2.5973333333313349</v>
       </c>
       <c r="I46" s="37" t="s">
         <v>210</v>
@@ -5724,11 +5795,11 @@
       </c>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>30.330083333334187</v>
+        <v>30.597333333331335</v>
       </c>
       <c r="H47" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>30.330083333334187</v>
+        <v>30.597333333331335</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>221</v>
@@ -5746,7 +5817,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>169</v>
       </c>
@@ -5764,11 +5835,11 @@
       </c>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H48" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>210</v>
@@ -5786,7 +5857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>169</v>
       </c>
@@ -5804,11 +5875,11 @@
       </c>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H49" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>210</v>
@@ -5826,7 +5897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>169</v>
       </c>
@@ -5844,11 +5915,11 @@
       </c>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H50" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>210</v>
@@ -5866,7 +5937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>169</v>
       </c>
@@ -5884,11 +5955,11 @@
       </c>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H51" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>210</v>
@@ -5906,7 +5977,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>169</v>
       </c>
@@ -5924,11 +5995,11 @@
       </c>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H52" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>210</v>
@@ -5946,7 +6017,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>169</v>
       </c>
@@ -5964,11 +6035,11 @@
       </c>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H53" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>210</v>
@@ -5986,7 +6057,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>169</v>
       </c>
@@ -6004,11 +6075,11 @@
       </c>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H54" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>210</v>
@@ -6026,7 +6097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>169</v>
       </c>
@@ -6044,11 +6115,11 @@
       </c>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H55" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>210</v>
@@ -6066,7 +6137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>169</v>
       </c>
@@ -6084,11 +6155,11 @@
       </c>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H56" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>210</v>
@@ -6106,7 +6177,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>95</v>
       </c>
@@ -6124,11 +6195,11 @@
       </c>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H57" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>210</v>
@@ -6146,7 +6217,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>95</v>
       </c>
@@ -6164,11 +6235,11 @@
       </c>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H58" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>210</v>
@@ -6186,7 +6257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>95</v>
       </c>
@@ -6204,11 +6275,11 @@
       </c>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H59" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>210</v>
@@ -6226,7 +6297,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>95</v>
       </c>
@@ -6244,11 +6315,11 @@
       </c>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H60" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>210</v>
@@ -6266,7 +6337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>95</v>
       </c>
@@ -6284,11 +6355,11 @@
       </c>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H61" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>210</v>
@@ -6306,7 +6377,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>95</v>
       </c>
@@ -6324,11 +6395,11 @@
       </c>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>210</v>
@@ -6346,7 +6417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>95</v>
       </c>
@@ -6364,11 +6435,11 @@
       </c>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H63" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>210</v>
@@ -6386,7 +6457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>95</v>
       </c>
@@ -6404,7 +6475,7 @@
       </c>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H64" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6426,7 +6497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>95</v>
       </c>
@@ -6444,7 +6515,7 @@
       </c>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H65" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6466,7 +6537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>95</v>
       </c>
@@ -6484,7 +6555,7 @@
       </c>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H66" s="36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6506,7 +6577,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>95</v>
       </c>
@@ -6524,7 +6595,7 @@
       </c>
       <c r="G67" s="4">
         <f t="shared" ref="G67:G130" ca="1" si="2">IF(E67="DONE",NOW()-D67, NOW()-D67)</f>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H67" s="36" t="str">
         <f t="shared" ref="H67:H130" ca="1" si="3">IF(E67="DONE", "", NOW()-F67)</f>
@@ -6546,7 +6617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>95</v>
       </c>
@@ -6564,7 +6635,7 @@
       </c>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H68" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6586,7 +6657,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>95</v>
       </c>
@@ -6604,7 +6675,7 @@
       </c>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H69" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6626,7 +6697,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>95</v>
       </c>
@@ -6644,7 +6715,7 @@
       </c>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H70" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6666,7 +6737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>95</v>
       </c>
@@ -6684,7 +6755,7 @@
       </c>
       <c r="G71" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H71" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6706,7 +6777,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>95</v>
       </c>
@@ -6724,7 +6795,7 @@
       </c>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>219.33008333333419</v>
+        <v>219.59733333333133</v>
       </c>
       <c r="H72" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6746,7 +6817,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>95</v>
       </c>
@@ -6764,11 +6835,11 @@
       </c>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H73" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>1.330083333334187</v>
+        <v>1.5973333333313349</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>213</v>
@@ -6786,7 +6857,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>95</v>
       </c>
@@ -6804,11 +6875,11 @@
       </c>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H74" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>128.33008333333419</v>
+        <v>128.59733333333133</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>210</v>
@@ -6826,7 +6897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>95</v>
       </c>
@@ -6844,7 +6915,7 @@
       </c>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H75" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6866,7 +6937,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>95</v>
       </c>
@@ -6884,7 +6955,7 @@
       </c>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H76" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6906,7 +6977,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>95</v>
       </c>
@@ -6924,7 +6995,7 @@
       </c>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H77" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6946,7 +7017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>92</v>
       </c>
@@ -6964,7 +7035,7 @@
       </c>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H78" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6986,7 +7057,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>92</v>
       </c>
@@ -7004,7 +7075,7 @@
       </c>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H79" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7026,7 +7097,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>92</v>
       </c>
@@ -7044,7 +7115,7 @@
       </c>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H80" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7066,7 +7137,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>92</v>
       </c>
@@ -7084,7 +7155,7 @@
       </c>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H81" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7106,7 +7177,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>92</v>
       </c>
@@ -7124,7 +7195,7 @@
       </c>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H82" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7146,7 +7217,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>92</v>
       </c>
@@ -7164,7 +7235,7 @@
       </c>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H83" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7186,7 +7257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>92</v>
       </c>
@@ -7204,7 +7275,7 @@
       </c>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H84" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7226,7 +7297,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>92</v>
       </c>
@@ -7244,7 +7315,7 @@
       </c>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H85" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7266,7 +7337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>92</v>
       </c>
@@ -7284,7 +7355,7 @@
       </c>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H86" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7306,7 +7377,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>92</v>
       </c>
@@ -7324,7 +7395,7 @@
       </c>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H87" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7346,7 +7417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>92</v>
       </c>
@@ -7364,7 +7435,7 @@
       </c>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H88" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7386,7 +7457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>92</v>
       </c>
@@ -7404,7 +7475,7 @@
       </c>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H89" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7426,7 +7497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>92</v>
       </c>
@@ -7444,7 +7515,7 @@
       </c>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H90" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7466,7 +7537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>92</v>
       </c>
@@ -7484,7 +7555,7 @@
       </c>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H91" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7506,7 +7577,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>92</v>
       </c>
@@ -7524,7 +7595,7 @@
       </c>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H92" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7546,7 +7617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>92</v>
       </c>
@@ -7564,7 +7635,7 @@
       </c>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H93" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7586,7 +7657,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>92</v>
       </c>
@@ -7604,7 +7675,7 @@
       </c>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H94" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7626,7 +7697,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
         <v>92</v>
       </c>
@@ -7644,7 +7715,7 @@
       </c>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H95" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7666,7 +7737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>92</v>
       </c>
@@ -7684,7 +7755,7 @@
       </c>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H96" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7706,7 +7777,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>92</v>
       </c>
@@ -7724,7 +7795,7 @@
       </c>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H97" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7746,7 +7817,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>92</v>
       </c>
@@ -7764,7 +7835,7 @@
       </c>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H98" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7786,7 +7857,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>92</v>
       </c>
@@ -7804,7 +7875,7 @@
       </c>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H99" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7826,7 +7897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>92</v>
       </c>
@@ -7844,7 +7915,7 @@
       </c>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H100" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7866,7 +7937,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>92</v>
       </c>
@@ -7884,7 +7955,7 @@
       </c>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H101" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7906,7 +7977,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>92</v>
       </c>
@@ -7924,7 +7995,7 @@
       </c>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H102" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7946,7 +8017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>92</v>
       </c>
@@ -7964,7 +8035,7 @@
       </c>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H103" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7986,7 +8057,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>92</v>
       </c>
@@ -8004,7 +8075,7 @@
       </c>
       <c r="G104" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H104" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8026,7 +8097,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>92</v>
       </c>
@@ -8044,7 +8115,7 @@
       </c>
       <c r="G105" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H105" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8066,7 +8137,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>92</v>
       </c>
@@ -8084,7 +8155,7 @@
       </c>
       <c r="G106" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H106" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8106,7 +8177,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>92</v>
       </c>
@@ -8124,7 +8195,7 @@
       </c>
       <c r="G107" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H107" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8146,7 +8217,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>92</v>
       </c>
@@ -8164,7 +8235,7 @@
       </c>
       <c r="G108" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H108" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8186,7 +8257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>92</v>
       </c>
@@ -8204,7 +8275,7 @@
       </c>
       <c r="G109" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H109" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8226,7 +8297,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>92</v>
       </c>
@@ -8244,7 +8315,7 @@
       </c>
       <c r="G110" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H110" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8266,7 +8337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>92</v>
       </c>
@@ -8284,7 +8355,7 @@
       </c>
       <c r="G111" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H111" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8306,7 +8377,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
         <v>92</v>
       </c>
@@ -8324,7 +8395,7 @@
       </c>
       <c r="G112" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H112" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8346,7 +8417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
         <v>92</v>
       </c>
@@ -8364,7 +8435,7 @@
       </c>
       <c r="G113" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H113" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8386,7 +8457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>92</v>
       </c>
@@ -8404,7 +8475,7 @@
       </c>
       <c r="G114" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H114" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8426,7 +8497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>92</v>
       </c>
@@ -8444,7 +8515,7 @@
       </c>
       <c r="G115" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H115" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8466,7 +8537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>92</v>
       </c>
@@ -8484,7 +8555,7 @@
       </c>
       <c r="G116" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H116" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -8506,7 +8577,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>92</v>
       </c>
@@ -8524,11 +8595,11 @@
       </c>
       <c r="G117" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H117" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>199</v>
@@ -8546,7 +8617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>92</v>
       </c>
@@ -8564,11 +8635,11 @@
       </c>
       <c r="G118" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H118" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>199</v>
@@ -8586,7 +8657,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
         <v>92</v>
       </c>
@@ -8604,11 +8675,11 @@
       </c>
       <c r="G119" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H119" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>199</v>
@@ -8626,7 +8697,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>92</v>
       </c>
@@ -8644,11 +8715,11 @@
       </c>
       <c r="G120" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H120" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>199</v>
@@ -8666,7 +8737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
         <v>92</v>
       </c>
@@ -8684,11 +8755,11 @@
       </c>
       <c r="G121" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H121" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>199</v>
@@ -8706,7 +8777,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>92</v>
       </c>
@@ -8724,11 +8795,11 @@
       </c>
       <c r="G122" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H122" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>199</v>
@@ -8746,7 +8817,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>92</v>
       </c>
@@ -8764,11 +8835,11 @@
       </c>
       <c r="G123" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H123" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>199</v>
@@ -8786,7 +8857,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>92</v>
       </c>
@@ -8804,11 +8875,11 @@
       </c>
       <c r="G124" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H124" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>199</v>
@@ -8826,7 +8897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
         <v>92</v>
       </c>
@@ -8844,11 +8915,11 @@
       </c>
       <c r="G125" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H125" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>210</v>
@@ -8866,7 +8937,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
         <v>92</v>
       </c>
@@ -8884,11 +8955,11 @@
       </c>
       <c r="G126" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H126" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>210</v>
@@ -8906,7 +8977,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
         <v>92</v>
       </c>
@@ -8924,11 +8995,11 @@
       </c>
       <c r="G127" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H127" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>210</v>
@@ -8946,7 +9017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>92</v>
       </c>
@@ -8964,11 +9035,11 @@
       </c>
       <c r="G128" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H128" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>210</v>
@@ -8986,7 +9057,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>92</v>
       </c>
@@ -9004,11 +9075,11 @@
       </c>
       <c r="G129" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H129" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>210</v>
@@ -9026,7 +9097,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
         <v>92</v>
       </c>
@@ -9044,11 +9115,11 @@
       </c>
       <c r="G130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H130" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>210</v>
@@ -9066,7 +9137,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
         <v>92</v>
       </c>
@@ -9084,11 +9155,11 @@
       </c>
       <c r="G131" s="4">
         <f t="shared" ref="G131:G205" ca="1" si="4">IF(E131="DONE",NOW()-D131, NOW()-D131)</f>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H131" s="36">
         <f t="shared" ref="H131:H194" ca="1" si="5">IF(E131="DONE", "", NOW()-F131)</f>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>210</v>
@@ -9106,7 +9177,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>92</v>
       </c>
@@ -9124,11 +9195,11 @@
       </c>
       <c r="G132" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H132" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>210</v>
@@ -9146,7 +9217,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6" t="s">
         <v>92</v>
       </c>
@@ -9164,11 +9235,11 @@
       </c>
       <c r="G133" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H133" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>210</v>
@@ -9186,7 +9257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6" t="s">
         <v>92</v>
       </c>
@@ -9204,11 +9275,11 @@
       </c>
       <c r="G134" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H134" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>210</v>
@@ -9226,7 +9297,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
         <v>92</v>
       </c>
@@ -9244,11 +9315,11 @@
       </c>
       <c r="G135" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H135" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>210</v>
@@ -9266,7 +9337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
         <v>92</v>
       </c>
@@ -9284,11 +9355,11 @@
       </c>
       <c r="G136" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H136" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>210</v>
@@ -9306,7 +9377,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>92</v>
       </c>
@@ -9324,11 +9395,11 @@
       </c>
       <c r="G137" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H137" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>210</v>
@@ -9346,7 +9417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
         <v>92</v>
       </c>
@@ -9364,11 +9435,11 @@
       </c>
       <c r="G138" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H138" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>210</v>
@@ -9386,7 +9457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>92</v>
       </c>
@@ -9404,11 +9475,11 @@
       </c>
       <c r="G139" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H139" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>210</v>
@@ -9426,7 +9497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>92</v>
       </c>
@@ -9444,11 +9515,11 @@
       </c>
       <c r="G140" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H140" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>210</v>
@@ -9466,7 +9537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>92</v>
       </c>
@@ -9484,11 +9555,11 @@
       </c>
       <c r="G141" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H141" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>210</v>
@@ -9506,7 +9577,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>92</v>
       </c>
@@ -9524,11 +9595,11 @@
       </c>
       <c r="G142" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H142" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>199</v>
@@ -9546,7 +9617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
         <v>92</v>
       </c>
@@ -9564,11 +9635,11 @@
       </c>
       <c r="G143" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H143" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>199</v>
@@ -9586,7 +9657,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>92</v>
       </c>
@@ -9604,11 +9675,11 @@
       </c>
       <c r="G144" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H144" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>199</v>
@@ -9626,7 +9697,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="6" t="s">
         <v>92</v>
       </c>
@@ -9644,11 +9715,11 @@
       </c>
       <c r="G145" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H145" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>199</v>
@@ -9666,7 +9737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
         <v>92</v>
       </c>
@@ -9684,11 +9755,11 @@
       </c>
       <c r="G146" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H146" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>199</v>
@@ -9706,7 +9777,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="6" t="s">
         <v>92</v>
       </c>
@@ -9724,11 +9795,11 @@
       </c>
       <c r="G147" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H147" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>199</v>
@@ -9746,7 +9817,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>92</v>
       </c>
@@ -9764,11 +9835,11 @@
       </c>
       <c r="G148" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H148" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>199</v>
@@ -9786,7 +9857,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
         <v>92</v>
       </c>
@@ -9804,11 +9875,11 @@
       </c>
       <c r="G149" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H149" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>199</v>
@@ -9826,7 +9897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
         <v>92</v>
       </c>
@@ -9844,11 +9915,11 @@
       </c>
       <c r="G150" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H150" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>199</v>
@@ -9866,7 +9937,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
         <v>94</v>
       </c>
@@ -9884,7 +9955,7 @@
       </c>
       <c r="G151" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H151" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9906,7 +9977,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="17" t="s">
         <v>94</v>
       </c>
@@ -9924,7 +9995,7 @@
       </c>
       <c r="G152" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H152" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9946,7 +10017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="17" t="s">
         <v>94</v>
       </c>
@@ -9964,7 +10035,7 @@
       </c>
       <c r="G153" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H153" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9986,7 +10057,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="17" t="s">
         <v>94</v>
       </c>
@@ -10004,7 +10075,7 @@
       </c>
       <c r="G154" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H154" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10026,7 +10097,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
         <v>99</v>
       </c>
@@ -10044,7 +10115,7 @@
       </c>
       <c r="G155" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H155" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10066,7 +10137,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="21" t="s">
         <v>99</v>
       </c>
@@ -10084,7 +10155,7 @@
       </c>
       <c r="G156" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H156" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10106,7 +10177,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="21" t="s">
         <v>99</v>
       </c>
@@ -10124,7 +10195,7 @@
       </c>
       <c r="G157" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H157" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10146,7 +10217,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="21" t="s">
         <v>99</v>
       </c>
@@ -10164,7 +10235,7 @@
       </c>
       <c r="G158" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H158" s="36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10186,7 +10257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="21" t="s">
         <v>99</v>
       </c>
@@ -10204,11 +10275,11 @@
       </c>
       <c r="G159" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="H159" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>213</v>
@@ -10229,7 +10300,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
         <v>108</v>
       </c>
@@ -10243,18 +10314,18 @@
         <v>236</v>
       </c>
       <c r="F160" s="27">
-        <v>45413</v>
+        <v>45511</v>
       </c>
       <c r="G160" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H160" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
+        <v>0.59733333333133487</v>
       </c>
       <c r="I160" s="25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K160" s="25" t="s">
         <v>231</v>
@@ -10269,7 +10340,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="25" t="s">
         <v>108</v>
       </c>
@@ -10287,15 +10358,18 @@
       </c>
       <c r="G161" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H161" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="I161" s="25" t="s">
         <v>210</v>
       </c>
+      <c r="J161" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="K161" s="25" t="s">
         <v>231</v>
       </c>
@@ -10309,7 +10383,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="25" t="s">
         <v>108</v>
       </c>
@@ -10327,15 +10401,18 @@
       </c>
       <c r="G162" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H162" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="I162" s="25" t="s">
         <v>210</v>
       </c>
+      <c r="J162" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="K162" s="25" t="s">
         <v>231</v>
       </c>
@@ -10349,7 +10426,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="25" t="s">
         <v>108</v>
       </c>
@@ -10367,15 +10444,18 @@
       </c>
       <c r="G163" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H163" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="I163" s="25" t="s">
         <v>210</v>
       </c>
+      <c r="J163" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="K163" s="25" t="s">
         <v>231</v>
       </c>
@@ -10389,7 +10469,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="25" t="s">
         <v>108</v>
       </c>
@@ -10407,15 +10487,18 @@
       </c>
       <c r="G164" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H164" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="I164" s="25" t="s">
         <v>210</v>
       </c>
+      <c r="J164" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="K164" s="25" t="s">
         <v>231</v>
       </c>
@@ -10429,7 +10512,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="25" t="s">
         <v>108</v>
       </c>
@@ -10447,15 +10530,18 @@
       </c>
       <c r="G165" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H165" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="I165" s="25" t="s">
         <v>210</v>
       </c>
+      <c r="J165" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="K165" s="25" t="s">
         <v>231</v>
       </c>
@@ -10469,7 +10555,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="25" t="s">
         <v>108</v>
       </c>
@@ -10487,15 +10573,18 @@
       </c>
       <c r="G166" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H166" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
+        <v>98.597333333331335</v>
       </c>
       <c r="I166" s="25" t="s">
         <v>210</v>
       </c>
+      <c r="J166" s="15" t="s">
+        <v>353</v>
+      </c>
       <c r="K166" s="25" t="s">
         <v>231</v>
       </c>
@@ -10509,7 +10598,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="25" t="s">
         <v>108</v>
       </c>
@@ -10523,18 +10612,18 @@
         <v>236</v>
       </c>
       <c r="F167" s="27">
-        <v>45413</v>
+        <v>45511</v>
       </c>
       <c r="G167" s="24">
         <f t="shared" ca="1" si="4"/>
-        <v>67.330083333334187</v>
+        <v>67.597333333331335</v>
       </c>
       <c r="H167" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>98.330083333334187</v>
-      </c>
-      <c r="I167" s="25" t="s">
-        <v>210</v>
+        <v>0.59733333333133487</v>
+      </c>
+      <c r="I167" s="37" t="s">
+        <v>213</v>
       </c>
       <c r="K167" s="25" t="s">
         <v>231</v>
@@ -10549,7 +10638,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>817330413</v>
       </c>
@@ -10570,17 +10659,17 @@
       </c>
       <c r="G168" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H168" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I168" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J168" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K168" s="37" t="s">
         <v>231</v>
@@ -10595,7 +10684,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>180350376</v>
       </c>
@@ -10616,17 +10705,17 @@
       </c>
       <c r="G169" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H169" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I169" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J169" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K169" s="37" t="s">
         <v>231</v>
@@ -10641,7 +10730,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>180350029</v>
       </c>
@@ -10662,17 +10751,17 @@
       </c>
       <c r="G170" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H170" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I170" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J170" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K170" s="37" t="s">
         <v>231</v>
@@ -10687,7 +10776,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>817330413</v>
       </c>
@@ -10708,17 +10797,17 @@
       </c>
       <c r="G171" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H171" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I171" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J171" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K171" s="37" t="s">
         <v>231</v>
@@ -10733,7 +10822,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>180350376</v>
       </c>
@@ -10754,17 +10843,17 @@
       </c>
       <c r="G172" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H172" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I172" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J172" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K172" s="37" t="s">
         <v>231</v>
@@ -10779,7 +10868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>180350029</v>
       </c>
@@ -10800,17 +10889,17 @@
       </c>
       <c r="G173" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H173" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I173" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J173" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K173" s="37" t="s">
         <v>231</v>
@@ -10825,7 +10914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>816310629</v>
       </c>
@@ -10846,17 +10935,17 @@
       </c>
       <c r="G174" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H174" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I174" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J174" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K174" s="37" t="s">
         <v>231</v>
@@ -10871,7 +10960,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>180350364</v>
       </c>
@@ -10892,17 +10981,17 @@
       </c>
       <c r="G175" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H175" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I175" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J175" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K175" s="37" t="s">
         <v>231</v>
@@ -10917,7 +11006,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>180350022</v>
       </c>
@@ -10938,17 +11027,17 @@
       </c>
       <c r="G176" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H176" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I176" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J176" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K176" s="37" t="s">
         <v>231</v>
@@ -10963,7 +11052,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>816330271</v>
       </c>
@@ -10984,17 +11073,17 @@
       </c>
       <c r="G177" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H177" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I177" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J177" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K177" s="37" t="s">
         <v>231</v>
@@ -11009,7 +11098,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>1803500377</v>
       </c>
@@ -11030,17 +11119,17 @@
       </c>
       <c r="G178" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="H178" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I178" s="37" t="s">
         <v>323</v>
       </c>
       <c r="J178" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K178" s="37" t="s">
         <v>231</v>
@@ -11055,7 +11144,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="41" t="s">
         <v>93</v>
       </c>
@@ -11073,11 +11162,11 @@
       </c>
       <c r="G179" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H179" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I179" s="29" t="s">
         <v>210</v>
@@ -11095,7 +11184,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="41" t="s">
         <v>93</v>
       </c>
@@ -11113,11 +11202,11 @@
       </c>
       <c r="G180" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H180" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I180" s="29" t="s">
         <v>210</v>
@@ -11135,7 +11224,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="41" t="s">
         <v>93</v>
       </c>
@@ -11153,11 +11242,11 @@
       </c>
       <c r="G181" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H181" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I181" s="29" t="s">
         <v>210</v>
@@ -11175,7 +11264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="41" t="s">
         <v>93</v>
       </c>
@@ -11193,17 +11282,17 @@
       </c>
       <c r="G182" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H182" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>323</v>
       </c>
       <c r="J182" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K182" s="29" t="s">
         <v>231</v>
@@ -11218,7 +11307,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="41" t="s">
         <v>93</v>
       </c>
@@ -11236,11 +11325,11 @@
       </c>
       <c r="G183" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H183" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I183" s="29" t="s">
         <v>210</v>
@@ -11258,7 +11347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="41" t="s">
         <v>93</v>
       </c>
@@ -11276,11 +11365,11 @@
       </c>
       <c r="G184" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H184" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I184" s="29" t="s">
         <v>210</v>
@@ -11298,7 +11387,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="41" t="s">
         <v>93</v>
       </c>
@@ -11316,11 +11405,11 @@
       </c>
       <c r="G185" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H185" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I185" s="29" t="s">
         <v>210</v>
@@ -11338,7 +11427,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="41" t="s">
         <v>93</v>
       </c>
@@ -11356,11 +11445,11 @@
       </c>
       <c r="G186" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H186" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I186" s="29" t="s">
         <v>210</v>
@@ -11378,7 +11467,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="41" t="s">
         <v>93</v>
       </c>
@@ -11396,11 +11485,11 @@
       </c>
       <c r="G187" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H187" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I187" s="29" t="s">
         <v>210</v>
@@ -11418,7 +11507,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="41" t="s">
         <v>93</v>
       </c>
@@ -11436,11 +11525,11 @@
       </c>
       <c r="G188" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H188" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I188" s="29" t="s">
         <v>210</v>
@@ -11458,7 +11547,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="41" t="s">
         <v>93</v>
       </c>
@@ -11476,11 +11565,11 @@
       </c>
       <c r="G189" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H189" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I189" s="29" t="s">
         <v>210</v>
@@ -11498,7 +11587,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="41" t="s">
         <v>93</v>
       </c>
@@ -11516,11 +11605,11 @@
       </c>
       <c r="G190" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H190" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I190" s="29" t="s">
         <v>210</v>
@@ -11538,7 +11627,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="41" t="s">
         <v>93</v>
       </c>
@@ -11556,11 +11645,11 @@
       </c>
       <c r="G191" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H191" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I191" s="29" t="s">
         <v>210</v>
@@ -11578,7 +11667,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="41" t="s">
         <v>93</v>
       </c>
@@ -11596,11 +11685,11 @@
       </c>
       <c r="G192" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H192" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I192" s="29" t="s">
         <v>210</v>
@@ -11618,7 +11707,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="41" t="s">
         <v>93</v>
       </c>
@@ -11636,11 +11725,11 @@
       </c>
       <c r="G193" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H193" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I193" s="29" t="s">
         <v>210</v>
@@ -11658,7 +11747,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="41" t="s">
         <v>93</v>
       </c>
@@ -11676,11 +11765,11 @@
       </c>
       <c r="G194" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H194" s="36">
         <f t="shared" ca="1" si="5"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I194" s="29" t="s">
         <v>210</v>
@@ -11698,7 +11787,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="41" t="s">
         <v>93</v>
       </c>
@@ -11716,11 +11805,11 @@
       </c>
       <c r="G195" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H195" s="36">
-        <f t="shared" ref="H195:H248" ca="1" si="6">IF(E195="DONE", "", NOW()-F195)</f>
-        <v>37.330083333334187</v>
+        <f t="shared" ref="H195:H250" ca="1" si="6">IF(E195="DONE", "", NOW()-F195)</f>
+        <v>37.597333333331335</v>
       </c>
       <c r="I195" s="29" t="s">
         <v>210</v>
@@ -11738,7 +11827,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="41" t="s">
         <v>93</v>
       </c>
@@ -11756,11 +11845,11 @@
       </c>
       <c r="G196" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H196" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I196" s="29" t="s">
         <v>210</v>
@@ -11778,7 +11867,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="41" t="s">
         <v>93</v>
       </c>
@@ -11796,11 +11885,11 @@
       </c>
       <c r="G197" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H197" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I197" s="29" t="s">
         <v>210</v>
@@ -11818,7 +11907,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="41" t="s">
         <v>93</v>
       </c>
@@ -11836,11 +11925,11 @@
       </c>
       <c r="G198" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H198" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I198" s="29" t="s">
         <v>210</v>
@@ -11858,7 +11947,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="41" t="s">
         <v>93</v>
       </c>
@@ -11876,11 +11965,11 @@
       </c>
       <c r="G199" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H199" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I199" s="29" t="s">
         <v>210</v>
@@ -11898,7 +11987,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="41" t="s">
         <v>93</v>
       </c>
@@ -11916,11 +12005,11 @@
       </c>
       <c r="G200" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H200" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I200" s="29" t="s">
         <v>210</v>
@@ -11938,7 +12027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="41" t="s">
         <v>93</v>
       </c>
@@ -11956,11 +12045,11 @@
       </c>
       <c r="G201" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H201" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="I201" s="29" t="s">
         <v>210</v>
@@ -11978,7 +12067,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
         <v>169</v>
       </c>
@@ -11996,11 +12085,11 @@
       </c>
       <c r="G202" s="32">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H202" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I202" s="33" t="s">
         <v>210</v>
@@ -12018,7 +12107,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="33" t="s">
         <v>169</v>
       </c>
@@ -12036,11 +12125,11 @@
       </c>
       <c r="G203" s="32">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H203" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I203" s="33" t="s">
         <v>210</v>
@@ -12058,7 +12147,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="33" t="s">
         <v>169</v>
       </c>
@@ -12076,11 +12165,11 @@
       </c>
       <c r="G204" s="32">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H204" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I204" s="33" t="s">
         <v>210</v>
@@ -12098,7 +12187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="33" t="s">
         <v>169</v>
       </c>
@@ -12116,11 +12205,11 @@
       </c>
       <c r="G205" s="32">
         <f t="shared" ca="1" si="4"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H205" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I205" s="33" t="s">
         <v>210</v>
@@ -12138,7 +12227,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="33" t="s">
         <v>169</v>
       </c>
@@ -12155,12 +12244,12 @@
         <v>45488</v>
       </c>
       <c r="G206" s="32">
-        <f t="shared" ref="G206:G247" ca="1" si="7">IF(E206="DONE",NOW()-D206, NOW()-D206)</f>
-        <v>37.330083333334187</v>
+        <f t="shared" ref="G206:G249" ca="1" si="7">IF(E206="DONE",NOW()-D206, NOW()-D206)</f>
+        <v>37.597333333331335</v>
       </c>
       <c r="H206" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I206" s="33" t="s">
         <v>210</v>
@@ -12178,7 +12267,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="33" t="s">
         <v>169</v>
       </c>
@@ -12196,11 +12285,11 @@
       </c>
       <c r="G207" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H207" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I207" s="33" t="s">
         <v>210</v>
@@ -12218,7 +12307,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="33" t="s">
         <v>169</v>
       </c>
@@ -12236,11 +12325,11 @@
       </c>
       <c r="G208" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H208" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I208" s="33" t="s">
         <v>210</v>
@@ -12258,7 +12347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="33" t="s">
         <v>169</v>
       </c>
@@ -12276,11 +12365,11 @@
       </c>
       <c r="G209" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H209" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I209" s="33" t="s">
         <v>210</v>
@@ -12298,7 +12387,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="33" t="s">
         <v>169</v>
       </c>
@@ -12316,11 +12405,11 @@
       </c>
       <c r="G210" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H210" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I210" s="33" t="s">
         <v>210</v>
@@ -12338,7 +12427,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="33" t="s">
         <v>169</v>
       </c>
@@ -12356,11 +12445,11 @@
       </c>
       <c r="G211" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H211" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I211" s="33" t="s">
         <v>210</v>
@@ -12378,7 +12467,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="33" t="s">
         <v>169</v>
       </c>
@@ -12396,11 +12485,11 @@
       </c>
       <c r="G212" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H212" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I212" s="33" t="s">
         <v>210</v>
@@ -12418,7 +12507,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="33" t="s">
         <v>169</v>
       </c>
@@ -12436,11 +12525,11 @@
       </c>
       <c r="G213" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H213" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I213" s="33" t="s">
         <v>210</v>
@@ -12458,7 +12547,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="33" t="s">
         <v>169</v>
       </c>
@@ -12476,11 +12565,11 @@
       </c>
       <c r="G214" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H214" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I214" s="33" t="s">
         <v>210</v>
@@ -12498,7 +12587,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="33" t="s">
         <v>169</v>
       </c>
@@ -12516,11 +12605,11 @@
       </c>
       <c r="G215" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H215" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I215" s="33" t="s">
         <v>210</v>
@@ -12538,7 +12627,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="33" t="s">
         <v>169</v>
       </c>
@@ -12556,11 +12645,11 @@
       </c>
       <c r="G216" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H216" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I216" s="33" t="s">
         <v>210</v>
@@ -12578,7 +12667,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="33" t="s">
         <v>169</v>
       </c>
@@ -12596,11 +12685,11 @@
       </c>
       <c r="G217" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H217" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I217" s="33" t="s">
         <v>210</v>
@@ -12618,7 +12707,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="33" t="s">
         <v>169</v>
       </c>
@@ -12636,11 +12725,11 @@
       </c>
       <c r="G218" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H218" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I218" s="33" t="s">
         <v>210</v>
@@ -12658,7 +12747,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="33" t="s">
         <v>169</v>
       </c>
@@ -12676,11 +12765,11 @@
       </c>
       <c r="G219" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H219" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I219" s="33" t="s">
         <v>210</v>
@@ -12698,7 +12787,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="33" t="s">
         <v>169</v>
       </c>
@@ -12716,11 +12805,11 @@
       </c>
       <c r="G220" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H220" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I220" s="33" t="s">
         <v>210</v>
@@ -12738,7 +12827,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="33" t="s">
         <v>169</v>
       </c>
@@ -12756,11 +12845,11 @@
       </c>
       <c r="G221" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H221" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I221" s="33" t="s">
         <v>210</v>
@@ -12778,7 +12867,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="33" t="s">
         <v>169</v>
       </c>
@@ -12796,11 +12885,11 @@
       </c>
       <c r="G222" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H222" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I222" s="33" t="s">
         <v>210</v>
@@ -12818,7 +12907,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="33" t="s">
         <v>169</v>
       </c>
@@ -12836,11 +12925,11 @@
       </c>
       <c r="G223" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H223" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I223" s="33" t="s">
         <v>210</v>
@@ -12858,7 +12947,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="33" t="s">
         <v>169</v>
       </c>
@@ -12876,11 +12965,11 @@
       </c>
       <c r="G224" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H224" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I224" s="33" t="s">
         <v>210</v>
@@ -12898,7 +12987,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="33" t="s">
         <v>169</v>
       </c>
@@ -12916,11 +13005,11 @@
       </c>
       <c r="G225" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H225" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I225" s="33" t="s">
         <v>210</v>
@@ -12938,7 +13027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="33" t="s">
         <v>169</v>
       </c>
@@ -12956,11 +13045,11 @@
       </c>
       <c r="G226" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H226" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I226" s="33" t="s">
         <v>210</v>
@@ -12978,7 +13067,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="33" t="s">
         <v>169</v>
       </c>
@@ -12996,11 +13085,11 @@
       </c>
       <c r="G227" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H227" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I227" s="33" t="s">
         <v>210</v>
@@ -13018,7 +13107,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="33" t="s">
         <v>169</v>
       </c>
@@ -13036,11 +13125,11 @@
       </c>
       <c r="G228" s="32">
         <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <v>37.597333333331335</v>
       </c>
       <c r="H228" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>23.330083333334187</v>
+        <v>23.597333333331335</v>
       </c>
       <c r="I228" s="33" t="s">
         <v>210</v>
@@ -13058,7 +13147,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="41" t="s">
         <v>185</v>
       </c>
@@ -13076,11 +13165,11 @@
       </c>
       <c r="G229" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>13.330083333334187</v>
+        <v>13.597333333331335</v>
       </c>
       <c r="H229" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I229" s="37" t="s">
         <v>221</v>
@@ -13098,7 +13187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="41" t="s">
         <v>185</v>
       </c>
@@ -13116,11 +13205,11 @@
       </c>
       <c r="G230" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>13.330083333334187</v>
+        <v>13.597333333331335</v>
       </c>
       <c r="H230" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I230" s="6" t="s">
         <v>221</v>
@@ -13138,7 +13227,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="41" t="s">
         <v>185</v>
       </c>
@@ -13156,11 +13245,11 @@
       </c>
       <c r="G231" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>13.330083333334187</v>
+        <v>13.597333333331335</v>
       </c>
       <c r="H231" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I231" s="37" t="s">
         <v>221</v>
@@ -13178,7 +13267,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="41" t="s">
         <v>185</v>
       </c>
@@ -13196,11 +13285,11 @@
       </c>
       <c r="G232" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>13.330083333334187</v>
+        <v>13.597333333331335</v>
       </c>
       <c r="H232" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>5.330083333334187</v>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I232" s="37" t="s">
         <v>221</v>
@@ -13221,7 +13310,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="41" t="s">
         <v>185</v>
       </c>
@@ -13239,11 +13328,11 @@
       </c>
       <c r="G233" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>13.330083333334187</v>
+        <v>13.597333333331335</v>
       </c>
       <c r="H233" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I233" s="37" t="s">
         <v>221</v>
@@ -13261,7 +13350,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="41" t="s">
         <v>185</v>
       </c>
@@ -13279,11 +13368,11 @@
       </c>
       <c r="G234" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>13.330083333334187</v>
+        <v>13.597333333331335</v>
       </c>
       <c r="H234" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I234" s="37" t="s">
         <v>221</v>
@@ -13301,7 +13390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="41" t="s">
         <v>185</v>
       </c>
@@ -13319,11 +13408,11 @@
       </c>
       <c r="G235" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>13.330083333334187</v>
+        <v>13.597333333331335</v>
       </c>
       <c r="H235" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I235" s="37" t="s">
         <v>221</v>
@@ -13341,7 +13430,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="236" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
       <c r="B236" s="41" t="s">
         <v>185</v>
@@ -13359,12 +13448,12 @@
         <v>45506</v>
       </c>
       <c r="G236" s="36">
-        <f t="shared" ref="G236:G237" ca="1" si="8">IF(E236="DONE",NOW()-D236, NOW()-D236)</f>
-        <v>13.330083333334187</v>
+        <f t="shared" ref="G236:G238" ca="1" si="8">IF(E236="DONE",NOW()-D236, NOW()-D236)</f>
+        <v>13.597333333331335</v>
       </c>
       <c r="H236" s="36">
-        <f t="shared" ref="H236:H237" ca="1" si="9">IF(E236="DONE", "", NOW()-F236)</f>
-        <v>5.330083333334187</v>
+        <f t="shared" ref="H236:H238" ca="1" si="9">IF(E236="DONE", "", NOW()-F236)</f>
+        <v>5.5973333333313349</v>
       </c>
       <c r="I236" s="37" t="s">
         <v>221</v>
@@ -13391,7 +13480,7 @@
         <v>185</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D237" s="39">
         <v>45509</v>
@@ -13404,11 +13493,11 @@
       </c>
       <c r="G237" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>2.330083333334187</v>
+        <v>2.5973333333313349</v>
       </c>
       <c r="H237" s="36">
         <f t="shared" ca="1" si="9"/>
-        <v>2.330083333334187</v>
+        <v>2.5973333333313349</v>
       </c>
       <c r="I237" s="37" t="s">
         <v>221</v>
@@ -13427,12 +13516,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="14"/>
       <c r="B238" s="41" t="s">
         <v>185</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D238" s="39">
         <v>45509</v>
@@ -13444,16 +13534,17 @@
         <v>45509</v>
       </c>
       <c r="G238" s="36">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.330083333334187</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5973333333313349</v>
       </c>
       <c r="H238" s="36">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.330083333334187</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2.5973333333313349</v>
       </c>
       <c r="I238" s="37" t="s">
         <v>221</v>
       </c>
+      <c r="J238" s="15"/>
       <c r="K238" s="37" t="s">
         <v>231</v>
       </c>
@@ -13467,37 +13558,35 @@
         <v>229</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B239" s="41" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D239" s="39">
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="E239" s="37" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="F239" s="39">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="G239" s="36">
-        <f t="shared" ref="G239:G241" ca="1" si="10">IF(E239="DONE",NOW()-D239, NOW()-D239)</f>
-        <v>16.330083333334187</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.5973333333313349</v>
       </c>
       <c r="H239" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>9.330083333334187</v>
+        <v>2.5973333333313349</v>
       </c>
       <c r="I239" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="J239" s="15"/>
       <c r="K239" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L239" s="37" t="s">
         <v>223</v>
@@ -13506,40 +13595,40 @@
         <v>98</v>
       </c>
       <c r="N239" s="38" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
       <c r="B240" s="41" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="D240" s="39">
-        <v>45495</v>
+        <v>45509</v>
       </c>
       <c r="E240" s="37" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="F240" s="39">
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="G240" s="36">
-        <f t="shared" ref="G240" ca="1" si="11">IF(E240="DONE",NOW()-D240, NOW()-D240)</f>
-        <v>16.330083333334187</v>
+        <f t="shared" ref="G240" ca="1" si="10">IF(E240="DONE",NOW()-D240, NOW()-D240)</f>
+        <v>2.5973333333313349</v>
       </c>
       <c r="H240" s="36">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.330083333334187</v>
+        <f t="shared" ref="H240" ca="1" si="11">IF(E240="DONE", "", NOW()-F240)</f>
+        <v>2.5973333333313349</v>
       </c>
       <c r="I240" s="37" t="s">
         <v>221</v>
       </c>
       <c r="J240" s="15"/>
       <c r="K240" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L240" s="37" t="s">
         <v>223</v>
@@ -13551,13 +13640,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="241" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
       <c r="B241" s="41" t="s">
         <v>177</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D241" s="39">
         <v>45495</v>
@@ -13569,12 +13658,12 @@
         <v>45502</v>
       </c>
       <c r="G241" s="36">
-        <f t="shared" ca="1" si="10"/>
-        <v>16.330083333334187</v>
+        <f t="shared" ref="G241:G243" ca="1" si="12">IF(E241="DONE",NOW()-D241, NOW()-D241)</f>
+        <v>16.597333333331335</v>
       </c>
       <c r="H241" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I241" s="37" t="s">
         <v>221</v>
@@ -13593,13 +13682,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="242" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" s="41" t="s">
         <v>177</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D242" s="39">
         <v>45495</v>
@@ -13611,12 +13700,12 @@
         <v>45502</v>
       </c>
       <c r="G242" s="36">
-        <f t="shared" ref="G242" ca="1" si="12">IF(E242="DONE",NOW()-D242, NOW()-D242)</f>
-        <v>16.330083333334187</v>
+        <f t="shared" ref="G242" ca="1" si="13">IF(E242="DONE",NOW()-D242, NOW()-D242)</f>
+        <v>16.597333333331335</v>
       </c>
       <c r="H242" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>9.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I242" s="37" t="s">
         <v>221</v>
@@ -13635,37 +13724,35 @@
         <v>96</v>
       </c>
     </row>
-    <row r="243" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
-      <c r="B243" s="37" t="s">
-        <v>106</v>
+      <c r="B243" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D243" s="39">
-        <v>45474</v>
+        <v>45495</v>
       </c>
       <c r="E243" s="37" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="F243" s="39">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="G243" s="36">
-        <f t="shared" ref="G243:G245" ca="1" si="13">IF(E243="DONE",NOW()-D243, NOW()-D243)</f>
-        <v>37.330083333334187</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16.597333333331335</v>
       </c>
       <c r="H243" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>16.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I243" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J243" s="15" t="s">
-        <v>334</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="J243" s="15"/>
       <c r="K243" s="37" t="s">
         <v>232</v>
       </c>
@@ -13679,37 +13766,35 @@
         <v>96</v>
       </c>
     </row>
-    <row r="244" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
-      <c r="B244" s="37" t="s">
-        <v>106</v>
+      <c r="B244" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D244" s="39">
-        <v>45474</v>
+        <v>45495</v>
       </c>
       <c r="E244" s="37" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="F244" s="39">
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="G244" s="36">
         <f t="shared" ref="G244" ca="1" si="14">IF(E244="DONE",NOW()-D244, NOW()-D244)</f>
-        <v>37.330083333334187</v>
+        <v>16.597333333331335</v>
       </c>
       <c r="H244" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>16.330083333334187</v>
+        <v>9.5973333333313349</v>
       </c>
       <c r="I244" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J244" s="15" t="s">
-        <v>334</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="J244" s="15"/>
       <c r="K244" s="37" t="s">
         <v>232</v>
       </c>
@@ -13720,38 +13805,40 @@
         <v>98</v>
       </c>
       <c r="N244" s="38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
       <c r="B245" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D245" s="39">
         <v>45474</v>
       </c>
       <c r="E245" s="37" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F245" s="39">
-        <v>45507</v>
+        <v>45495</v>
       </c>
       <c r="G245" s="36">
-        <f t="shared" ca="1" si="13"/>
-        <v>37.330083333334187</v>
+        <f t="shared" ref="G245:G247" ca="1" si="15">IF(E245="DONE",NOW()-D245, NOW()-D245)</f>
+        <v>37.597333333331335</v>
       </c>
       <c r="H245" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>16.597333333331335</v>
       </c>
       <c r="I245" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="J245" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="J245" s="15" t="s">
+        <v>334</v>
+      </c>
       <c r="K245" s="37" t="s">
         <v>232</v>
       </c>
@@ -13761,37 +13848,41 @@
       <c r="M245" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="N245" s="38"/>
-    </row>
-    <row r="246" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N245" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" s="37" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D246" s="39">
         <v>45474</v>
       </c>
       <c r="E246" s="37" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F246" s="39">
-        <v>45507</v>
+        <v>45495</v>
       </c>
       <c r="G246" s="36">
-        <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <f t="shared" ref="G246" ca="1" si="16">IF(E246="DONE",NOW()-D246, NOW()-D246)</f>
+        <v>37.597333333331335</v>
       </c>
       <c r="H246" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>16.597333333331335</v>
       </c>
       <c r="I246" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="J246" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="J246" s="15" t="s">
+        <v>334</v>
+      </c>
       <c r="K246" s="37" t="s">
         <v>232</v>
       </c>
@@ -13801,38 +13892,39 @@
       <c r="M246" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="N246" s="38"/>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B247" s="6" t="s">
-        <v>105</v>
+      <c r="N246" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="14"/>
+      <c r="B247" s="37" t="s">
+        <v>107</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D247" s="39">
         <v>45474</v>
       </c>
-      <c r="E247" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F247" s="11">
+      <c r="E247" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F247" s="39">
         <v>45507</v>
       </c>
       <c r="G247" s="36">
-        <f t="shared" ca="1" si="7"/>
-        <v>37.330083333334187</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>37.597333333331335</v>
       </c>
       <c r="H247" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J247" s="15" t="s">
-        <v>335</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="J247" s="15"/>
       <c r="K247" s="37" t="s">
         <v>232</v>
       </c>
@@ -13842,40 +13934,37 @@
       <c r="M247" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="N247" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N247" s="38"/>
+    </row>
+    <row r="248" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="14"/>
       <c r="B248" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D248" s="39">
         <v>45474</v>
       </c>
       <c r="E248" s="37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F248" s="39">
         <v>45507</v>
       </c>
       <c r="G248" s="36">
-        <f t="shared" ref="G248" ca="1" si="15">IF(E248="DONE",NOW()-D248, NOW()-D248)</f>
-        <v>37.330083333334187</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>37.597333333331335</v>
       </c>
       <c r="H248" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>4.330083333334187</v>
+        <v>4.5973333333313349</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J248" s="15" t="s">
-        <v>335</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="J248" s="15"/>
       <c r="K248" s="37" t="s">
         <v>232</v>
       </c>
@@ -13885,112 +13974,224 @@
       <c r="M248" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="N248" s="7" t="s">
+      <c r="N248" s="38"/>
+    </row>
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D249" s="39">
+        <v>45474</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F249" s="11">
+        <v>45507</v>
+      </c>
+      <c r="G249" s="36">
+        <f t="shared" ca="1" si="7"/>
+        <v>37.597333333331335</v>
+      </c>
+      <c r="H249" s="36">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.5973333333313349</v>
+      </c>
+      <c r="I249" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="J249" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="K249" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="L249" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="M249" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="N249" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D250" s="39">
+        <v>45474</v>
+      </c>
+      <c r="E250" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F250" s="39">
+        <v>45507</v>
+      </c>
+      <c r="G250" s="36">
+        <f t="shared" ref="G250" ca="1" si="17">IF(E250="DONE",NOW()-D250, NOW()-D250)</f>
+        <v>37.597333333331335</v>
+      </c>
+      <c r="H250" s="36">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.5973333333313349</v>
+      </c>
+      <c r="I250" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="J250" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="K250" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="L250" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="M250" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="N250" s="7" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1"/>
-  <conditionalFormatting sqref="C249:C1048576 C243 C1:C168 C179:C235 C245:C247 C238">
+  <autoFilter ref="A1:V250">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NOT STARTED"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="C251:C1048576 C245 C1:C168 C179:C235 C247:C249 C239">
+    <cfRule type="duplicateValues" dxfId="37" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="duplicateValues" dxfId="35" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
     <cfRule type="duplicateValues" dxfId="31" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
+  <conditionalFormatting sqref="C170">
     <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
+  <conditionalFormatting sqref="C171">
     <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
+  <conditionalFormatting sqref="C172">
     <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
+  <conditionalFormatting sqref="C173">
     <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
+  <conditionalFormatting sqref="C251:C1048576 C245 C1:C235 C247:C249 C239">
     <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
+  <conditionalFormatting sqref="C241">
     <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
+  <conditionalFormatting sqref="C241">
     <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
+  <conditionalFormatting sqref="C244">
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
+  <conditionalFormatting sqref="C244">
     <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
+  <conditionalFormatting sqref="C243">
     <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C249:C1048576 C243 C1:C235 C245:C247 C238">
+  <conditionalFormatting sqref="C243">
     <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
+  <conditionalFormatting sqref="C242">
     <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
+  <conditionalFormatting sqref="C242">
     <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
+  <conditionalFormatting sqref="C250">
     <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
+  <conditionalFormatting sqref="C250">
     <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  <conditionalFormatting sqref="E1:E235 E241:E1048576">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+  <conditionalFormatting sqref="E236">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
+  <conditionalFormatting sqref="C237">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
+  <conditionalFormatting sqref="C237">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E235 E239:E1048576">
+  <conditionalFormatting sqref="E237">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E236">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="E239">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E237">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E238">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E238">
+  <conditionalFormatting sqref="C240">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E240">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
@@ -14042,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/enrollment/ENROLLMENT RAW.xlsx
+++ b/data/enrollment/ENROLLMENT RAW.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$O$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$O$1</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="all">#REF!</definedName>
     <definedName name="AREA">list!$E$2:$E$5</definedName>
@@ -105,7 +105,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1401,7 +1401,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1479,16 +1479,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3591,7 +3581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -3939,13 +3929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4004,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>95</v>
       </c>
@@ -4032,7 +4022,7 @@
       </c>
       <c r="G2" s="3">
         <f ca="1">IF(E2="DONE",NOW()-D2, NOW()-D2)</f>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H2" s="3" t="str">
         <f ca="1">IF(E2="DONE", "", NOW()-F2)</f>
@@ -4057,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -4075,7 +4065,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G67" ca="1" si="0">IF(E3="DONE",NOW()-D3, NOW()-D3)</f>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" ref="H3:H67" ca="1" si="1">IF(E3="DONE", "", NOW()-F3)</f>
@@ -4100,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
@@ -4118,7 +4108,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4143,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>95</v>
       </c>
@@ -4161,7 +4151,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4186,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
@@ -4204,7 +4194,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4229,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
@@ -4247,7 +4237,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4272,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -4290,7 +4280,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4315,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>95</v>
       </c>
@@ -4333,7 +4323,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4358,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>95</v>
       </c>
@@ -4376,7 +4366,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4401,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
@@ -4419,7 +4409,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4444,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>95</v>
       </c>
@@ -4462,7 +4452,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4487,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -4505,7 +4495,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4530,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>95</v>
       </c>
@@ -4548,7 +4538,7 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4573,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>95</v>
       </c>
@@ -4591,7 +4581,7 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4616,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>95</v>
       </c>
@@ -4634,7 +4624,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4659,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>95</v>
       </c>
@@ -4677,7 +4667,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4702,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -4720,7 +4710,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H18" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4745,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>92</v>
       </c>
@@ -4763,11 +4753,11 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H19" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>220</v>
@@ -4788,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
@@ -4806,11 +4796,11 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H20" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>220</v>
@@ -4831,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
@@ -4849,11 +4839,11 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H21" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>220</v>
@@ -4874,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>92</v>
       </c>
@@ -4892,11 +4882,11 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H22" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>220</v>
@@ -4917,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
@@ -4935,11 +4925,11 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H23" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>220</v>
@@ -4960,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
@@ -4978,11 +4968,11 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H24" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I24" s="36" t="s">
         <v>220</v>
@@ -5003,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
@@ -5021,11 +5011,11 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H25" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I25" s="36" t="s">
         <v>220</v>
@@ -5046,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
@@ -5064,11 +5054,11 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H26" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I26" s="36" t="s">
         <v>220</v>
@@ -5089,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
@@ -5107,11 +5097,11 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H27" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>220</v>
@@ -5132,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
@@ -5150,11 +5140,11 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H28" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I28" s="36" t="s">
         <v>220</v>
@@ -5175,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>92</v>
       </c>
@@ -5193,11 +5183,11 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H29" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>220</v>
@@ -5236,7 +5226,7 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H30" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5280,7 +5270,7 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>162.66161874999671</v>
+        <v>164.70993668981828</v>
       </c>
       <c r="H31" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5306,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>108</v>
       </c>
@@ -5324,11 +5314,11 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H32" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I32" s="36" t="s">
         <v>209</v>
@@ -5349,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>108</v>
       </c>
@@ -5367,11 +5357,11 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H33" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>209</v>
@@ -5392,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>108</v>
       </c>
@@ -5410,11 +5400,11 @@
       </c>
       <c r="G34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H34" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>209</v>
@@ -5435,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>108</v>
       </c>
@@ -5453,11 +5443,11 @@
       </c>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H35" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I35" s="36" t="s">
         <v>209</v>
@@ -5478,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>108</v>
       </c>
@@ -5496,11 +5486,11 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H36" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I36" s="36" t="s">
         <v>209</v>
@@ -5521,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>108</v>
       </c>
@@ -5539,11 +5529,11 @@
       </c>
       <c r="G37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>209</v>
@@ -5564,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>93</v>
       </c>
@@ -5582,11 +5572,11 @@
       </c>
       <c r="G38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H38" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>209</v>
@@ -5607,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>93</v>
       </c>
@@ -5625,11 +5615,11 @@
       </c>
       <c r="G39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H39" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>209</v>
@@ -5650,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>93</v>
       </c>
@@ -5668,11 +5658,11 @@
       </c>
       <c r="G40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H40" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>209</v>
@@ -5693,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>93</v>
       </c>
@@ -5711,11 +5701,11 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H41" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>209</v>
@@ -5736,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>93</v>
       </c>
@@ -5754,11 +5744,11 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H42" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>209</v>
@@ -5779,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>93</v>
       </c>
@@ -5797,11 +5787,11 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H43" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>209</v>
@@ -5822,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
@@ -5840,11 +5830,11 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H44" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>209</v>
@@ -5868,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>93</v>
       </c>
@@ -5886,11 +5876,11 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H45" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I45" s="36" t="s">
         <v>209</v>
@@ -5914,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>93</v>
       </c>
@@ -5932,11 +5922,11 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H46" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I46" s="36" t="s">
         <v>209</v>
@@ -5960,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="36" t="s">
         <v>184</v>
@@ -5979,11 +5969,11 @@
       </c>
       <c r="G47" s="35">
         <f t="shared" ref="G47" ca="1" si="2">IF(E47="DONE",NOW()-D47, NOW()-D47)</f>
-        <v>33.661618749996705</v>
+        <v>35.709936689818278</v>
       </c>
       <c r="H47" s="35">
         <f t="shared" ref="H47" ca="1" si="3">IF(E47="DONE", "", NOW()-F47)</f>
-        <v>1.6616187499967054</v>
+        <v>3.709936689818278</v>
       </c>
       <c r="I47" s="36" t="s">
         <v>209</v>
@@ -6005,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>184</v>
       </c>
@@ -6023,11 +6013,11 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.661618749996705</v>
+        <v>35.709936689818278</v>
       </c>
       <c r="H48" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6616187499967054</v>
+        <v>3.709936689818278</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>209</v>
@@ -6048,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>168</v>
       </c>
@@ -6066,11 +6056,11 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H49" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>209</v>
@@ -6091,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>168</v>
       </c>
@@ -6109,11 +6099,11 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H50" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>209</v>
@@ -6134,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>168</v>
       </c>
@@ -6152,11 +6142,11 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H51" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>209</v>
@@ -6177,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>168</v>
       </c>
@@ -6195,11 +6185,11 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H52" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>209</v>
@@ -6220,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>168</v>
       </c>
@@ -6238,11 +6228,11 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H53" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>209</v>
@@ -6263,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>168</v>
       </c>
@@ -6281,11 +6271,11 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H54" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>209</v>
@@ -6306,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>168</v>
       </c>
@@ -6324,11 +6314,11 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H55" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>209</v>
@@ -6349,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>168</v>
       </c>
@@ -6367,11 +6357,11 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H56" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>209</v>
@@ -6392,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>168</v>
       </c>
@@ -6410,11 +6400,11 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H57" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>209</v>
@@ -6435,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>95</v>
       </c>
@@ -6453,11 +6443,11 @@
       </c>
       <c r="G58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H58" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>209</v>
@@ -6478,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>95</v>
       </c>
@@ -6496,11 +6486,11 @@
       </c>
       <c r="G59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H59" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>209</v>
@@ -6521,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>95</v>
       </c>
@@ -6539,11 +6529,11 @@
       </c>
       <c r="G60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H60" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>209</v>
@@ -6564,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
@@ -6582,11 +6572,11 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H61" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>209</v>
@@ -6607,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>95</v>
       </c>
@@ -6625,11 +6615,11 @@
       </c>
       <c r="G62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H62" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>209</v>
@@ -6650,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>95</v>
       </c>
@@ -6668,11 +6658,11 @@
       </c>
       <c r="G63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H63" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>209</v>
@@ -6693,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>95</v>
       </c>
@@ -6711,11 +6701,11 @@
       </c>
       <c r="G64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H64" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>209</v>
@@ -6736,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>95</v>
       </c>
@@ -6754,7 +6744,7 @@
       </c>
       <c r="G65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H65" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6779,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>95</v>
       </c>
@@ -6797,7 +6787,7 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H66" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6822,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>95</v>
       </c>
@@ -6840,7 +6830,7 @@
       </c>
       <c r="G67" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H67" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6865,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>95</v>
       </c>
@@ -6883,7 +6873,7 @@
       </c>
       <c r="G68" s="3">
         <f t="shared" ref="G68:G131" ca="1" si="4">IF(E68="DONE",NOW()-D68, NOW()-D68)</f>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H68" s="35" t="str">
         <f t="shared" ref="H68:H131" ca="1" si="5">IF(E68="DONE", "", NOW()-F68)</f>
@@ -6908,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>95</v>
       </c>
@@ -6926,7 +6916,7 @@
       </c>
       <c r="G69" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H69" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6951,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>95</v>
       </c>
@@ -6969,7 +6959,7 @@
       </c>
       <c r="G70" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H70" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6994,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
@@ -7012,7 +7002,7 @@
       </c>
       <c r="G71" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H71" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7037,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>95</v>
       </c>
@@ -7055,7 +7045,7 @@
       </c>
       <c r="G72" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H72" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7080,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>95</v>
       </c>
@@ -7098,7 +7088,7 @@
       </c>
       <c r="G73" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>222.66161874999671</v>
+        <v>224.70993668981828</v>
       </c>
       <c r="H73" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7123,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>95</v>
       </c>
@@ -7141,11 +7131,11 @@
       </c>
       <c r="G74" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H74" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6616187499967054</v>
+        <v>3.709936689818278</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>198</v>
@@ -7166,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>95</v>
       </c>
@@ -7184,11 +7174,11 @@
       </c>
       <c r="G75" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H75" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>131.66161874999671</v>
+        <v>133.70993668981828</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>209</v>
@@ -7209,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>95</v>
       </c>
@@ -7227,7 +7217,7 @@
       </c>
       <c r="G76" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H76" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7252,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>95</v>
       </c>
@@ -7270,7 +7260,7 @@
       </c>
       <c r="G77" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H77" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7295,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>95</v>
       </c>
@@ -7313,7 +7303,7 @@
       </c>
       <c r="G78" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H78" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7338,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>92</v>
       </c>
@@ -7356,7 +7346,7 @@
       </c>
       <c r="G79" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H79" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7381,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>92</v>
       </c>
@@ -7399,7 +7389,7 @@
       </c>
       <c r="G80" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H80" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7424,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>92</v>
       </c>
@@ -7442,7 +7432,7 @@
       </c>
       <c r="G81" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H81" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7467,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>92</v>
       </c>
@@ -7485,7 +7475,7 @@
       </c>
       <c r="G82" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H82" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7510,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>92</v>
       </c>
@@ -7528,7 +7518,7 @@
       </c>
       <c r="G83" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H83" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7553,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>92</v>
       </c>
@@ -7571,7 +7561,7 @@
       </c>
       <c r="G84" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H84" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7596,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -7614,7 +7604,7 @@
       </c>
       <c r="G85" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H85" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7639,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>92</v>
       </c>
@@ -7657,7 +7647,7 @@
       </c>
       <c r="G86" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H86" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7682,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>92</v>
       </c>
@@ -7700,7 +7690,7 @@
       </c>
       <c r="G87" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H87" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7725,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>92</v>
       </c>
@@ -7743,7 +7733,7 @@
       </c>
       <c r="G88" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H88" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7768,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>92</v>
       </c>
@@ -7786,7 +7776,7 @@
       </c>
       <c r="G89" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H89" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7811,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>92</v>
       </c>
@@ -7829,7 +7819,7 @@
       </c>
       <c r="G90" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H90" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7854,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>92</v>
       </c>
@@ -7872,7 +7862,7 @@
       </c>
       <c r="G91" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H91" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7897,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>92</v>
       </c>
@@ -7915,7 +7905,7 @@
       </c>
       <c r="G92" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H92" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7940,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>92</v>
       </c>
@@ -7958,7 +7948,7 @@
       </c>
       <c r="G93" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H93" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7983,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
@@ -8001,7 +7991,7 @@
       </c>
       <c r="G94" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H94" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8026,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>92</v>
       </c>
@@ -8044,7 +8034,7 @@
       </c>
       <c r="G95" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H95" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8069,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>92</v>
       </c>
@@ -8087,7 +8077,7 @@
       </c>
       <c r="G96" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H96" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8112,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>92</v>
       </c>
@@ -8130,7 +8120,7 @@
       </c>
       <c r="G97" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H97" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8155,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>92</v>
       </c>
@@ -8173,7 +8163,7 @@
       </c>
       <c r="G98" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H98" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8198,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>92</v>
       </c>
@@ -8216,7 +8206,7 @@
       </c>
       <c r="G99" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H99" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8241,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>92</v>
       </c>
@@ -8259,7 +8249,7 @@
       </c>
       <c r="G100" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H100" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8284,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>92</v>
       </c>
@@ -8302,7 +8292,7 @@
       </c>
       <c r="G101" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H101" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8327,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>92</v>
       </c>
@@ -8345,7 +8335,7 @@
       </c>
       <c r="G102" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H102" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8370,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>92</v>
       </c>
@@ -8388,7 +8378,7 @@
       </c>
       <c r="G103" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H103" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8413,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>92</v>
       </c>
@@ -8431,7 +8421,7 @@
       </c>
       <c r="G104" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H104" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8456,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>92</v>
       </c>
@@ -8474,7 +8464,7 @@
       </c>
       <c r="G105" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H105" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8499,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>92</v>
       </c>
@@ -8517,7 +8507,7 @@
       </c>
       <c r="G106" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H106" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8542,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>92</v>
       </c>
@@ -8560,7 +8550,7 @@
       </c>
       <c r="G107" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H107" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8585,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>92</v>
       </c>
@@ -8603,7 +8593,7 @@
       </c>
       <c r="G108" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H108" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8628,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>92</v>
       </c>
@@ -8646,7 +8636,7 @@
       </c>
       <c r="G109" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H109" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8671,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>92</v>
       </c>
@@ -8689,7 +8679,7 @@
       </c>
       <c r="G110" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H110" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8714,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>92</v>
       </c>
@@ -8732,7 +8722,7 @@
       </c>
       <c r="G111" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H111" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8757,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>92</v>
       </c>
@@ -8775,7 +8765,7 @@
       </c>
       <c r="G112" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H112" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8800,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>92</v>
       </c>
@@ -8818,7 +8808,7 @@
       </c>
       <c r="G113" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H113" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8843,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>92</v>
       </c>
@@ -8861,7 +8851,7 @@
       </c>
       <c r="G114" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H114" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8886,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>92</v>
       </c>
@@ -8904,7 +8894,7 @@
       </c>
       <c r="G115" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H115" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8929,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>92</v>
       </c>
@@ -8947,7 +8937,7 @@
       </c>
       <c r="G116" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H116" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8972,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>92</v>
       </c>
@@ -8990,7 +8980,7 @@
       </c>
       <c r="G117" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H117" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9015,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
         <v>92</v>
       </c>
@@ -9033,11 +9023,11 @@
       </c>
       <c r="G118" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H118" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>220</v>
@@ -9058,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
         <v>92</v>
       </c>
@@ -9076,11 +9066,11 @@
       </c>
       <c r="G119" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H119" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I119" s="36" t="s">
         <v>220</v>
@@ -9101,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
         <v>92</v>
       </c>
@@ -9119,11 +9109,11 @@
       </c>
       <c r="G120" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H120" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I120" s="36" t="s">
         <v>220</v>
@@ -9144,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
         <v>92</v>
       </c>
@@ -9162,11 +9152,11 @@
       </c>
       <c r="G121" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H121" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I121" s="36" t="s">
         <v>220</v>
@@ -9187,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
         <v>92</v>
       </c>
@@ -9205,11 +9195,11 @@
       </c>
       <c r="G122" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H122" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I122" s="36" t="s">
         <v>220</v>
@@ -9230,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
         <v>92</v>
       </c>
@@ -9248,11 +9238,11 @@
       </c>
       <c r="G123" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H123" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I123" s="36" t="s">
         <v>220</v>
@@ -9273,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>92</v>
       </c>
@@ -9291,11 +9281,11 @@
       </c>
       <c r="G124" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H124" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I124" s="36" t="s">
         <v>220</v>
@@ -9316,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>92</v>
       </c>
@@ -9334,11 +9324,11 @@
       </c>
       <c r="G125" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H125" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I125" s="36" t="s">
         <v>220</v>
@@ -9359,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>92</v>
       </c>
@@ -9377,11 +9367,11 @@
       </c>
       <c r="G126" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H126" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>209</v>
@@ -9402,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>92</v>
       </c>
@@ -9420,11 +9410,11 @@
       </c>
       <c r="G127" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H127" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>209</v>
@@ -9445,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>92</v>
       </c>
@@ -9463,11 +9453,11 @@
       </c>
       <c r="G128" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H128" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>209</v>
@@ -9488,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
         <v>92</v>
       </c>
@@ -9506,11 +9496,11 @@
       </c>
       <c r="G129" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H129" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>209</v>
@@ -9531,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
         <v>92</v>
       </c>
@@ -9549,11 +9539,11 @@
       </c>
       <c r="G130" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H130" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>209</v>
@@ -9574,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>92</v>
       </c>
@@ -9592,11 +9582,11 @@
       </c>
       <c r="G131" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H131" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>209</v>
@@ -9617,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>92</v>
       </c>
@@ -9635,11 +9625,11 @@
       </c>
       <c r="G132" s="3">
         <f t="shared" ref="G132:G206" ca="1" si="6">IF(E132="DONE",NOW()-D132, NOW()-D132)</f>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H132" s="35">
         <f t="shared" ref="H132:H195" ca="1" si="7">IF(E132="DONE", "", NOW()-F132)</f>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I132" s="5" t="s">
         <v>209</v>
@@ -9660,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>92</v>
       </c>
@@ -9678,11 +9668,11 @@
       </c>
       <c r="G133" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H133" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>209</v>
@@ -9703,7 +9693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>92</v>
       </c>
@@ -9721,11 +9711,11 @@
       </c>
       <c r="G134" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H134" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>209</v>
@@ -9746,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>92</v>
       </c>
@@ -9764,11 +9754,11 @@
       </c>
       <c r="G135" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H135" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>209</v>
@@ -9789,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>92</v>
       </c>
@@ -9807,11 +9797,11 @@
       </c>
       <c r="G136" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H136" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I136" s="5" t="s">
         <v>209</v>
@@ -9832,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
         <v>92</v>
       </c>
@@ -9850,11 +9840,11 @@
       </c>
       <c r="G137" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H137" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>209</v>
@@ -9875,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
         <v>92</v>
       </c>
@@ -9893,11 +9883,11 @@
       </c>
       <c r="G138" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H138" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>209</v>
@@ -9918,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>92</v>
       </c>
@@ -9936,11 +9926,11 @@
       </c>
       <c r="G139" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H139" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>209</v>
@@ -9961,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
         <v>92</v>
       </c>
@@ -9979,11 +9969,11 @@
       </c>
       <c r="G140" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H140" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>209</v>
@@ -10004,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>92</v>
       </c>
@@ -10022,11 +10012,11 @@
       </c>
       <c r="G141" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H141" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>209</v>
@@ -10047,7 +10037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
         <v>92</v>
       </c>
@@ -10065,11 +10055,11 @@
       </c>
       <c r="G142" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H142" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>209</v>
@@ -10090,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
         <v>92</v>
       </c>
@@ -10108,11 +10098,11 @@
       </c>
       <c r="G143" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H143" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I143" s="36" t="s">
         <v>220</v>
@@ -10133,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
         <v>92</v>
       </c>
@@ -10151,11 +10141,11 @@
       </c>
       <c r="G144" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H144" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I144" s="36" t="s">
         <v>220</v>
@@ -10176,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
         <v>92</v>
       </c>
@@ -10194,11 +10184,11 @@
       </c>
       <c r="G145" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H145" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I145" s="36" t="s">
         <v>220</v>
@@ -10219,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>92</v>
       </c>
@@ -10237,11 +10227,11 @@
       </c>
       <c r="G146" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H146" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I146" s="36" t="s">
         <v>220</v>
@@ -10262,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
         <v>92</v>
       </c>
@@ -10280,11 +10270,11 @@
       </c>
       <c r="G147" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H147" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I147" s="36" t="s">
         <v>220</v>
@@ -10305,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>92</v>
       </c>
@@ -10323,11 +10313,11 @@
       </c>
       <c r="G148" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H148" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I148" s="36" t="s">
         <v>220</v>
@@ -10348,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>92</v>
       </c>
@@ -10366,11 +10356,11 @@
       </c>
       <c r="G149" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H149" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I149" s="36" t="s">
         <v>220</v>
@@ -10391,7 +10381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
         <v>92</v>
       </c>
@@ -10409,11 +10399,11 @@
       </c>
       <c r="G150" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H150" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I150" s="36" t="s">
         <v>220</v>
@@ -10434,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>92</v>
       </c>
@@ -10452,11 +10442,11 @@
       </c>
       <c r="G151" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H151" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6616187499967054</v>
+        <v>4.709936689818278</v>
       </c>
       <c r="I151" s="36" t="s">
         <v>220</v>
@@ -10477,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>94</v>
       </c>
@@ -10495,7 +10485,7 @@
       </c>
       <c r="G152" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H152" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10520,7 +10510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B153" s="16" t="s">
         <v>94</v>
       </c>
@@ -10538,7 +10528,7 @@
       </c>
       <c r="G153" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H153" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10563,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B154" s="16" t="s">
         <v>94</v>
       </c>
@@ -10581,7 +10571,7 @@
       </c>
       <c r="G154" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H154" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10606,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
         <v>94</v>
       </c>
@@ -10624,7 +10614,7 @@
       </c>
       <c r="G155" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H155" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10649,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
         <v>99</v>
       </c>
@@ -10667,7 +10657,7 @@
       </c>
       <c r="G156" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H156" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10692,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B157" s="20" t="s">
         <v>99</v>
       </c>
@@ -10710,7 +10700,7 @@
       </c>
       <c r="G157" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H157" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10735,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
         <v>99</v>
       </c>
@@ -10753,7 +10743,7 @@
       </c>
       <c r="G158" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H158" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10778,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B159" s="20" t="s">
         <v>99</v>
       </c>
@@ -10796,7 +10786,7 @@
       </c>
       <c r="G159" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H159" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10821,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B160" s="20" t="s">
         <v>99</v>
       </c>
@@ -10839,11 +10829,11 @@
       </c>
       <c r="G160" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="H160" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I160" s="36" t="s">
         <v>198</v>
@@ -10867,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
         <v>108</v>
       </c>
@@ -10885,11 +10875,11 @@
       </c>
       <c r="G161" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H161" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6616187499967054</v>
+        <v>3.709936689818278</v>
       </c>
       <c r="I161" s="36" t="s">
         <v>198</v>
@@ -10910,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B162" s="24" t="s">
         <v>108</v>
       </c>
@@ -10928,11 +10918,11 @@
       </c>
       <c r="G162" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H162" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="I162" s="24" t="s">
         <v>209</v>
@@ -10956,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B163" s="24" t="s">
         <v>108</v>
       </c>
@@ -10974,11 +10964,11 @@
       </c>
       <c r="G163" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H163" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="I163" s="24" t="s">
         <v>209</v>
@@ -11002,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B164" s="24" t="s">
         <v>108</v>
       </c>
@@ -11020,11 +11010,11 @@
       </c>
       <c r="G164" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H164" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="I164" s="24" t="s">
         <v>209</v>
@@ -11048,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B165" s="24" t="s">
         <v>108</v>
       </c>
@@ -11066,11 +11056,11 @@
       </c>
       <c r="G165" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H165" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="I165" s="24" t="s">
         <v>209</v>
@@ -11094,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B166" s="24" t="s">
         <v>108</v>
       </c>
@@ -11112,11 +11102,11 @@
       </c>
       <c r="G166" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H166" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="I166" s="24" t="s">
         <v>209</v>
@@ -11140,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B167" s="24" t="s">
         <v>108</v>
       </c>
@@ -11158,11 +11148,11 @@
       </c>
       <c r="G167" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H167" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>101.66161874999671</v>
+        <v>103.70993668981828</v>
       </c>
       <c r="I167" s="24" t="s">
         <v>209</v>
@@ -11186,7 +11176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B168" s="24" t="s">
         <v>108</v>
       </c>
@@ -11204,11 +11194,11 @@
       </c>
       <c r="G168" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>70.661618749996705</v>
+        <v>72.709936689818278</v>
       </c>
       <c r="H168" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6616187499967054</v>
+        <v>3.709936689818278</v>
       </c>
       <c r="I168" s="36" t="s">
         <v>198</v>
@@ -11229,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>817330413</v>
       </c>
@@ -11250,11 +11240,11 @@
       </c>
       <c r="G169" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H169" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I169" s="36" t="s">
         <v>322</v>
@@ -11278,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
         <v>180350376</v>
       </c>
@@ -11299,11 +11289,11 @@
       </c>
       <c r="G170" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H170" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I170" s="36" t="s">
         <v>322</v>
@@ -11327,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>180350029</v>
       </c>
@@ -11348,11 +11338,11 @@
       </c>
       <c r="G171" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H171" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I171" s="36" t="s">
         <v>322</v>
@@ -11376,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
         <v>817330413</v>
       </c>
@@ -11397,11 +11387,11 @@
       </c>
       <c r="G172" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H172" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I172" s="36" t="s">
         <v>322</v>
@@ -11425,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
         <v>180350376</v>
       </c>
@@ -11446,11 +11436,11 @@
       </c>
       <c r="G173" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H173" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I173" s="36" t="s">
         <v>322</v>
@@ -11474,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
         <v>180350029</v>
       </c>
@@ -11495,11 +11485,11 @@
       </c>
       <c r="G174" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H174" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I174" s="36" t="s">
         <v>322</v>
@@ -11523,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>816310629</v>
       </c>
@@ -11544,11 +11534,11 @@
       </c>
       <c r="G175" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H175" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I175" s="36" t="s">
         <v>322</v>
@@ -11572,7 +11562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
         <v>180350364</v>
       </c>
@@ -11593,11 +11583,11 @@
       </c>
       <c r="G176" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H176" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I176" s="36" t="s">
         <v>322</v>
@@ -11621,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
         <v>180350022</v>
       </c>
@@ -11642,11 +11632,11 @@
       </c>
       <c r="G177" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H177" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I177" s="36" t="s">
         <v>322</v>
@@ -11670,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
         <v>816330271</v>
       </c>
@@ -11691,11 +11681,11 @@
       </c>
       <c r="G178" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H178" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I178" s="36" t="s">
         <v>322</v>
@@ -11719,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>1803500377</v>
       </c>
@@ -11740,11 +11730,11 @@
       </c>
       <c r="G179" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="H179" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I179" s="36" t="s">
         <v>322</v>
@@ -11768,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B180" s="40" t="s">
         <v>93</v>
       </c>
@@ -11786,11 +11776,11 @@
       </c>
       <c r="G180" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H180" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>209</v>
@@ -11811,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B181" s="40" t="s">
         <v>93</v>
       </c>
@@ -11829,11 +11819,11 @@
       </c>
       <c r="G181" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H181" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I181" s="28" t="s">
         <v>209</v>
@@ -11854,7 +11844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B182" s="40" t="s">
         <v>93</v>
       </c>
@@ -11872,11 +11862,11 @@
       </c>
       <c r="G182" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H182" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I182" s="28" t="s">
         <v>209</v>
@@ -11897,7 +11887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B183" s="40" t="s">
         <v>93</v>
       </c>
@@ -11915,11 +11905,11 @@
       </c>
       <c r="G183" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H183" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I183" s="5" t="s">
         <v>322</v>
@@ -11943,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B184" s="40" t="s">
         <v>93</v>
       </c>
@@ -11961,11 +11951,11 @@
       </c>
       <c r="G184" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H184" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I184" s="28" t="s">
         <v>209</v>
@@ -11986,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B185" s="40" t="s">
         <v>93</v>
       </c>
@@ -12004,11 +11994,11 @@
       </c>
       <c r="G185" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H185" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I185" s="28" t="s">
         <v>209</v>
@@ -12029,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B186" s="40" t="s">
         <v>93</v>
       </c>
@@ -12047,11 +12037,11 @@
       </c>
       <c r="G186" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H186" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I186" s="28" t="s">
         <v>209</v>
@@ -12072,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B187" s="40" t="s">
         <v>93</v>
       </c>
@@ -12090,11 +12080,11 @@
       </c>
       <c r="G187" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H187" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I187" s="28" t="s">
         <v>209</v>
@@ -12115,7 +12105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B188" s="40" t="s">
         <v>93</v>
       </c>
@@ -12133,11 +12123,11 @@
       </c>
       <c r="G188" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H188" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I188" s="28" t="s">
         <v>209</v>
@@ -12158,7 +12148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B189" s="40" t="s">
         <v>93</v>
       </c>
@@ -12176,11 +12166,11 @@
       </c>
       <c r="G189" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H189" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I189" s="28" t="s">
         <v>209</v>
@@ -12201,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B190" s="40" t="s">
         <v>93</v>
       </c>
@@ -12219,11 +12209,11 @@
       </c>
       <c r="G190" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H190" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I190" s="28" t="s">
         <v>209</v>
@@ -12244,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B191" s="40" t="s">
         <v>93</v>
       </c>
@@ -12262,11 +12252,11 @@
       </c>
       <c r="G191" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H191" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I191" s="28" t="s">
         <v>209</v>
@@ -12287,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B192" s="40" t="s">
         <v>93</v>
       </c>
@@ -12305,11 +12295,11 @@
       </c>
       <c r="G192" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H192" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I192" s="28" t="s">
         <v>209</v>
@@ -12330,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B193" s="40" t="s">
         <v>93</v>
       </c>
@@ -12348,11 +12338,11 @@
       </c>
       <c r="G193" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H193" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I193" s="28" t="s">
         <v>209</v>
@@ -12373,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B194" s="40" t="s">
         <v>93</v>
       </c>
@@ -12391,11 +12381,11 @@
       </c>
       <c r="G194" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H194" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I194" s="28" t="s">
         <v>209</v>
@@ -12416,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195" s="40" t="s">
         <v>93</v>
       </c>
@@ -12434,11 +12424,11 @@
       </c>
       <c r="G195" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H195" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>209</v>
@@ -12459,7 +12449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B196" s="40" t="s">
         <v>93</v>
       </c>
@@ -12477,11 +12467,11 @@
       </c>
       <c r="G196" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H196" s="35">
         <f t="shared" ref="H196:H251" ca="1" si="8">IF(E196="DONE", "", NOW()-F196)</f>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I196" s="28" t="s">
         <v>209</v>
@@ -12502,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B197" s="40" t="s">
         <v>93</v>
       </c>
@@ -12520,11 +12510,11 @@
       </c>
       <c r="G197" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H197" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I197" s="28" t="s">
         <v>209</v>
@@ -12545,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B198" s="40" t="s">
         <v>93</v>
       </c>
@@ -12563,11 +12553,11 @@
       </c>
       <c r="G198" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H198" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I198" s="28" t="s">
         <v>209</v>
@@ -12588,7 +12578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B199" s="40" t="s">
         <v>93</v>
       </c>
@@ -12606,11 +12596,11 @@
       </c>
       <c r="G199" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H199" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I199" s="28" t="s">
         <v>209</v>
@@ -12631,7 +12621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200" s="40" t="s">
         <v>93</v>
       </c>
@@ -12649,11 +12639,11 @@
       </c>
       <c r="G200" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H200" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I200" s="28" t="s">
         <v>209</v>
@@ -12674,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B201" s="40" t="s">
         <v>93</v>
       </c>
@@ -12692,11 +12682,11 @@
       </c>
       <c r="G201" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H201" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>209</v>
@@ -12717,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B202" s="40" t="s">
         <v>93</v>
       </c>
@@ -12735,11 +12725,11 @@
       </c>
       <c r="G202" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H202" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="I202" s="28" t="s">
         <v>209</v>
@@ -12760,7 +12750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
         <v>168</v>
       </c>
@@ -12778,11 +12768,11 @@
       </c>
       <c r="G203" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H203" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I203" s="32" t="s">
         <v>209</v>
@@ -12803,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B204" s="32" t="s">
         <v>168</v>
       </c>
@@ -12821,11 +12811,11 @@
       </c>
       <c r="G204" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H204" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I204" s="32" t="s">
         <v>209</v>
@@ -12846,7 +12836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205" s="32" t="s">
         <v>168</v>
       </c>
@@ -12864,11 +12854,11 @@
       </c>
       <c r="G205" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H205" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I205" s="32" t="s">
         <v>209</v>
@@ -12889,7 +12879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B206" s="32" t="s">
         <v>168</v>
       </c>
@@ -12907,11 +12897,11 @@
       </c>
       <c r="G206" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H206" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I206" s="32" t="s">
         <v>209</v>
@@ -12932,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B207" s="32" t="s">
         <v>168</v>
       </c>
@@ -12950,11 +12940,11 @@
       </c>
       <c r="G207" s="31">
         <f t="shared" ref="G207:G250" ca="1" si="9">IF(E207="DONE",NOW()-D207, NOW()-D207)</f>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H207" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I207" s="32" t="s">
         <v>209</v>
@@ -12975,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208" s="32" t="s">
         <v>168</v>
       </c>
@@ -12993,11 +12983,11 @@
       </c>
       <c r="G208" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H208" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I208" s="32" t="s">
         <v>209</v>
@@ -13018,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B209" s="32" t="s">
         <v>168</v>
       </c>
@@ -13036,11 +13026,11 @@
       </c>
       <c r="G209" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H209" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I209" s="32" t="s">
         <v>209</v>
@@ -13061,7 +13051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="32" t="s">
         <v>168</v>
       </c>
@@ -13079,11 +13069,11 @@
       </c>
       <c r="G210" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H210" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I210" s="32" t="s">
         <v>209</v>
@@ -13104,7 +13094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B211" s="32" t="s">
         <v>168</v>
       </c>
@@ -13122,11 +13112,11 @@
       </c>
       <c r="G211" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H211" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I211" s="32" t="s">
         <v>209</v>
@@ -13147,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B212" s="32" t="s">
         <v>168</v>
       </c>
@@ -13165,11 +13155,11 @@
       </c>
       <c r="G212" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H212" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I212" s="32" t="s">
         <v>209</v>
@@ -13190,7 +13180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B213" s="32" t="s">
         <v>168</v>
       </c>
@@ -13208,11 +13198,11 @@
       </c>
       <c r="G213" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H213" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I213" s="32" t="s">
         <v>209</v>
@@ -13233,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B214" s="32" t="s">
         <v>168</v>
       </c>
@@ -13251,11 +13241,11 @@
       </c>
       <c r="G214" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H214" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I214" s="32" t="s">
         <v>209</v>
@@ -13276,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B215" s="32" t="s">
         <v>168</v>
       </c>
@@ -13294,11 +13284,11 @@
       </c>
       <c r="G215" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H215" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I215" s="32" t="s">
         <v>209</v>
@@ -13319,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216" s="32" t="s">
         <v>168</v>
       </c>
@@ -13337,11 +13327,11 @@
       </c>
       <c r="G216" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H216" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I216" s="32" t="s">
         <v>209</v>
@@ -13362,7 +13352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B217" s="32" t="s">
         <v>168</v>
       </c>
@@ -13380,11 +13370,11 @@
       </c>
       <c r="G217" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H217" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I217" s="32" t="s">
         <v>209</v>
@@ -13405,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B218" s="32" t="s">
         <v>168</v>
       </c>
@@ -13423,11 +13413,11 @@
       </c>
       <c r="G218" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H218" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I218" s="32" t="s">
         <v>209</v>
@@ -13448,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B219" s="32" t="s">
         <v>168</v>
       </c>
@@ -13466,11 +13456,11 @@
       </c>
       <c r="G219" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H219" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I219" s="32" t="s">
         <v>209</v>
@@ -13491,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B220" s="32" t="s">
         <v>168</v>
       </c>
@@ -13509,11 +13499,11 @@
       </c>
       <c r="G220" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H220" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I220" s="32" t="s">
         <v>209</v>
@@ -13534,7 +13524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B221" s="32" t="s">
         <v>168</v>
       </c>
@@ -13552,11 +13542,11 @@
       </c>
       <c r="G221" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H221" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I221" s="32" t="s">
         <v>209</v>
@@ -13577,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B222" s="32" t="s">
         <v>168</v>
       </c>
@@ -13595,11 +13585,11 @@
       </c>
       <c r="G222" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H222" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I222" s="32" t="s">
         <v>209</v>
@@ -13620,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B223" s="32" t="s">
         <v>168</v>
       </c>
@@ -13638,11 +13628,11 @@
       </c>
       <c r="G223" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H223" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I223" s="32" t="s">
         <v>209</v>
@@ -13663,7 +13653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B224" s="32" t="s">
         <v>168</v>
       </c>
@@ -13681,11 +13671,11 @@
       </c>
       <c r="G224" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H224" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I224" s="32" t="s">
         <v>209</v>
@@ -13706,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B225" s="32" t="s">
         <v>168</v>
       </c>
@@ -13724,11 +13714,11 @@
       </c>
       <c r="G225" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H225" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I225" s="32" t="s">
         <v>209</v>
@@ -13749,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B226" s="32" t="s">
         <v>168</v>
       </c>
@@ -13767,11 +13757,11 @@
       </c>
       <c r="G226" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H226" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I226" s="32" t="s">
         <v>209</v>
@@ -13792,7 +13782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B227" s="32" t="s">
         <v>168</v>
       </c>
@@ -13810,11 +13800,11 @@
       </c>
       <c r="G227" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H227" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I227" s="32" t="s">
         <v>209</v>
@@ -13835,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B228" s="32" t="s">
         <v>168</v>
       </c>
@@ -13853,11 +13843,11 @@
       </c>
       <c r="G228" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H228" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I228" s="32" t="s">
         <v>209</v>
@@ -13878,7 +13868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B229" s="32" t="s">
         <v>168</v>
       </c>
@@ -13896,11 +13886,11 @@
       </c>
       <c r="G229" s="31">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H229" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>26.661618749996705</v>
+        <v>28.709936689818278</v>
       </c>
       <c r="I229" s="32" t="s">
         <v>209</v>
@@ -13921,7 +13911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B230" s="40" t="s">
         <v>184</v>
       </c>
@@ -13939,11 +13929,11 @@
       </c>
       <c r="G230" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H230" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I230" s="36" t="s">
         <v>220</v>
@@ -13967,7 +13957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B231" s="40" t="s">
         <v>184</v>
       </c>
@@ -13985,11 +13975,11 @@
       </c>
       <c r="G231" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H231" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I231" s="5" t="s">
         <v>220</v>
@@ -14013,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B232" s="40" t="s">
         <v>184</v>
       </c>
@@ -14031,11 +14021,11 @@
       </c>
       <c r="G232" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H232" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I232" s="36" t="s">
         <v>220</v>
@@ -14059,7 +14049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B233" s="40" t="s">
         <v>184</v>
       </c>
@@ -14077,11 +14067,11 @@
       </c>
       <c r="G233" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H233" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I233" s="36" t="s">
         <v>220</v>
@@ -14105,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B234" s="40" t="s">
         <v>184</v>
       </c>
@@ -14123,11 +14113,11 @@
       </c>
       <c r="G234" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H234" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>12.661618749996705</v>
+        <v>14.709936689818278</v>
       </c>
       <c r="I234" s="36" t="s">
         <v>220</v>
@@ -14151,7 +14141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B235" s="40" t="s">
         <v>184</v>
       </c>
@@ -14169,11 +14159,11 @@
       </c>
       <c r="G235" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H235" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I235" s="36" t="s">
         <v>220</v>
@@ -14197,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B236" s="40" t="s">
         <v>184</v>
       </c>
@@ -14215,11 +14205,11 @@
       </c>
       <c r="G236" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H236" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I236" s="36" t="s">
         <v>220</v>
@@ -14243,7 +14233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="40" t="s">
         <v>184</v>
@@ -14262,11 +14252,11 @@
       </c>
       <c r="G237" s="35">
         <f t="shared" ref="G237:G239" ca="1" si="10">IF(E237="DONE",NOW()-D237, NOW()-D237)</f>
-        <v>16.661618749996705</v>
+        <v>18.709936689818278</v>
       </c>
       <c r="H237" s="35">
         <f t="shared" ref="H237:H239" ca="1" si="11">IF(E237="DONE", "", NOW()-F237)</f>
-        <v>8.6616187499967054</v>
+        <v>10.709936689818278</v>
       </c>
       <c r="I237" s="36" t="s">
         <v>220</v>
@@ -14290,7 +14280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
       <c r="B238" s="40" t="s">
         <v>184</v>
@@ -14309,11 +14299,11 @@
       </c>
       <c r="G238" s="35">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="H238" s="35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66161874999670545</v>
+        <v>2.709936689818278</v>
       </c>
       <c r="I238" s="36" t="s">
         <v>220</v>
@@ -14335,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="40" t="s">
         <v>184</v>
@@ -14354,11 +14344,11 @@
       </c>
       <c r="G239" s="35">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="H239" s="35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66161874999670545</v>
+        <v>2.709936689818278</v>
       </c>
       <c r="I239" s="36" t="s">
         <v>220</v>
@@ -14380,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B240" s="40" t="s">
         <v>184</v>
       </c>
@@ -14398,11 +14388,11 @@
       </c>
       <c r="G240" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="H240" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I240" s="36" t="s">
         <v>220</v>
@@ -14423,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="40" t="s">
         <v>184</v>
@@ -14442,11 +14432,11 @@
       </c>
       <c r="G241" s="35">
         <f t="shared" ref="G241" ca="1" si="12">IF(E241="DONE",NOW()-D241, NOW()-D241)</f>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="H241" s="35">
         <f t="shared" ref="H241" ca="1" si="13">IF(E241="DONE", "", NOW()-F241)</f>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I241" s="36" t="s">
         <v>220</v>
@@ -14468,7 +14458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
       <c r="B242" s="40" t="s">
         <v>176</v>
@@ -14487,11 +14477,11 @@
       </c>
       <c r="G242" s="35">
         <f t="shared" ref="G242:G244" ca="1" si="14">IF(E242="DONE",NOW()-D242, NOW()-D242)</f>
-        <v>19.661618749996705</v>
+        <v>21.709936689818278</v>
       </c>
       <c r="H242" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I242" s="36" t="s">
         <v>209</v>
@@ -14513,7 +14503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
       <c r="B243" s="40" t="s">
         <v>176</v>
@@ -14532,11 +14522,11 @@
       </c>
       <c r="G243" s="35">
         <f t="shared" ref="G243" ca="1" si="15">IF(E243="DONE",NOW()-D243, NOW()-D243)</f>
-        <v>19.661618749996705</v>
+        <v>21.709936689818278</v>
       </c>
       <c r="H243" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I243" s="36" t="s">
         <v>209</v>
@@ -14558,7 +14548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="40" t="s">
         <v>176</v>
@@ -14577,11 +14567,11 @@
       </c>
       <c r="G244" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>19.661618749996705</v>
+        <v>21.709936689818278</v>
       </c>
       <c r="H244" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I244" s="36" t="s">
         <v>209</v>
@@ -14603,7 +14593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="40" t="s">
         <v>176</v>
@@ -14622,11 +14612,11 @@
       </c>
       <c r="G245" s="35">
         <f t="shared" ref="G245" ca="1" si="16">IF(E245="DONE",NOW()-D245, NOW()-D245)</f>
-        <v>19.661618749996705</v>
+        <v>21.709936689818278</v>
       </c>
       <c r="H245" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6616187499967054</v>
+        <v>7.709936689818278</v>
       </c>
       <c r="I245" s="36" t="s">
         <v>209</v>
@@ -14667,11 +14657,11 @@
       </c>
       <c r="G246" s="35">
         <f t="shared" ref="G246:G248" ca="1" si="17">IF(E246="DONE",NOW()-D246, NOW()-D246)</f>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H246" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>19.661618749996705</v>
+        <v>21.709936689818278</v>
       </c>
       <c r="I246" s="36" t="s">
         <v>212</v>
@@ -14714,11 +14704,11 @@
       </c>
       <c r="G247" s="35">
         <f t="shared" ref="G247" ca="1" si="18">IF(E247="DONE",NOW()-D247, NOW()-D247)</f>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H247" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>19.661618749996705</v>
+        <v>21.709936689818278</v>
       </c>
       <c r="I247" s="36" t="s">
         <v>212</v>
@@ -14761,11 +14751,11 @@
       </c>
       <c r="G248" s="35">
         <f t="shared" ca="1" si="17"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H248" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I248" s="36" t="s">
         <v>220</v>
@@ -14804,11 +14794,11 @@
       </c>
       <c r="G249" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H249" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>9.709936689818278</v>
       </c>
       <c r="I249" s="36" t="s">
         <v>220</v>
@@ -14839,21 +14829,21 @@
         <v>45474</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F250" s="10">
-        <v>45507</v>
+        <v>235</v>
+      </c>
+      <c r="F250" s="38">
+        <v>45514</v>
       </c>
       <c r="G250" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H250" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>2.709936689818278</v>
       </c>
       <c r="I250" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J250" s="14" t="s">
         <v>334</v>
@@ -14885,21 +14875,21 @@
         <v>45474</v>
       </c>
       <c r="E251" s="36" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="F251" s="38">
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="G251" s="35">
         <f t="shared" ref="G251" ca="1" si="19">IF(E251="DONE",NOW()-D251, NOW()-D251)</f>
-        <v>40.661618749996705</v>
+        <v>42.709936689818278</v>
       </c>
       <c r="H251" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6616187499967054</v>
+        <v>2.709936689818278</v>
       </c>
       <c r="I251" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J251" s="14" t="s">
         <v>334</v>
@@ -14921,127 +14911,116 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O251">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="&lt;all AMM&gt;"/>
-        <filter val="&lt;all MPLAN&gt;"/>
-        <filter val="&lt;all&gt;"/>
-        <filter val="&lt;Dosusign to inform stakeholders of the unnecessary AMM&gt;"/>
-        <filter val="&lt;Dosusign to inform stakeholders of the unnecessary MPLAN&gt;"/>
-        <filter val="&lt;to utilize existing MPLAN&gt;"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O1"/>
   <conditionalFormatting sqref="C252:C1048576 C246 C1:C46 C180:C236 C248:C250 C240 C48:C169">
-    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C175">
-    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176">
-    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177">
-    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178">
-    <cfRule type="duplicateValues" dxfId="38" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179">
-    <cfRule type="duplicateValues" dxfId="37" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="duplicateValues" dxfId="35" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174">
-    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C1048576 C246 C1:C46 C248:C250 C240 C48:C236">
-    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E242:E1048576 E1:E46 E49:E236">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="E1:E46 E49:E236 E242:E1048576">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E237">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E238">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E240">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C241">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>

--- a/data/enrollment/ENROLLMENT RAW.xlsx
+++ b/data/enrollment/ENROLLMENT RAW.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$O$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$O$266</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="all">#REF!</definedName>
     <definedName name="AREA">list!$E$2:$E$5</definedName>
@@ -105,7 +105,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="373">
   <si>
     <t>STATUS</t>
   </si>
@@ -1255,6 +1255,9 @@
   </si>
   <si>
     <t>Grease Rivolta GT-2</t>
+  </si>
+  <si>
+    <t>52W Heat Exchanger for IPTA Vacuum Pump Inpsection &amp; Servicing</t>
   </si>
 </sst>
 </file>
@@ -1446,27 +1449,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="73">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1649,11 +1632,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1679,11 +1662,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1709,11 +1692,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1739,71 +1722,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2237,6 +2160,26 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2269,7 +2212,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2547,7 +2489,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4005,7 +3946,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -4362,13 +4303,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:O266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,7 +4378,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>95</v>
       </c>
@@ -4458,7 +4399,7 @@
       </c>
       <c r="H2" s="3">
         <f ca="1">IF(F2="DONE",NOW()-E2, NOW()-E2)</f>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I2" s="3" t="str">
         <f ca="1">IF(F2="DONE", "", NOW()-G2)</f>
@@ -4480,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -4501,7 +4442,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H67" ca="1" si="0">IF(F3="DONE",NOW()-E3, NOW()-E3)</f>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I67" ca="1" si="1">IF(F3="DONE", "", NOW()-G3)</f>
@@ -4523,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
@@ -4544,7 +4485,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4566,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>95</v>
       </c>
@@ -4587,7 +4528,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4609,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
@@ -4630,7 +4571,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4652,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
@@ -4673,7 +4614,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4695,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -4716,7 +4657,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4738,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>95</v>
       </c>
@@ -4759,7 +4700,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4781,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>95</v>
       </c>
@@ -4802,7 +4743,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4824,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
@@ -4845,7 +4786,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4867,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>95</v>
       </c>
@@ -4888,7 +4829,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4910,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -4931,7 +4872,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4953,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>95</v>
       </c>
@@ -4974,7 +4915,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4996,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>95</v>
       </c>
@@ -5017,7 +4958,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5039,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>95</v>
       </c>
@@ -5060,7 +5001,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5082,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>95</v>
       </c>
@@ -5103,7 +5044,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5125,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -5146,7 +5087,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I18" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5168,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>92</v>
       </c>
@@ -5189,11 +5130,11 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I19" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>209</v>
@@ -5211,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
@@ -5232,11 +5173,11 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I20" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>209</v>
@@ -5254,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
@@ -5275,11 +5216,11 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I21" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>209</v>
@@ -5297,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>92</v>
       </c>
@@ -5318,11 +5259,11 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I22" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J22" s="36" t="s">
         <v>209</v>
@@ -5340,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
@@ -5361,11 +5302,11 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J23" s="36" t="s">
         <v>209</v>
@@ -5383,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
@@ -5404,11 +5345,11 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I24" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J24" s="36" t="s">
         <v>209</v>
@@ -5426,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
@@ -5447,11 +5388,11 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I25" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J25" s="36" t="s">
         <v>209</v>
@@ -5469,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
@@ -5490,11 +5431,11 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I26" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>209</v>
@@ -5512,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
@@ -5533,11 +5474,11 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I27" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>209</v>
@@ -5555,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
@@ -5576,11 +5517,11 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>209</v>
@@ -5598,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>92</v>
       </c>
@@ -5619,11 +5560,11 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I29" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J29" s="36" t="s">
         <v>209</v>
@@ -5641,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>94</v>
       </c>
@@ -5662,7 +5603,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I30" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5684,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="5" t="s">
         <v>99</v>
@@ -5706,7 +5647,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.62862361111183</v>
+        <v>169.64930960648053</v>
       </c>
       <c r="I31" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5729,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>108</v>
       </c>
@@ -5750,11 +5691,11 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I32" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J32" s="36" t="s">
         <v>209</v>
@@ -5772,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>108</v>
       </c>
@@ -5793,11 +5734,11 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I33" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J33" s="36" t="s">
         <v>209</v>
@@ -5815,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>108</v>
       </c>
@@ -5836,11 +5777,11 @@
       </c>
       <c r="H34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I34" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J34" s="36" t="s">
         <v>209</v>
@@ -5858,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>108</v>
       </c>
@@ -5879,11 +5820,11 @@
       </c>
       <c r="H35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I35" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J35" s="36" t="s">
         <v>209</v>
@@ -5901,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>108</v>
       </c>
@@ -5922,11 +5863,11 @@
       </c>
       <c r="H36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I36" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J36" s="36" t="s">
         <v>209</v>
@@ -5944,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>108</v>
       </c>
@@ -5965,11 +5906,11 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>209</v>
@@ -5987,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>93</v>
       </c>
@@ -6008,11 +5949,11 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I38" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>209</v>
@@ -6030,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>93</v>
       </c>
@@ -6051,11 +5992,11 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I39" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>209</v>
@@ -6073,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>93</v>
       </c>
@@ -6094,11 +6035,11 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I40" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>209</v>
@@ -6116,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>93</v>
       </c>
@@ -6137,11 +6078,11 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I41" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>209</v>
@@ -6159,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>93</v>
       </c>
@@ -6180,11 +6121,11 @@
       </c>
       <c r="H42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I42" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>209</v>
@@ -6202,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>93</v>
       </c>
@@ -6223,11 +6164,11 @@
       </c>
       <c r="H43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I43" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>209</v>
@@ -6245,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
@@ -6266,11 +6207,11 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I44" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>209</v>
@@ -6291,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>93</v>
       </c>
@@ -6312,11 +6253,11 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I45" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>209</v>
@@ -6337,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>93</v>
       </c>
@@ -6358,11 +6299,11 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I46" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J46" s="36" t="s">
         <v>209</v>
@@ -6383,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="36" t="s">
         <v>184</v>
@@ -6405,11 +6346,11 @@
       </c>
       <c r="H47" s="35">
         <f t="shared" ref="H47" ca="1" si="2">IF(F47="DONE",NOW()-E47, NOW()-E47)</f>
-        <v>39.628623611111834</v>
+        <v>40.649309606480529</v>
       </c>
       <c r="I47" s="35">
         <f t="shared" ref="I47" ca="1" si="3">IF(F47="DONE", "", NOW()-G47)</f>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J47" s="36" t="s">
         <v>209</v>
@@ -6428,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>361</v>
       </c>
@@ -6449,11 +6390,11 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.628623611111834</v>
+        <v>40.649309606480529</v>
       </c>
       <c r="I48" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>209</v>
@@ -6471,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>168</v>
       </c>
@@ -6492,11 +6433,11 @@
       </c>
       <c r="H49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I49" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>209</v>
@@ -6514,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>168</v>
       </c>
@@ -6535,11 +6476,11 @@
       </c>
       <c r="H50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I50" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>209</v>
@@ -6557,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>168</v>
       </c>
@@ -6578,11 +6519,11 @@
       </c>
       <c r="H51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I51" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>209</v>
@@ -6600,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>168</v>
       </c>
@@ -6621,11 +6562,11 @@
       </c>
       <c r="H52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I52" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>209</v>
@@ -6643,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>168</v>
       </c>
@@ -6664,11 +6605,11 @@
       </c>
       <c r="H53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I53" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>209</v>
@@ -6686,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>168</v>
       </c>
@@ -6707,11 +6648,11 @@
       </c>
       <c r="H54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I54" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>209</v>
@@ -6729,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>168</v>
       </c>
@@ -6750,11 +6691,11 @@
       </c>
       <c r="H55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I55" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>209</v>
@@ -6772,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>168</v>
       </c>
@@ -6793,11 +6734,11 @@
       </c>
       <c r="H56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I56" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>209</v>
@@ -6815,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>168</v>
       </c>
@@ -6836,11 +6777,11 @@
       </c>
       <c r="H57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I57" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>209</v>
@@ -6858,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>95</v>
       </c>
@@ -6879,11 +6820,11 @@
       </c>
       <c r="H58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I58" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>209</v>
@@ -6901,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>95</v>
       </c>
@@ -6922,11 +6863,11 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I59" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>209</v>
@@ -6944,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>95</v>
       </c>
@@ -6965,11 +6906,11 @@
       </c>
       <c r="H60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I60" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>209</v>
@@ -6987,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
@@ -7008,11 +6949,11 @@
       </c>
       <c r="H61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I61" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>209</v>
@@ -7030,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>95</v>
       </c>
@@ -7051,11 +6992,11 @@
       </c>
       <c r="H62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I62" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>209</v>
@@ -7073,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>95</v>
       </c>
@@ -7094,11 +7035,11 @@
       </c>
       <c r="H63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I63" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>209</v>
@@ -7116,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>95</v>
       </c>
@@ -7137,11 +7078,11 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I64" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>209</v>
@@ -7159,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>95</v>
       </c>
@@ -7180,7 +7121,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I65" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -7202,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>95</v>
       </c>
@@ -7223,7 +7164,7 @@
       </c>
       <c r="H66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I66" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -7245,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>95</v>
       </c>
@@ -7266,7 +7207,7 @@
       </c>
       <c r="H67" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I67" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -7288,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>95</v>
       </c>
@@ -7309,7 +7250,7 @@
       </c>
       <c r="H68" s="3">
         <f t="shared" ref="H68:H131" ca="1" si="4">IF(F68="DONE",NOW()-E68, NOW()-E68)</f>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I68" s="35" t="str">
         <f t="shared" ref="I68:I131" ca="1" si="5">IF(F68="DONE", "", NOW()-G68)</f>
@@ -7331,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>95</v>
       </c>
@@ -7352,7 +7293,7 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I69" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7374,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>95</v>
       </c>
@@ -7395,7 +7336,7 @@
       </c>
       <c r="H70" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I70" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7417,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
@@ -7438,7 +7379,7 @@
       </c>
       <c r="H71" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I71" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7460,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>95</v>
       </c>
@@ -7481,7 +7422,7 @@
       </c>
       <c r="H72" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I72" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7503,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>95</v>
       </c>
@@ -7524,7 +7465,7 @@
       </c>
       <c r="H73" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>228.62862361111183</v>
+        <v>229.64930960648053</v>
       </c>
       <c r="I73" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7546,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>95</v>
       </c>
@@ -7567,11 +7508,11 @@
       </c>
       <c r="H74" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I74" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>198</v>
@@ -7589,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>95</v>
       </c>
@@ -7610,11 +7551,11 @@
       </c>
       <c r="H75" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I75" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>137.62862361111183</v>
+        <v>138.64930960648053</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>209</v>
@@ -7632,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>95</v>
       </c>
@@ -7653,7 +7594,7 @@
       </c>
       <c r="H76" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I76" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7675,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>95</v>
       </c>
@@ -7696,7 +7637,7 @@
       </c>
       <c r="H77" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I77" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7718,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>95</v>
       </c>
@@ -7739,7 +7680,7 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I78" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7761,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>92</v>
       </c>
@@ -7782,7 +7723,7 @@
       </c>
       <c r="H79" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I79" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7804,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>92</v>
       </c>
@@ -7825,7 +7766,7 @@
       </c>
       <c r="H80" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I80" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7847,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>92</v>
       </c>
@@ -7868,7 +7809,7 @@
       </c>
       <c r="H81" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I81" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7890,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>92</v>
       </c>
@@ -7911,7 +7852,7 @@
       </c>
       <c r="H82" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I82" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7933,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>92</v>
       </c>
@@ -7954,7 +7895,7 @@
       </c>
       <c r="H83" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I83" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7976,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>92</v>
       </c>
@@ -7997,7 +7938,7 @@
       </c>
       <c r="H84" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I84" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8019,7 +7960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -8040,7 +7981,7 @@
       </c>
       <c r="H85" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I85" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8062,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>92</v>
       </c>
@@ -8083,7 +8024,7 @@
       </c>
       <c r="H86" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I86" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8105,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>92</v>
       </c>
@@ -8126,7 +8067,7 @@
       </c>
       <c r="H87" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I87" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8148,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>92</v>
       </c>
@@ -8169,7 +8110,7 @@
       </c>
       <c r="H88" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I88" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8191,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>92</v>
       </c>
@@ -8212,7 +8153,7 @@
       </c>
       <c r="H89" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I89" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8234,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>92</v>
       </c>
@@ -8255,7 +8196,7 @@
       </c>
       <c r="H90" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I90" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8277,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>92</v>
       </c>
@@ -8298,7 +8239,7 @@
       </c>
       <c r="H91" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I91" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8320,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>92</v>
       </c>
@@ -8341,7 +8282,7 @@
       </c>
       <c r="H92" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I92" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8363,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>92</v>
       </c>
@@ -8384,7 +8325,7 @@
       </c>
       <c r="H93" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I93" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8406,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
@@ -8427,7 +8368,7 @@
       </c>
       <c r="H94" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I94" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8449,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>92</v>
       </c>
@@ -8470,7 +8411,7 @@
       </c>
       <c r="H95" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I95" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8492,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>92</v>
       </c>
@@ -8513,7 +8454,7 @@
       </c>
       <c r="H96" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I96" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8535,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>92</v>
       </c>
@@ -8556,7 +8497,7 @@
       </c>
       <c r="H97" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I97" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8578,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>92</v>
       </c>
@@ -8599,7 +8540,7 @@
       </c>
       <c r="H98" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I98" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8621,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>92</v>
       </c>
@@ -8642,7 +8583,7 @@
       </c>
       <c r="H99" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I99" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8664,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>92</v>
       </c>
@@ -8685,7 +8626,7 @@
       </c>
       <c r="H100" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I100" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8707,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>92</v>
       </c>
@@ -8728,7 +8669,7 @@
       </c>
       <c r="H101" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I101" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8750,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>92</v>
       </c>
@@ -8771,7 +8712,7 @@
       </c>
       <c r="H102" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I102" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8793,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>92</v>
       </c>
@@ -8814,7 +8755,7 @@
       </c>
       <c r="H103" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I103" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8836,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>92</v>
       </c>
@@ -8857,7 +8798,7 @@
       </c>
       <c r="H104" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I104" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8879,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>92</v>
       </c>
@@ -8900,7 +8841,7 @@
       </c>
       <c r="H105" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I105" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8922,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>92</v>
       </c>
@@ -8943,7 +8884,7 @@
       </c>
       <c r="H106" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I106" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8965,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>92</v>
       </c>
@@ -8986,7 +8927,7 @@
       </c>
       <c r="H107" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I107" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9008,7 +8949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>92</v>
       </c>
@@ -9029,7 +8970,7 @@
       </c>
       <c r="H108" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I108" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9051,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>92</v>
       </c>
@@ -9072,7 +9013,7 @@
       </c>
       <c r="H109" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I109" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9094,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>92</v>
       </c>
@@ -9115,7 +9056,7 @@
       </c>
       <c r="H110" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I110" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9137,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>92</v>
       </c>
@@ -9158,7 +9099,7 @@
       </c>
       <c r="H111" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I111" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9180,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>92</v>
       </c>
@@ -9201,7 +9142,7 @@
       </c>
       <c r="H112" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I112" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9223,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>92</v>
       </c>
@@ -9244,7 +9185,7 @@
       </c>
       <c r="H113" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I113" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9266,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>92</v>
       </c>
@@ -9287,7 +9228,7 @@
       </c>
       <c r="H114" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I114" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9309,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>92</v>
       </c>
@@ -9330,7 +9271,7 @@
       </c>
       <c r="H115" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I115" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9352,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>92</v>
       </c>
@@ -9373,7 +9314,7 @@
       </c>
       <c r="H116" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I116" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9395,7 +9336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>92</v>
       </c>
@@ -9416,7 +9357,7 @@
       </c>
       <c r="H117" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I117" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9438,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
         <v>92</v>
       </c>
@@ -9459,11 +9400,11 @@
       </c>
       <c r="H118" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I118" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>220</v>
@@ -9481,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
         <v>92</v>
       </c>
@@ -9502,11 +9443,11 @@
       </c>
       <c r="H119" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I119" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J119" s="36" t="s">
         <v>220</v>
@@ -9524,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
         <v>92</v>
       </c>
@@ -9545,11 +9486,11 @@
       </c>
       <c r="H120" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I120" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J120" s="36" t="s">
         <v>220</v>
@@ -9567,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
         <v>92</v>
       </c>
@@ -9588,11 +9529,11 @@
       </c>
       <c r="H121" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I121" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J121" s="36" t="s">
         <v>220</v>
@@ -9610,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
         <v>92</v>
       </c>
@@ -9631,11 +9572,11 @@
       </c>
       <c r="H122" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I122" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J122" s="36" t="s">
         <v>220</v>
@@ -9653,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
         <v>92</v>
       </c>
@@ -9674,11 +9615,11 @@
       </c>
       <c r="H123" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I123" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J123" s="36" t="s">
         <v>220</v>
@@ -9696,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>92</v>
       </c>
@@ -9717,11 +9658,11 @@
       </c>
       <c r="H124" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I124" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J124" s="36" t="s">
         <v>220</v>
@@ -9739,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>92</v>
       </c>
@@ -9760,11 +9701,11 @@
       </c>
       <c r="H125" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I125" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6286236111118342</v>
+        <v>9.6493096064805286</v>
       </c>
       <c r="J125" s="36" t="s">
         <v>220</v>
@@ -9782,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>92</v>
       </c>
@@ -9803,11 +9744,11 @@
       </c>
       <c r="H126" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I126" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>209</v>
@@ -9825,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>92</v>
       </c>
@@ -9846,11 +9787,11 @@
       </c>
       <c r="H127" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I127" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>209</v>
@@ -9868,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>92</v>
       </c>
@@ -9889,11 +9830,11 @@
       </c>
       <c r="H128" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I128" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>209</v>
@@ -9911,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
         <v>92</v>
       </c>
@@ -9932,11 +9873,11 @@
       </c>
       <c r="H129" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I129" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>209</v>
@@ -9954,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
         <v>92</v>
       </c>
@@ -9975,11 +9916,11 @@
       </c>
       <c r="H130" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I130" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>209</v>
@@ -9997,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>92</v>
       </c>
@@ -10018,11 +9959,11 @@
       </c>
       <c r="H131" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I131" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>209</v>
@@ -10040,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>92</v>
       </c>
@@ -10061,11 +10002,11 @@
       </c>
       <c r="H132" s="3">
         <f t="shared" ref="H132:H213" ca="1" si="6">IF(F132="DONE",NOW()-E132, NOW()-E132)</f>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I132" s="35">
         <f t="shared" ref="I132:I202" ca="1" si="7">IF(F132="DONE", "", NOW()-G132)</f>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>209</v>
@@ -10083,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>92</v>
       </c>
@@ -10104,11 +10045,11 @@
       </c>
       <c r="H133" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I133" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J133" s="5" t="s">
         <v>209</v>
@@ -10126,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>92</v>
       </c>
@@ -10147,11 +10088,11 @@
       </c>
       <c r="H134" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I134" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J134" s="5" t="s">
         <v>209</v>
@@ -10169,7 +10110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>92</v>
       </c>
@@ -10190,11 +10131,11 @@
       </c>
       <c r="H135" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I135" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>209</v>
@@ -10212,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>92</v>
       </c>
@@ -10233,11 +10174,11 @@
       </c>
       <c r="H136" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I136" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J136" s="5" t="s">
         <v>209</v>
@@ -10255,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
         <v>92</v>
       </c>
@@ -10276,11 +10217,11 @@
       </c>
       <c r="H137" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I137" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J137" s="5" t="s">
         <v>209</v>
@@ -10298,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
         <v>92</v>
       </c>
@@ -10319,11 +10260,11 @@
       </c>
       <c r="H138" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I138" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J138" s="5" t="s">
         <v>209</v>
@@ -10341,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>92</v>
       </c>
@@ -10362,11 +10303,11 @@
       </c>
       <c r="H139" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I139" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J139" s="5" t="s">
         <v>209</v>
@@ -10384,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
         <v>92</v>
       </c>
@@ -10405,11 +10346,11 @@
       </c>
       <c r="H140" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I140" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J140" s="5" t="s">
         <v>209</v>
@@ -10427,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>92</v>
       </c>
@@ -10448,11 +10389,11 @@
       </c>
       <c r="H141" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I141" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J141" s="5" t="s">
         <v>209</v>
@@ -10470,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
         <v>92</v>
       </c>
@@ -10491,11 +10432,11 @@
       </c>
       <c r="H142" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I142" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>18.628623611111834</v>
+        <v>19.649309606480529</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>209</v>
@@ -10513,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
         <v>92</v>
       </c>
@@ -10534,11 +10475,11 @@
       </c>
       <c r="H143" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I143" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J143" s="36" t="s">
         <v>209</v>
@@ -10556,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
         <v>92</v>
       </c>
@@ -10577,11 +10518,11 @@
       </c>
       <c r="H144" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I144" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J144" s="36" t="s">
         <v>209</v>
@@ -10599,7 +10540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
         <v>92</v>
       </c>
@@ -10620,11 +10561,11 @@
       </c>
       <c r="H145" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I145" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J145" s="36" t="s">
         <v>209</v>
@@ -10642,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>92</v>
       </c>
@@ -10663,11 +10604,11 @@
       </c>
       <c r="H146" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I146" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J146" s="36" t="s">
         <v>209</v>
@@ -10685,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
         <v>92</v>
       </c>
@@ -10706,11 +10647,11 @@
       </c>
       <c r="H147" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I147" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J147" s="36" t="s">
         <v>209</v>
@@ -10728,7 +10669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>92</v>
       </c>
@@ -10749,11 +10690,11 @@
       </c>
       <c r="H148" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I148" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J148" s="36" t="s">
         <v>209</v>
@@ -10771,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>92</v>
       </c>
@@ -10792,11 +10733,11 @@
       </c>
       <c r="H149" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I149" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>209</v>
@@ -10814,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
         <v>92</v>
       </c>
@@ -10835,11 +10776,11 @@
       </c>
       <c r="H150" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I150" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>209</v>
@@ -10857,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>92</v>
       </c>
@@ -10878,11 +10819,11 @@
       </c>
       <c r="H151" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I151" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J151" s="36" t="s">
         <v>209</v>
@@ -10900,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>94</v>
       </c>
@@ -10921,7 +10862,7 @@
       </c>
       <c r="H152" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I152" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10943,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="16" t="s">
         <v>94</v>
       </c>
@@ -10964,7 +10905,7 @@
       </c>
       <c r="H153" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I153" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10986,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="16" t="s">
         <v>94</v>
       </c>
@@ -11007,7 +10948,7 @@
       </c>
       <c r="H154" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I154" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -11029,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
         <v>94</v>
       </c>
@@ -11050,7 +10991,7 @@
       </c>
       <c r="H155" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I155" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -11072,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
         <v>99</v>
       </c>
@@ -11093,7 +11034,7 @@
       </c>
       <c r="H156" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I156" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -11115,7 +11056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="20" t="s">
         <v>99</v>
       </c>
@@ -11136,7 +11077,7 @@
       </c>
       <c r="H157" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I157" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -11158,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
         <v>99</v>
       </c>
@@ -11179,7 +11120,7 @@
       </c>
       <c r="H158" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I158" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -11201,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="20" t="s">
         <v>99</v>
       </c>
@@ -11222,7 +11163,7 @@
       </c>
       <c r="H159" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I159" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -11244,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="20" t="s">
         <v>99</v>
       </c>
@@ -11265,11 +11206,11 @@
       </c>
       <c r="H160" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="I160" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J160" s="36" t="s">
         <v>198</v>
@@ -11290,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
         <v>108</v>
       </c>
@@ -11311,11 +11252,11 @@
       </c>
       <c r="H161" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I161" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J161" s="36" t="s">
         <v>198</v>
@@ -11333,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B162" s="24" t="s">
         <v>108</v>
       </c>
@@ -11354,11 +11295,11 @@
       </c>
       <c r="H162" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I162" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="J162" s="24" t="s">
         <v>209</v>
@@ -11379,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B163" s="24" t="s">
         <v>108</v>
       </c>
@@ -11400,11 +11341,11 @@
       </c>
       <c r="H163" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I163" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="J163" s="24" t="s">
         <v>209</v>
@@ -11425,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B164" s="24" t="s">
         <v>108</v>
       </c>
@@ -11446,11 +11387,11 @@
       </c>
       <c r="H164" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I164" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="J164" s="24" t="s">
         <v>209</v>
@@ -11471,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B165" s="24" t="s">
         <v>108</v>
       </c>
@@ -11492,11 +11433,11 @@
       </c>
       <c r="H165" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I165" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="J165" s="24" t="s">
         <v>209</v>
@@ -11517,7 +11458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B166" s="24" t="s">
         <v>108</v>
       </c>
@@ -11538,11 +11479,11 @@
       </c>
       <c r="H166" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I166" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="J166" s="24" t="s">
         <v>209</v>
@@ -11563,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B167" s="24" t="s">
         <v>108</v>
       </c>
@@ -11584,11 +11525,11 @@
       </c>
       <c r="H167" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I167" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>107.62862361111183</v>
+        <v>108.64930960648053</v>
       </c>
       <c r="J167" s="24" t="s">
         <v>209</v>
@@ -11609,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="36" t="s">
         <v>108</v>
@@ -11631,11 +11572,11 @@
       </c>
       <c r="H168" s="35">
         <f t="shared" ref="H168:H173" ca="1" si="8">IF(F168="DONE",NOW()-E168, NOW()-E168)</f>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I168" s="35">
         <f t="shared" ref="I168:I173" ca="1" si="9">IF(F168="DONE", "", NOW()-G168)</f>
-        <v>7.6286236111118342</v>
+        <v>8.6493096064805286</v>
       </c>
       <c r="J168" s="36" t="s">
         <v>198</v>
@@ -11654,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
       <c r="B169" s="36" t="s">
         <v>108</v>
@@ -11676,11 +11617,11 @@
       </c>
       <c r="H169" s="35">
         <f t="shared" ref="H169:H171" ca="1" si="10">IF(F169="DONE",NOW()-E169, NOW()-E169)</f>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I169" s="35">
         <f t="shared" ref="I169:I171" ca="1" si="11">IF(F169="DONE", "", NOW()-G169)</f>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J169" s="36" t="s">
         <v>198</v>
@@ -11699,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="36" t="s">
         <v>108</v>
@@ -11721,11 +11662,11 @@
       </c>
       <c r="H170" s="35">
         <f t="shared" ca="1" si="10"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I170" s="35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J170" s="36" t="s">
         <v>198</v>
@@ -11744,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="36" t="s">
         <v>108</v>
@@ -11766,11 +11707,11 @@
       </c>
       <c r="H171" s="35">
         <f t="shared" ca="1" si="10"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I171" s="35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J171" s="36" t="s">
         <v>198</v>
@@ -11789,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="36" t="s">
         <v>108</v>
@@ -11811,11 +11752,11 @@
       </c>
       <c r="H172" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I172" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J172" s="36" t="s">
         <v>198</v>
@@ -11834,7 +11775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="36" t="s">
         <v>108</v>
@@ -11856,11 +11797,11 @@
       </c>
       <c r="H173" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I173" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J173" s="36" t="s">
         <v>198</v>
@@ -11879,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B174" s="24" t="s">
         <v>108</v>
       </c>
@@ -11900,11 +11841,11 @@
       </c>
       <c r="H174" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I174" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J174" s="36" t="s">
         <v>198</v>
@@ -11922,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="36" t="s">
         <v>108</v>
@@ -11944,11 +11885,11 @@
       </c>
       <c r="H175" s="35">
         <f t="shared" ref="H175" ca="1" si="12">IF(F175="DONE",NOW()-E175, NOW()-E175)</f>
-        <v>76.628623611111834</v>
+        <v>77.649309606480529</v>
       </c>
       <c r="I175" s="35">
         <f t="shared" ref="I175" ca="1" si="13">IF(F175="DONE", "", NOW()-G175)</f>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J175" s="36" t="s">
         <v>198</v>
@@ -11991,11 +11932,11 @@
       </c>
       <c r="H176" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I176" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J176" s="36" t="s">
         <v>322</v>
@@ -12040,11 +11981,11 @@
       </c>
       <c r="H177" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I177" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J177" s="36" t="s">
         <v>322</v>
@@ -12089,11 +12030,11 @@
       </c>
       <c r="H178" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I178" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J178" s="36" t="s">
         <v>322</v>
@@ -12138,11 +12079,11 @@
       </c>
       <c r="H179" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I179" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J179" s="36" t="s">
         <v>322</v>
@@ -12187,11 +12128,11 @@
       </c>
       <c r="H180" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I180" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J180" s="36" t="s">
         <v>322</v>
@@ -12236,11 +12177,11 @@
       </c>
       <c r="H181" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I181" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J181" s="36" t="s">
         <v>322</v>
@@ -12285,11 +12226,11 @@
       </c>
       <c r="H182" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I182" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J182" s="36" t="s">
         <v>322</v>
@@ -12334,11 +12275,11 @@
       </c>
       <c r="H183" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I183" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J183" s="36" t="s">
         <v>322</v>
@@ -12383,11 +12324,11 @@
       </c>
       <c r="H184" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I184" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J184" s="36" t="s">
         <v>322</v>
@@ -12432,11 +12373,11 @@
       </c>
       <c r="H185" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I185" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J185" s="36" t="s">
         <v>322</v>
@@ -12481,11 +12422,11 @@
       </c>
       <c r="H186" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="I186" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J186" s="36" t="s">
         <v>322</v>
@@ -12506,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="40" t="s">
         <v>93</v>
       </c>
@@ -12527,11 +12468,11 @@
       </c>
       <c r="H187" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I187" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J187" s="28" t="s">
         <v>209</v>
@@ -12549,7 +12490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="40" t="s">
         <v>93</v>
       </c>
@@ -12570,11 +12511,11 @@
       </c>
       <c r="H188" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I188" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J188" s="28" t="s">
         <v>209</v>
@@ -12592,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="40" t="s">
         <v>93</v>
       </c>
@@ -12613,11 +12554,11 @@
       </c>
       <c r="H189" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I189" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J189" s="28" t="s">
         <v>209</v>
@@ -12635,7 +12576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="40" t="s">
         <v>93</v>
       </c>
@@ -12656,11 +12597,11 @@
       </c>
       <c r="H190" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I190" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J190" s="5" t="s">
         <v>322</v>
@@ -12681,7 +12622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="40" t="s">
         <v>93</v>
       </c>
@@ -12702,11 +12643,11 @@
       </c>
       <c r="H191" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I191" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J191" s="28" t="s">
         <v>209</v>
@@ -12724,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="40" t="s">
         <v>93</v>
       </c>
@@ -12745,11 +12686,11 @@
       </c>
       <c r="H192" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I192" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J192" s="28" t="s">
         <v>209</v>
@@ -12767,7 +12708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="40" t="s">
         <v>93</v>
       </c>
@@ -12788,11 +12729,11 @@
       </c>
       <c r="H193" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I193" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J193" s="28" t="s">
         <v>209</v>
@@ -12810,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="40" t="s">
         <v>93</v>
       </c>
@@ -12831,11 +12772,11 @@
       </c>
       <c r="H194" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I194" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J194" s="28" t="s">
         <v>209</v>
@@ -12853,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="40" t="s">
         <v>93</v>
       </c>
@@ -12874,11 +12815,11 @@
       </c>
       <c r="H195" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I195" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J195" s="28" t="s">
         <v>209</v>
@@ -12896,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="40" t="s">
         <v>93</v>
       </c>
@@ -12917,11 +12858,11 @@
       </c>
       <c r="H196" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I196" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J196" s="28" t="s">
         <v>209</v>
@@ -12939,7 +12880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="40" t="s">
         <v>93</v>
       </c>
@@ -12960,11 +12901,11 @@
       </c>
       <c r="H197" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I197" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>209</v>
@@ -12982,7 +12923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="40" t="s">
         <v>93</v>
       </c>
@@ -13003,11 +12944,11 @@
       </c>
       <c r="H198" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I198" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>209</v>
@@ -13025,7 +12966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="40" t="s">
         <v>93</v>
       </c>
@@ -13046,11 +12987,11 @@
       </c>
       <c r="H199" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I199" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J199" s="28" t="s">
         <v>209</v>
@@ -13068,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="40" t="s">
         <v>93</v>
       </c>
@@ -13089,11 +13030,11 @@
       </c>
       <c r="H200" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I200" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J200" s="28" t="s">
         <v>209</v>
@@ -13111,7 +13052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="40" t="s">
         <v>93</v>
       </c>
@@ -13132,11 +13073,11 @@
       </c>
       <c r="H201" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I201" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J201" s="28" t="s">
         <v>209</v>
@@ -13154,7 +13095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="40" t="s">
         <v>93</v>
       </c>
@@ -13175,11 +13116,11 @@
       </c>
       <c r="H202" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I202" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J202" s="28" t="s">
         <v>209</v>
@@ -13197,7 +13138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="40" t="s">
         <v>93</v>
       </c>
@@ -13218,11 +13159,11 @@
       </c>
       <c r="H203" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I203" s="35">
         <f t="shared" ref="I203:I260" ca="1" si="14">IF(F203="DONE", "", NOW()-G203)</f>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J203" s="28" t="s">
         <v>209</v>
@@ -13240,7 +13181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="40" t="s">
         <v>93</v>
       </c>
@@ -13261,11 +13202,11 @@
       </c>
       <c r="H204" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I204" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J204" s="28" t="s">
         <v>209</v>
@@ -13283,7 +13224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="40" t="s">
         <v>93</v>
       </c>
@@ -13304,11 +13245,11 @@
       </c>
       <c r="H205" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I205" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J205" s="28" t="s">
         <v>209</v>
@@ -13326,7 +13267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="40" t="s">
         <v>93</v>
       </c>
@@ -13347,11 +13288,11 @@
       </c>
       <c r="H206" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I206" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J206" s="28" t="s">
         <v>209</v>
@@ -13369,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="40" t="s">
         <v>93</v>
       </c>
@@ -13390,11 +13331,11 @@
       </c>
       <c r="H207" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I207" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J207" s="28" t="s">
         <v>209</v>
@@ -13412,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="40" t="s">
         <v>93</v>
       </c>
@@ -13433,11 +13374,11 @@
       </c>
       <c r="H208" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I208" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J208" s="28" t="s">
         <v>209</v>
@@ -13455,7 +13396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="40" t="s">
         <v>93</v>
       </c>
@@ -13476,11 +13417,11 @@
       </c>
       <c r="H209" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I209" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="J209" s="28" t="s">
         <v>209</v>
@@ -13498,7 +13439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="5" t="s">
         <v>168</v>
       </c>
@@ -13519,11 +13460,11 @@
       </c>
       <c r="H210" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I210" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J210" s="32" t="s">
         <v>209</v>
@@ -13541,7 +13482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="32" t="s">
         <v>168</v>
       </c>
@@ -13562,11 +13503,11 @@
       </c>
       <c r="H211" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I211" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J211" s="32" t="s">
         <v>209</v>
@@ -13584,7 +13525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="32" t="s">
         <v>168</v>
       </c>
@@ -13605,11 +13546,11 @@
       </c>
       <c r="H212" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I212" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J212" s="32" t="s">
         <v>209</v>
@@ -13627,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="32" t="s">
         <v>168</v>
       </c>
@@ -13648,11 +13589,11 @@
       </c>
       <c r="H213" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I213" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J213" s="32" t="s">
         <v>209</v>
@@ -13670,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="32" t="s">
         <v>168</v>
       </c>
@@ -13691,11 +13632,11 @@
       </c>
       <c r="H214" s="31">
         <f t="shared" ref="H214:H259" ca="1" si="15">IF(F214="DONE",NOW()-E214, NOW()-E214)</f>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I214" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J214" s="32" t="s">
         <v>209</v>
@@ -13713,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="32" t="s">
         <v>168</v>
       </c>
@@ -13734,11 +13675,11 @@
       </c>
       <c r="H215" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I215" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J215" s="32" t="s">
         <v>209</v>
@@ -13756,7 +13697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="32" t="s">
         <v>168</v>
       </c>
@@ -13777,11 +13718,11 @@
       </c>
       <c r="H216" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I216" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J216" s="32" t="s">
         <v>209</v>
@@ -13799,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="32" t="s">
         <v>168</v>
       </c>
@@ -13820,11 +13761,11 @@
       </c>
       <c r="H217" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I217" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J217" s="32" t="s">
         <v>209</v>
@@ -13842,7 +13783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="32" t="s">
         <v>168</v>
       </c>
@@ -13863,11 +13804,11 @@
       </c>
       <c r="H218" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I218" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J218" s="32" t="s">
         <v>209</v>
@@ -13885,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="32" t="s">
         <v>168</v>
       </c>
@@ -13906,11 +13847,11 @@
       </c>
       <c r="H219" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I219" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J219" s="32" t="s">
         <v>209</v>
@@ -13928,7 +13869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="32" t="s">
         <v>168</v>
       </c>
@@ -13949,11 +13890,11 @@
       </c>
       <c r="H220" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I220" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J220" s="32" t="s">
         <v>209</v>
@@ -13971,7 +13912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="32" t="s">
         <v>168</v>
       </c>
@@ -13992,11 +13933,11 @@
       </c>
       <c r="H221" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I221" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J221" s="32" t="s">
         <v>209</v>
@@ -14014,7 +13955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="32" t="s">
         <v>168</v>
       </c>
@@ -14035,11 +13976,11 @@
       </c>
       <c r="H222" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I222" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J222" s="32" t="s">
         <v>209</v>
@@ -14057,7 +13998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32" t="s">
         <v>168</v>
       </c>
@@ -14078,11 +14019,11 @@
       </c>
       <c r="H223" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I223" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J223" s="32" t="s">
         <v>209</v>
@@ -14100,7 +14041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32" t="s">
         <v>168</v>
       </c>
@@ -14121,11 +14062,11 @@
       </c>
       <c r="H224" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I224" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J224" s="32" t="s">
         <v>209</v>
@@ -14143,7 +14084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="32" t="s">
         <v>168</v>
       </c>
@@ -14164,11 +14105,11 @@
       </c>
       <c r="H225" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I225" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J225" s="32" t="s">
         <v>209</v>
@@ -14186,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32" t="s">
         <v>168</v>
       </c>
@@ -14207,11 +14148,11 @@
       </c>
       <c r="H226" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I226" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J226" s="32" t="s">
         <v>209</v>
@@ -14229,7 +14170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="32" t="s">
         <v>168</v>
       </c>
@@ -14250,11 +14191,11 @@
       </c>
       <c r="H227" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I227" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J227" s="32" t="s">
         <v>209</v>
@@ -14272,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="32" t="s">
         <v>168</v>
       </c>
@@ -14293,11 +14234,11 @@
       </c>
       <c r="H228" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I228" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J228" s="32" t="s">
         <v>209</v>
@@ -14315,7 +14256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="32" t="s">
         <v>168</v>
       </c>
@@ -14336,11 +14277,11 @@
       </c>
       <c r="H229" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I229" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J229" s="32" t="s">
         <v>209</v>
@@ -14358,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="32" t="s">
         <v>168</v>
       </c>
@@ -14379,11 +14320,11 @@
       </c>
       <c r="H230" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I230" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J230" s="32" t="s">
         <v>209</v>
@@ -14401,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="32" t="s">
         <v>168</v>
       </c>
@@ -14422,11 +14363,11 @@
       </c>
       <c r="H231" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I231" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J231" s="32" t="s">
         <v>209</v>
@@ -14444,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="32" t="s">
         <v>168</v>
       </c>
@@ -14465,11 +14406,11 @@
       </c>
       <c r="H232" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I232" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J232" s="32" t="s">
         <v>209</v>
@@ -14487,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="32" t="s">
         <v>168</v>
       </c>
@@ -14508,11 +14449,11 @@
       </c>
       <c r="H233" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I233" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J233" s="32" t="s">
         <v>209</v>
@@ -14530,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="32" t="s">
         <v>168</v>
       </c>
@@ -14551,11 +14492,11 @@
       </c>
       <c r="H234" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I234" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J234" s="32" t="s">
         <v>209</v>
@@ -14573,7 +14514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="32" t="s">
         <v>168</v>
       </c>
@@ -14594,11 +14535,11 @@
       </c>
       <c r="H235" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I235" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J235" s="32" t="s">
         <v>209</v>
@@ -14616,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="32" t="s">
         <v>168</v>
       </c>
@@ -14637,11 +14578,11 @@
       </c>
       <c r="H236" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I236" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>32.628623611111834</v>
+        <v>33.649309606480529</v>
       </c>
       <c r="J236" s="32" t="s">
         <v>209</v>
@@ -14659,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="40" t="s">
         <v>361</v>
       </c>
@@ -14680,11 +14621,11 @@
       </c>
       <c r="H237" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I237" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J237" s="36" t="s">
         <v>220</v>
@@ -14705,7 +14646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="40" t="s">
         <v>184</v>
       </c>
@@ -14726,11 +14667,11 @@
       </c>
       <c r="H238" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I238" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J238" s="5" t="s">
         <v>198</v>
@@ -14751,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="40" t="s">
         <v>184</v>
       </c>
@@ -14772,11 +14713,11 @@
       </c>
       <c r="H239" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I239" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J239" s="36" t="s">
         <v>198</v>
@@ -14818,11 +14759,11 @@
       </c>
       <c r="H240" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I240" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>14.628623611111834</v>
+        <v>15.649309606480529</v>
       </c>
       <c r="J240" s="36" t="s">
         <v>220</v>
@@ -14843,7 +14784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="40" t="s">
         <v>361</v>
       </c>
@@ -14864,11 +14805,11 @@
       </c>
       <c r="H241" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I241" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J241" s="36" t="s">
         <v>220</v>
@@ -14889,7 +14830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="40" t="s">
         <v>361</v>
       </c>
@@ -14910,11 +14851,11 @@
       </c>
       <c r="H242" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I242" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J242" s="36" t="s">
         <v>220</v>
@@ -14935,7 +14876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="40" t="s">
         <v>184</v>
       </c>
@@ -14956,11 +14897,11 @@
       </c>
       <c r="H243" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I243" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J243" s="36" t="s">
         <v>198</v>
@@ -15003,11 +14944,11 @@
       </c>
       <c r="H244" s="35">
         <f t="shared" ref="H244:H246" ca="1" si="16">IF(F244="DONE",NOW()-E244, NOW()-E244)</f>
-        <v>22.628623611111834</v>
+        <v>23.649309606480529</v>
       </c>
       <c r="I244" s="35">
         <f t="shared" ref="I244:I246" ca="1" si="17">IF(F244="DONE", "", NOW()-G244)</f>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J244" s="36" t="s">
         <v>220</v>
@@ -15050,11 +14991,11 @@
       </c>
       <c r="H245" s="35">
         <f t="shared" ca="1" si="16"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="I245" s="35">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6286236111118342</v>
+        <v>7.6493096064805286</v>
       </c>
       <c r="J245" s="36" t="s">
         <v>220</v>
@@ -15095,11 +15036,11 @@
       </c>
       <c r="H246" s="35">
         <f t="shared" ca="1" si="16"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="I246" s="35">
         <f t="shared" ca="1" si="17"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J246" s="36" t="s">
         <v>220</v>
@@ -15120,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="40" t="s">
         <v>184</v>
       </c>
@@ -15141,11 +15082,11 @@
       </c>
       <c r="H247" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="I247" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J247" s="36" t="s">
         <v>220</v>
@@ -15163,13 +15104,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D248" s="37" t="s">
         <v>96</v>
@@ -15185,11 +15126,11 @@
       </c>
       <c r="H248" s="35">
         <f t="shared" ref="H248:H249" ca="1" si="18">IF(F248="DONE",NOW()-E248, NOW()-E248)</f>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="I248" s="35">
         <f t="shared" ref="I248:I249" ca="1" si="19">IF(F248="DONE", "", NOW()-G248)</f>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J248" s="36" t="s">
         <v>220</v>
@@ -15208,7 +15149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="40" t="s">
         <v>361</v>
@@ -15230,11 +15171,11 @@
       </c>
       <c r="H249" s="35">
         <f t="shared" ca="1" si="18"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="I249" s="35">
         <f t="shared" ca="1" si="19"/>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J249" s="36" t="s">
         <v>220</v>
@@ -15255,7 +15196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="40" t="s">
         <v>361</v>
@@ -15277,11 +15218,11 @@
       </c>
       <c r="H250" s="35">
         <f t="shared" ref="H250" ca="1" si="20">IF(F250="DONE",NOW()-E250, NOW()-E250)</f>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="I250" s="35">
         <f t="shared" ref="I250" ca="1" si="21">IF(F250="DONE", "", NOW()-G250)</f>
-        <v>2.6286236111118342</v>
+        <v>3.6493096064805286</v>
       </c>
       <c r="J250" s="36" t="s">
         <v>220</v>
@@ -15302,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="40" t="s">
         <v>176</v>
@@ -15324,11 +15265,11 @@
       </c>
       <c r="H251" s="35">
         <f t="shared" ref="H251:H253" ca="1" si="22">IF(F251="DONE",NOW()-E251, NOW()-E251)</f>
-        <v>25.628623611111834</v>
+        <v>26.649309606480529</v>
       </c>
       <c r="I251" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J251" s="36" t="s">
         <v>209</v>
@@ -15347,7 +15288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="40" t="s">
         <v>176</v>
@@ -15369,11 +15310,11 @@
       </c>
       <c r="H252" s="35">
         <f t="shared" ref="H252" ca="1" si="23">IF(F252="DONE",NOW()-E252, NOW()-E252)</f>
-        <v>25.628623611111834</v>
+        <v>26.649309606480529</v>
       </c>
       <c r="I252" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J252" s="36" t="s">
         <v>209</v>
@@ -15392,7 +15333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="40" t="s">
         <v>176</v>
@@ -15414,11 +15355,11 @@
       </c>
       <c r="H253" s="35">
         <f t="shared" ca="1" si="22"/>
-        <v>25.628623611111834</v>
+        <v>26.649309606480529</v>
       </c>
       <c r="I253" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J253" s="36" t="s">
         <v>209</v>
@@ -15437,7 +15378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="40" t="s">
         <v>176</v>
@@ -15459,11 +15400,11 @@
       </c>
       <c r="H254" s="35">
         <f t="shared" ref="H254" ca="1" si="24">IF(F254="DONE",NOW()-E254, NOW()-E254)</f>
-        <v>25.628623611111834</v>
+        <v>26.649309606480529</v>
       </c>
       <c r="I254" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>11.628623611111834</v>
+        <v>12.649309606480529</v>
       </c>
       <c r="J254" s="36" t="s">
         <v>209</v>
@@ -15482,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="36" t="s">
         <v>106</v>
@@ -15504,11 +15445,11 @@
       </c>
       <c r="H255" s="35">
         <f t="shared" ref="H255:H257" ca="1" si="25">IF(F255="DONE",NOW()-E255, NOW()-E255)</f>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I255" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>25.628623611111834</v>
+        <v>26.649309606480529</v>
       </c>
       <c r="J255" s="36" t="s">
         <v>212</v>
@@ -15529,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="36" t="s">
         <v>106</v>
@@ -15551,11 +15492,11 @@
       </c>
       <c r="H256" s="35">
         <f t="shared" ref="H256" ca="1" si="26">IF(F256="DONE",NOW()-E256, NOW()-E256)</f>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I256" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>25.628623611111834</v>
+        <v>26.649309606480529</v>
       </c>
       <c r="J256" s="36" t="s">
         <v>212</v>
@@ -15576,7 +15517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="36" t="s">
         <v>107</v>
@@ -15596,11 +15537,11 @@
       </c>
       <c r="H257" s="35">
         <f t="shared" ca="1" si="25"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I257" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J257" s="36" t="s">
         <v>220</v>
@@ -15619,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="36" t="s">
         <v>100</v>
@@ -15639,11 +15580,11 @@
       </c>
       <c r="H258" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I258" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>13.628623611111834</v>
+        <v>14.649309606480529</v>
       </c>
       <c r="J258" s="36" t="s">
         <v>220</v>
@@ -15662,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="5" t="s">
         <v>105</v>
       </c>
@@ -15683,11 +15624,11 @@
       </c>
       <c r="H259" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I259" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>6.6286236111118342</v>
+        <v>7.6493096064805286</v>
       </c>
       <c r="J259" s="36" t="s">
         <v>198</v>
@@ -15708,7 +15649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="36" t="s">
         <v>105</v>
       </c>
@@ -15729,11 +15670,11 @@
       </c>
       <c r="H260" s="35">
         <f t="shared" ref="H260" ca="1" si="27">IF(F260="DONE",NOW()-E260, NOW()-E260)</f>
-        <v>46.628623611111834</v>
+        <v>47.649309606480529</v>
       </c>
       <c r="I260" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>6.6286236111118342</v>
+        <v>7.6493096064805286</v>
       </c>
       <c r="J260" s="36" t="s">
         <v>198</v>
@@ -15754,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C261" s="12" t="s">
         <v>366</v>
       </c>
@@ -15771,7 +15712,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C262" s="12" t="s">
         <v>367</v>
       </c>
@@ -15788,7 +15729,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C263" s="12" t="s">
         <v>368</v>
       </c>
@@ -15805,7 +15746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C264" s="12" t="s">
         <v>369</v>
       </c>
@@ -15822,7 +15763,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C265" s="12" t="s">
         <v>370</v>
       </c>
@@ -15860,11 +15801,11 @@
       </c>
       <c r="H266" s="35">
         <f t="shared" ref="H266" ca="1" si="28">IF(F266="DONE",NOW()-E266, NOW()-E266)</f>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="I266" s="35">
         <f t="shared" ref="I266" ca="1" si="29">IF(F266="DONE", "", NOW()-G266)</f>
-        <v>0.62862361111183418</v>
+        <v>1.6493096064805286</v>
       </c>
       <c r="J266" s="36" t="s">
         <v>220</v>
@@ -15883,271 +15824,264 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O265">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="WAITING FOR QUOTATION"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="C255 C1:C46 C187:C243 C257:C259 C247 C48:C167 C174 C176 C261:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="duplicateValues" dxfId="78" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C183">
-    <cfRule type="duplicateValues" dxfId="77" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="duplicateValues" dxfId="76" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C185">
-    <cfRule type="duplicateValues" dxfId="75" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186">
-    <cfRule type="duplicateValues" dxfId="74" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177">
-    <cfRule type="duplicateValues" dxfId="73" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178">
-    <cfRule type="duplicateValues" dxfId="72" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179">
-    <cfRule type="duplicateValues" dxfId="71" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C180">
-    <cfRule type="duplicateValues" dxfId="70" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C181">
-    <cfRule type="duplicateValues" dxfId="69" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255 C1:C46 C257:C259 C247 C48:C167 C174 C176:C243 C261:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="duplicateValues" dxfId="68" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="duplicateValues" dxfId="67" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="duplicateValues" dxfId="66" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="duplicateValues" dxfId="65" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="duplicateValues" dxfId="64" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="duplicateValues" dxfId="63" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="duplicateValues" dxfId="62" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="duplicateValues" dxfId="61" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="duplicateValues" dxfId="60" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="duplicateValues" dxfId="59" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="duplicateValues" dxfId="58" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="duplicateValues" dxfId="57" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F46 F176:F236 F49:F167 F243 F238:F240 F251:F1048576">
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="duplicateValues" dxfId="55" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="duplicateValues" dxfId="54" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="duplicateValues" dxfId="53" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="duplicateValues" dxfId="52" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245">
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="duplicateValues" dxfId="48" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="duplicateValues" dxfId="47" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="duplicateValues" dxfId="46" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="44" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="43" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="duplicateValues" dxfId="40" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="duplicateValues" dxfId="39" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168">
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C175">
-    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C175">
-    <cfRule type="duplicateValues" dxfId="36" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="duplicateValues" dxfId="34" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="duplicateValues" dxfId="33" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="duplicateValues" dxfId="31" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="duplicateValues" dxfId="30" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="duplicateValues" dxfId="24" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169">
-    <cfRule type="duplicateValues" dxfId="22" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169">
-    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F249">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F237">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F241">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/enrollment/ENROLLMENT RAW.xlsx
+++ b/data/enrollment/ENROLLMENT RAW.xlsx
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$Q$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$Q$290</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="all">#REF!</definedName>
     <definedName name="AREA">list!$E$2:$E$5</definedName>
@@ -84,8 +84,8 @@
     <definedName name="name">#REF!</definedName>
     <definedName name="nlag">#REF!</definedName>
     <definedName name="no">#REF!</definedName>
-    <definedName name="PIC">list!$D$2:$D$26</definedName>
-    <definedName name="PROJECT">list!$F$2:$F$15</definedName>
+    <definedName name="PIC">list!$D$2:$D$27</definedName>
+    <definedName name="PROJECT">list!$F$2:$F$24</definedName>
     <definedName name="PROJECT_TYPE">list!$G$2:$G$3</definedName>
     <definedName name="qa">#REF!</definedName>
     <definedName name="qaz">#REF!</definedName>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="403">
   <si>
     <t>STATUS</t>
   </si>
@@ -1109,9 +1109,6 @@
     <t>Not included in the qoutation P124-2034-2</t>
   </si>
   <si>
-    <t>&lt;all&gt;</t>
-  </si>
-  <si>
     <t>Material list from SE for equipment data</t>
   </si>
   <si>
@@ -1133,18 +1130,6 @@
     <t>Forwarded to Maam Jen for review last July 4 but no feedback. Decided to proceed with docusign.</t>
   </si>
   <si>
-    <t>&lt;Dosusign to inform stakeholders of the unnecessary MPLAN&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Dosusign to inform stakeholders of the unnecessary AMM&gt;</t>
-  </si>
-  <si>
-    <t>&lt;all MPLAN&gt;</t>
-  </si>
-  <si>
-    <t>&lt;all AMM&gt;</t>
-  </si>
-  <si>
     <t>Hand over to Maam Allado for review.</t>
   </si>
   <si>
@@ -1232,21 +1217,6 @@
     <t xml:space="preserve"> Level Indicator LV-300  L=500 LEMA  9Z BLU 4B </t>
   </si>
   <si>
-    <t>&lt;milks 1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;milks 2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;milks 3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;milks 4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;milks 5&gt;</t>
-  </si>
-  <si>
     <t>Grease Rivolta GT-2</t>
   </si>
   <si>
@@ -1257,6 +1227,123 @@
   </si>
   <si>
     <t>&lt;Heat Exchanger (AMM) Possible plates&gt;</t>
+  </si>
+  <si>
+    <t>PACKING VENTILATION</t>
+  </si>
+  <si>
+    <t>4W B1V1 CONDITION MONITORING INSPECTION</t>
+  </si>
+  <si>
+    <t>13W B1V1 Condition Inspection of Fan assembly</t>
+  </si>
+  <si>
+    <t>13W B1V1 Inspection of fan bearing lubrication</t>
+  </si>
+  <si>
+    <t>13W B1V1 Servicing Inspection of Motor</t>
+  </si>
+  <si>
+    <t>26W B1V1 Fan Drive Belt Replacement</t>
+  </si>
+  <si>
+    <t>104W B1V1 Fan &amp; Motor Servicing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearing Flange ASAHI 1-1/2 UCF208-24 </t>
+  </si>
+  <si>
+    <t>Belt V BANDO A-61</t>
+  </si>
+  <si>
+    <t>Induction Motor WEG 3HP/3ph/220V/1800rpm</t>
+  </si>
+  <si>
+    <t>Marcos Davo-davo</t>
+  </si>
+  <si>
+    <t>Wet Process Upgrade</t>
+  </si>
+  <si>
+    <t>&lt;AFBB Smokestack Upgrade&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Wet Process Upgrade&gt;</t>
+  </si>
+  <si>
+    <t>AFBB Smokestack Upgrade</t>
+  </si>
+  <si>
+    <t>Secondary Packaging Area Ventilation (DHNS)</t>
+  </si>
+  <si>
+    <t>ETS 2021: AFBB Heat Recovery System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Elmer (Phase 1) - DHNS </t>
+  </si>
+  <si>
+    <t>Homogenizers and HPP Cooling Water Recovery System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS Battery Temperature Interlock - 3CBU </t>
+  </si>
+  <si>
+    <t>Solar Street Lights</t>
+  </si>
+  <si>
+    <t>Already Hand-over,  MUEE DONE</t>
+  </si>
+  <si>
+    <t>Ongoing review, Lightning Arrestor Only</t>
+  </si>
+  <si>
+    <t>MUEE &amp; MPLAN - for review, Not sure if the manuals are incomplete</t>
+  </si>
+  <si>
+    <t>Already Hand-over by Mimi, Remaining Docs: Punchlist</t>
+  </si>
+  <si>
+    <t>&lt;Secondary Packaging Area Ventilation (DHNS)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ETS 2021: AFBB Heat Recovery System&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Project Elmer (Phase 1) - DHNS &gt;</t>
+  </si>
+  <si>
+    <t>&lt;Homogenizers and HPP Cooling Water Recovery System&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UPS Battery Temperature Interlock - 3CBU &gt;</t>
+  </si>
+  <si>
+    <t>&lt;Solar Street Lights&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PEC 2020: PE Panel Cooling&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PEC 2020: Process adaptation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FFE-RARE&gt;</t>
+  </si>
+  <si>
+    <t>NOTICE DOCUMENT - MPLAN</t>
+  </si>
+  <si>
+    <t>NOTICE DOCUMENT - AMM</t>
+  </si>
+  <si>
+    <t>Motor EMOD</t>
+  </si>
+  <si>
+    <t>Seal Mechanical, FRISTAM FP722</t>
+  </si>
+  <si>
+    <t>O-ring, FRISTAM FP722</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1533,487 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="117">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2137,46 +2704,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2474,20 +3001,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q266"/>
+  <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E245" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D283" sqref="D283:F285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="55" style="5" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" style="12" customWidth="1"/>
     <col min="4" max="4" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="10" customWidth="1"/>
@@ -2547,13 +3077,13 @@
         <v>192</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>95</v>
       </c>
@@ -2574,7 +3104,7 @@
       </c>
       <c r="H2" s="3">
         <f ca="1">IF(F2="DONE",NOW()-E2, NOW()-E2)</f>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I2" s="3" t="str">
         <f ca="1">IF(F2="DONE", "", NOW()-G2)</f>
@@ -2596,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -2617,7 +3147,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H67" ca="1" si="0">IF(F3="DONE",NOW()-E3, NOW()-E3)</f>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I67" ca="1" si="1">IF(F3="DONE", "", NOW()-G3)</f>
@@ -2639,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
@@ -2660,7 +3190,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2682,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>95</v>
       </c>
@@ -2703,7 +3233,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2725,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
@@ -2746,7 +3276,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2768,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
@@ -2789,7 +3319,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2811,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
@@ -2832,7 +3362,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2854,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>95</v>
       </c>
@@ -2875,7 +3405,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2897,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>95</v>
       </c>
@@ -2918,7 +3448,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2940,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
@@ -2961,7 +3491,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2983,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>95</v>
       </c>
@@ -3004,7 +3534,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3026,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -3047,7 +3577,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3069,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>95</v>
       </c>
@@ -3090,7 +3620,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3112,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>95</v>
       </c>
@@ -3133,7 +3663,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3155,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>95</v>
       </c>
@@ -3176,7 +3706,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3198,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>95</v>
       </c>
@@ -3219,7 +3749,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3241,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
@@ -3262,7 +3792,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I18" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3284,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>92</v>
       </c>
@@ -3305,11 +3835,11 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I19" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>209</v>
@@ -3327,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
@@ -3348,11 +3878,11 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I20" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>209</v>
@@ -3370,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
@@ -3391,11 +3921,11 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I21" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>209</v>
@@ -3413,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>92</v>
       </c>
@@ -3434,11 +3964,11 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I22" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J22" s="36" t="s">
         <v>209</v>
@@ -3456,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
@@ -3477,11 +4007,11 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J23" s="36" t="s">
         <v>209</v>
@@ -3499,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
@@ -3520,11 +4050,11 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I24" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J24" s="36" t="s">
         <v>209</v>
@@ -3542,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
@@ -3563,11 +4093,11 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I25" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J25" s="36" t="s">
         <v>209</v>
@@ -3585,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
@@ -3606,11 +4136,11 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I26" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>209</v>
@@ -3628,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
@@ -3649,11 +4179,11 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I27" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>209</v>
@@ -3671,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
@@ -3692,11 +4222,11 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>209</v>
@@ -3714,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>92</v>
       </c>
@@ -3735,11 +4265,11 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I29" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J29" s="36" t="s">
         <v>209</v>
@@ -3757,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>94</v>
       </c>
@@ -3778,7 +4308,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I30" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3800,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="5" t="s">
         <v>99</v>
@@ -3822,7 +4352,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>174.57035150462616</v>
+        <v>176.63821180555533</v>
       </c>
       <c r="I31" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3845,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>108</v>
       </c>
@@ -3866,11 +4396,11 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I32" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>19.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J32" s="36" t="s">
         <v>209</v>
@@ -3888,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>108</v>
       </c>
@@ -3909,11 +4439,11 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I33" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>19.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J33" s="36" t="s">
         <v>209</v>
@@ -3931,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>108</v>
       </c>
@@ -3952,11 +4482,11 @@
       </c>
       <c r="H34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I34" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>19.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J34" s="36" t="s">
         <v>209</v>
@@ -3974,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>108</v>
       </c>
@@ -3995,11 +4525,11 @@
       </c>
       <c r="H35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I35" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>19.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J35" s="36" t="s">
         <v>209</v>
@@ -4017,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>108</v>
       </c>
@@ -4038,11 +4568,11 @@
       </c>
       <c r="H36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I36" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>19.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J36" s="36" t="s">
         <v>209</v>
@@ -4060,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>108</v>
       </c>
@@ -4081,11 +4611,11 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>19.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>209</v>
@@ -4103,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>93</v>
       </c>
@@ -4124,11 +4654,11 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I38" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>209</v>
@@ -4146,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>93</v>
       </c>
@@ -4167,11 +4697,11 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I39" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>209</v>
@@ -4189,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>93</v>
       </c>
@@ -4210,11 +4740,11 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I40" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>209</v>
@@ -4232,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>93</v>
       </c>
@@ -4253,11 +4783,11 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I41" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>209</v>
@@ -4275,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>93</v>
       </c>
@@ -4296,11 +4826,11 @@
       </c>
       <c r="H42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I42" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>209</v>
@@ -4318,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>93</v>
       </c>
@@ -4339,11 +4869,11 @@
       </c>
       <c r="H43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I43" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>209</v>
@@ -4361,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
@@ -4382,17 +4912,17 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I44" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>209</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>230</v>
@@ -4407,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>93</v>
       </c>
@@ -4428,17 +4958,17 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I45" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>209</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>230</v>
@@ -4453,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>93</v>
       </c>
@@ -4474,17 +5004,17 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I46" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J46" s="36" t="s">
         <v>209</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>230</v>
@@ -4499,13 +5029,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>96</v>
@@ -4521,11 +5051,11 @@
       </c>
       <c r="H47" s="35">
         <f t="shared" ref="H47" ca="1" si="2">IF(F47="DONE",NOW()-E47, NOW()-E47)</f>
-        <v>45.57035150462616</v>
+        <v>47.638211805555329</v>
       </c>
       <c r="I47" s="35">
         <f t="shared" ref="I47" ca="1" si="3">IF(F47="DONE", "", NOW()-G47)</f>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J47" s="36" t="s">
         <v>209</v>
@@ -4544,12 +5074,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>96</v>
@@ -4565,11 +5095,11 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45.57035150462616</v>
+        <v>47.638211805555329</v>
       </c>
       <c r="I48" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>209</v>
@@ -4587,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>168</v>
       </c>
@@ -4608,11 +5138,11 @@
       </c>
       <c r="H49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I49" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>209</v>
@@ -4630,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>168</v>
       </c>
@@ -4651,11 +5181,11 @@
       </c>
       <c r="H50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I50" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>209</v>
@@ -4673,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>168</v>
       </c>
@@ -4694,11 +5224,11 @@
       </c>
       <c r="H51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I51" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>209</v>
@@ -4716,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>168</v>
       </c>
@@ -4737,11 +5267,11 @@
       </c>
       <c r="H52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I52" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>209</v>
@@ -4759,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>168</v>
       </c>
@@ -4780,11 +5310,11 @@
       </c>
       <c r="H53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I53" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>209</v>
@@ -4802,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>168</v>
       </c>
@@ -4823,11 +5353,11 @@
       </c>
       <c r="H54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I54" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>209</v>
@@ -4845,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>168</v>
       </c>
@@ -4866,11 +5396,11 @@
       </c>
       <c r="H55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I55" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>209</v>
@@ -4888,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>168</v>
       </c>
@@ -4909,11 +5439,11 @@
       </c>
       <c r="H56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I56" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>209</v>
@@ -4931,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>168</v>
       </c>
@@ -4952,11 +5482,11 @@
       </c>
       <c r="H57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I57" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>209</v>
@@ -4974,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>95</v>
       </c>
@@ -4995,11 +5525,11 @@
       </c>
       <c r="H58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I58" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>209</v>
@@ -5017,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>95</v>
       </c>
@@ -5038,11 +5568,11 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I59" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>209</v>
@@ -5060,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>95</v>
       </c>
@@ -5081,11 +5611,11 @@
       </c>
       <c r="H60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I60" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>209</v>
@@ -5103,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
@@ -5124,11 +5654,11 @@
       </c>
       <c r="H61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I61" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>209</v>
@@ -5146,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>95</v>
       </c>
@@ -5167,11 +5697,11 @@
       </c>
       <c r="H62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I62" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>209</v>
@@ -5189,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>95</v>
       </c>
@@ -5210,11 +5740,11 @@
       </c>
       <c r="H63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I63" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>209</v>
@@ -5232,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>95</v>
       </c>
@@ -5253,11 +5783,11 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I64" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>209</v>
@@ -5275,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>95</v>
       </c>
@@ -5296,7 +5826,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I65" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5318,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>95</v>
       </c>
@@ -5339,7 +5869,7 @@
       </c>
       <c r="H66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I66" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5361,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>95</v>
       </c>
@@ -5382,7 +5912,7 @@
       </c>
       <c r="H67" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I67" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5404,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>95</v>
       </c>
@@ -5425,7 +5955,7 @@
       </c>
       <c r="H68" s="3">
         <f t="shared" ref="H68:H131" ca="1" si="4">IF(F68="DONE",NOW()-E68, NOW()-E68)</f>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I68" s="35" t="str">
         <f t="shared" ref="I68:I131" ca="1" si="5">IF(F68="DONE", "", NOW()-G68)</f>
@@ -5447,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>95</v>
       </c>
@@ -5468,7 +5998,7 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I69" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5490,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>95</v>
       </c>
@@ -5511,7 +6041,7 @@
       </c>
       <c r="H70" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I70" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5533,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
@@ -5554,7 +6084,7 @@
       </c>
       <c r="H71" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I71" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5576,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>95</v>
       </c>
@@ -5597,7 +6127,7 @@
       </c>
       <c r="H72" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I72" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5619,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>95</v>
       </c>
@@ -5640,7 +6170,7 @@
       </c>
       <c r="H73" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>234.57035150462616</v>
+        <v>236.63821180555533</v>
       </c>
       <c r="I73" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5683,11 +6213,11 @@
       </c>
       <c r="H74" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I74" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>4.57035150462616</v>
+        <v>6.6382118055553292</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>200</v>
@@ -5705,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>95</v>
       </c>
@@ -5726,11 +6256,11 @@
       </c>
       <c r="H75" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I75" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>143.57035150462616</v>
+        <v>145.63821180555533</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>209</v>
@@ -5748,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>95</v>
       </c>
@@ -5769,7 +6299,7 @@
       </c>
       <c r="H76" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I76" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5791,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>95</v>
       </c>
@@ -5812,7 +6342,7 @@
       </c>
       <c r="H77" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I77" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5834,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>95</v>
       </c>
@@ -5855,7 +6385,7 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I78" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5877,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>92</v>
       </c>
@@ -5898,7 +6428,7 @@
       </c>
       <c r="H79" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I79" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5920,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>92</v>
       </c>
@@ -5941,7 +6471,7 @@
       </c>
       <c r="H80" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I80" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5963,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>92</v>
       </c>
@@ -5984,7 +6514,7 @@
       </c>
       <c r="H81" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I81" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6006,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>92</v>
       </c>
@@ -6027,7 +6557,7 @@
       </c>
       <c r="H82" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I82" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6049,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>92</v>
       </c>
@@ -6070,7 +6600,7 @@
       </c>
       <c r="H83" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I83" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6092,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>92</v>
       </c>
@@ -6113,7 +6643,7 @@
       </c>
       <c r="H84" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I84" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6135,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -6156,7 +6686,7 @@
       </c>
       <c r="H85" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I85" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6178,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>92</v>
       </c>
@@ -6199,7 +6729,7 @@
       </c>
       <c r="H86" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I86" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6221,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>92</v>
       </c>
@@ -6242,7 +6772,7 @@
       </c>
       <c r="H87" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I87" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6264,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>92</v>
       </c>
@@ -6285,7 +6815,7 @@
       </c>
       <c r="H88" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I88" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6307,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>92</v>
       </c>
@@ -6328,7 +6858,7 @@
       </c>
       <c r="H89" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I89" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6350,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>92</v>
       </c>
@@ -6371,7 +6901,7 @@
       </c>
       <c r="H90" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I90" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6393,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>92</v>
       </c>
@@ -6414,7 +6944,7 @@
       </c>
       <c r="H91" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I91" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6436,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>92</v>
       </c>
@@ -6457,7 +6987,7 @@
       </c>
       <c r="H92" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I92" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6479,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>92</v>
       </c>
@@ -6500,7 +7030,7 @@
       </c>
       <c r="H93" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I93" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6522,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
@@ -6543,7 +7073,7 @@
       </c>
       <c r="H94" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I94" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6565,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>92</v>
       </c>
@@ -6586,7 +7116,7 @@
       </c>
       <c r="H95" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I95" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6608,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>92</v>
       </c>
@@ -6629,7 +7159,7 @@
       </c>
       <c r="H96" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I96" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6651,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>92</v>
       </c>
@@ -6672,7 +7202,7 @@
       </c>
       <c r="H97" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I97" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6694,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>92</v>
       </c>
@@ -6715,7 +7245,7 @@
       </c>
       <c r="H98" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I98" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6737,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>92</v>
       </c>
@@ -6758,7 +7288,7 @@
       </c>
       <c r="H99" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I99" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6780,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>92</v>
       </c>
@@ -6801,7 +7331,7 @@
       </c>
       <c r="H100" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I100" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6823,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>92</v>
       </c>
@@ -6844,7 +7374,7 @@
       </c>
       <c r="H101" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I101" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6866,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>92</v>
       </c>
@@ -6887,7 +7417,7 @@
       </c>
       <c r="H102" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I102" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6909,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>92</v>
       </c>
@@ -6930,7 +7460,7 @@
       </c>
       <c r="H103" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I103" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6952,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>92</v>
       </c>
@@ -6973,7 +7503,7 @@
       </c>
       <c r="H104" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I104" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6995,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>92</v>
       </c>
@@ -7016,7 +7546,7 @@
       </c>
       <c r="H105" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I105" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7038,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>92</v>
       </c>
@@ -7059,7 +7589,7 @@
       </c>
       <c r="H106" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I106" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7081,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>92</v>
       </c>
@@ -7102,7 +7632,7 @@
       </c>
       <c r="H107" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I107" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7124,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>92</v>
       </c>
@@ -7145,7 +7675,7 @@
       </c>
       <c r="H108" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I108" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7167,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>92</v>
       </c>
@@ -7188,7 +7718,7 @@
       </c>
       <c r="H109" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I109" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7210,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>92</v>
       </c>
@@ -7231,7 +7761,7 @@
       </c>
       <c r="H110" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I110" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7253,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>92</v>
       </c>
@@ -7274,7 +7804,7 @@
       </c>
       <c r="H111" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I111" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7296,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>92</v>
       </c>
@@ -7317,7 +7847,7 @@
       </c>
       <c r="H112" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I112" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7339,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>92</v>
       </c>
@@ -7360,7 +7890,7 @@
       </c>
       <c r="H113" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I113" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7382,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>92</v>
       </c>
@@ -7403,7 +7933,7 @@
       </c>
       <c r="H114" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I114" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7425,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>92</v>
       </c>
@@ -7446,7 +7976,7 @@
       </c>
       <c r="H115" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I115" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7468,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>92</v>
       </c>
@@ -7489,7 +8019,7 @@
       </c>
       <c r="H116" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I116" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7511,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>92</v>
       </c>
@@ -7532,7 +8062,7 @@
       </c>
       <c r="H117" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I117" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7575,11 +8105,11 @@
       </c>
       <c r="H118" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I118" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>209</v>
@@ -7618,11 +8148,11 @@
       </c>
       <c r="H119" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I119" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J119" s="36" t="s">
         <v>209</v>
@@ -7661,11 +8191,11 @@
       </c>
       <c r="H120" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I120" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J120" s="36" t="s">
         <v>209</v>
@@ -7704,11 +8234,11 @@
       </c>
       <c r="H121" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I121" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J121" s="36" t="s">
         <v>209</v>
@@ -7747,11 +8277,11 @@
       </c>
       <c r="H122" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I122" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J122" s="36" t="s">
         <v>209</v>
@@ -7790,11 +8320,11 @@
       </c>
       <c r="H123" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I123" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J123" s="36" t="s">
         <v>209</v>
@@ -7833,11 +8363,11 @@
       </c>
       <c r="H124" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I124" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J124" s="36" t="s">
         <v>209</v>
@@ -7876,11 +8406,11 @@
       </c>
       <c r="H125" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I125" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>14.57035150462616</v>
+        <v>16.638211805555329</v>
       </c>
       <c r="J125" s="36" t="s">
         <v>209</v>
@@ -7898,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>92</v>
       </c>
@@ -7919,11 +8449,11 @@
       </c>
       <c r="H126" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I126" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>209</v>
@@ -7941,7 +8471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>92</v>
       </c>
@@ -7962,11 +8492,11 @@
       </c>
       <c r="H127" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I127" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>209</v>
@@ -7984,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>92</v>
       </c>
@@ -8005,11 +8535,11 @@
       </c>
       <c r="H128" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I128" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>209</v>
@@ -8027,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
         <v>92</v>
       </c>
@@ -8048,11 +8578,11 @@
       </c>
       <c r="H129" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I129" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>209</v>
@@ -8070,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
         <v>92</v>
       </c>
@@ -8091,11 +8621,11 @@
       </c>
       <c r="H130" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I130" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>209</v>
@@ -8113,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>92</v>
       </c>
@@ -8134,11 +8664,11 @@
       </c>
       <c r="H131" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I131" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>209</v>
@@ -8156,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>92</v>
       </c>
@@ -8177,11 +8707,11 @@
       </c>
       <c r="H132" s="3">
         <f t="shared" ref="H132:H213" ca="1" si="6">IF(F132="DONE",NOW()-E132, NOW()-E132)</f>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I132" s="35">
         <f t="shared" ref="I132:I202" ca="1" si="7">IF(F132="DONE", "", NOW()-G132)</f>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>209</v>
@@ -8199,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>92</v>
       </c>
@@ -8220,11 +8750,11 @@
       </c>
       <c r="H133" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I133" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J133" s="5" t="s">
         <v>209</v>
@@ -8242,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>92</v>
       </c>
@@ -8263,11 +8793,11 @@
       </c>
       <c r="H134" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I134" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J134" s="5" t="s">
         <v>209</v>
@@ -8285,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>92</v>
       </c>
@@ -8306,11 +8836,11 @@
       </c>
       <c r="H135" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I135" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>209</v>
@@ -8328,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>92</v>
       </c>
@@ -8349,11 +8879,11 @@
       </c>
       <c r="H136" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I136" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J136" s="5" t="s">
         <v>209</v>
@@ -8371,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
         <v>92</v>
       </c>
@@ -8392,11 +8922,11 @@
       </c>
       <c r="H137" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I137" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J137" s="5" t="s">
         <v>209</v>
@@ -8414,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
         <v>92</v>
       </c>
@@ -8435,11 +8965,11 @@
       </c>
       <c r="H138" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I138" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J138" s="5" t="s">
         <v>209</v>
@@ -8457,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>92</v>
       </c>
@@ -8478,11 +9008,11 @@
       </c>
       <c r="H139" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I139" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J139" s="5" t="s">
         <v>209</v>
@@ -8500,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
         <v>92</v>
       </c>
@@ -8521,11 +9051,11 @@
       </c>
       <c r="H140" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I140" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J140" s="5" t="s">
         <v>209</v>
@@ -8543,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>92</v>
       </c>
@@ -8564,11 +9094,11 @@
       </c>
       <c r="H141" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I141" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J141" s="5" t="s">
         <v>209</v>
@@ -8586,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
         <v>92</v>
       </c>
@@ -8607,11 +9137,11 @@
       </c>
       <c r="H142" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I142" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>24.57035150462616</v>
+        <v>26.638211805555329</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>209</v>
@@ -8650,11 +9180,11 @@
       </c>
       <c r="H143" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I143" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J143" s="36" t="s">
         <v>209</v>
@@ -8693,11 +9223,11 @@
       </c>
       <c r="H144" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I144" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J144" s="36" t="s">
         <v>209</v>
@@ -8736,11 +9266,11 @@
       </c>
       <c r="H145" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I145" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J145" s="36" t="s">
         <v>209</v>
@@ -8779,11 +9309,11 @@
       </c>
       <c r="H146" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I146" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J146" s="36" t="s">
         <v>209</v>
@@ -8822,11 +9352,11 @@
       </c>
       <c r="H147" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I147" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J147" s="36" t="s">
         <v>209</v>
@@ -8865,11 +9395,11 @@
       </c>
       <c r="H148" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I148" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J148" s="36" t="s">
         <v>209</v>
@@ -8908,11 +9438,11 @@
       </c>
       <c r="H149" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I149" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>209</v>
@@ -8951,11 +9481,11 @@
       </c>
       <c r="H150" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I150" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>209</v>
@@ -8994,11 +9524,11 @@
       </c>
       <c r="H151" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I151" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J151" s="36" t="s">
         <v>209</v>
@@ -9016,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>94</v>
       </c>
@@ -9037,7 +9567,7 @@
       </c>
       <c r="H152" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I152" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9059,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="16" t="s">
         <v>94</v>
       </c>
@@ -9080,7 +9610,7 @@
       </c>
       <c r="H153" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I153" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9102,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="16" t="s">
         <v>94</v>
       </c>
@@ -9123,7 +9653,7 @@
       </c>
       <c r="H154" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I154" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9145,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
         <v>94</v>
       </c>
@@ -9166,7 +9696,7 @@
       </c>
       <c r="H155" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I155" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9188,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
         <v>99</v>
       </c>
@@ -9209,7 +9739,7 @@
       </c>
       <c r="H156" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I156" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9231,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="20" t="s">
         <v>99</v>
       </c>
@@ -9252,7 +9782,7 @@
       </c>
       <c r="H157" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I157" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9274,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
         <v>99</v>
       </c>
@@ -9295,7 +9825,7 @@
       </c>
       <c r="H158" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I158" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9317,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="20" t="s">
         <v>99</v>
       </c>
@@ -9338,7 +9868,7 @@
       </c>
       <c r="H159" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I159" s="35" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9381,17 +9911,17 @@
       </c>
       <c r="H160" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="I160" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>4.57035150462616</v>
+        <v>6.6382118055553292</v>
       </c>
       <c r="J160" s="36" t="s">
         <v>209</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L160" s="20" t="s">
         <v>230</v>
@@ -9427,11 +9957,11 @@
       </c>
       <c r="H161" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I161" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>4.57035150462616</v>
+        <v>6.6382118055553292</v>
       </c>
       <c r="J161" s="36" t="s">
         <v>209</v>
@@ -9470,17 +10000,17 @@
       </c>
       <c r="H162" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I162" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="J162" s="24" t="s">
         <v>209</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L162" s="24" t="s">
         <v>230</v>
@@ -9516,17 +10046,17 @@
       </c>
       <c r="H163" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I163" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="J163" s="24" t="s">
         <v>209</v>
       </c>
       <c r="K163" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L163" s="24" t="s">
         <v>230</v>
@@ -9562,17 +10092,17 @@
       </c>
       <c r="H164" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I164" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="J164" s="24" t="s">
         <v>209</v>
       </c>
       <c r="K164" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L164" s="24" t="s">
         <v>230</v>
@@ -9608,17 +10138,17 @@
       </c>
       <c r="H165" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I165" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="J165" s="24" t="s">
         <v>209</v>
       </c>
       <c r="K165" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L165" s="24" t="s">
         <v>230</v>
@@ -9654,17 +10184,17 @@
       </c>
       <c r="H166" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I166" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="J166" s="24" t="s">
         <v>209</v>
       </c>
       <c r="K166" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L166" s="24" t="s">
         <v>230</v>
@@ -9700,17 +10230,17 @@
       </c>
       <c r="H167" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I167" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>113.57035150462616</v>
+        <v>115.63821180555533</v>
       </c>
       <c r="J167" s="24" t="s">
         <v>209</v>
       </c>
       <c r="K167" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L167" s="24" t="s">
         <v>230</v>
@@ -9747,11 +10277,11 @@
       </c>
       <c r="H168" s="35">
         <f t="shared" ref="H168:H173" ca="1" si="8">IF(F168="DONE",NOW()-E168, NOW()-E168)</f>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I168" s="35">
         <f t="shared" ref="I168:I173" ca="1" si="9">IF(F168="DONE", "", NOW()-G168)</f>
-        <v>13.57035150462616</v>
+        <v>15.638211805555329</v>
       </c>
       <c r="J168" s="36" t="s">
         <v>198</v>
@@ -9776,7 +10306,7 @@
         <v>108</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D169" s="37" t="s">
         <v>228</v>
@@ -9792,11 +10322,11 @@
       </c>
       <c r="H169" s="35">
         <f t="shared" ref="H169:H171" ca="1" si="10">IF(F169="DONE",NOW()-E169, NOW()-E169)</f>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I169" s="35">
         <f t="shared" ref="I169:I171" ca="1" si="11">IF(F169="DONE", "", NOW()-G169)</f>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J169" s="36" t="s">
         <v>198</v>
@@ -9821,7 +10351,7 @@
         <v>108</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D170" s="37" t="s">
         <v>228</v>
@@ -9837,11 +10367,11 @@
       </c>
       <c r="H170" s="35">
         <f t="shared" ca="1" si="10"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I170" s="35">
         <f t="shared" ca="1" si="11"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J170" s="36" t="s">
         <v>198</v>
@@ -9866,7 +10396,7 @@
         <v>108</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D171" s="37" t="s">
         <v>228</v>
@@ -9882,11 +10412,11 @@
       </c>
       <c r="H171" s="35">
         <f t="shared" ca="1" si="10"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I171" s="35">
         <f t="shared" ca="1" si="11"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J171" s="36" t="s">
         <v>198</v>
@@ -9911,7 +10441,7 @@
         <v>108</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D172" s="37" t="s">
         <v>228</v>
@@ -9927,11 +10457,11 @@
       </c>
       <c r="H172" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I172" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J172" s="36" t="s">
         <v>198</v>
@@ -9956,7 +10486,7 @@
         <v>108</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D173" s="37" t="s">
         <v>228</v>
@@ -9972,11 +10502,11 @@
       </c>
       <c r="H173" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I173" s="35">
         <f t="shared" ca="1" si="9"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J173" s="36" t="s">
         <v>198</v>
@@ -10000,7 +10530,7 @@
         <v>108</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D174" s="25" t="s">
         <v>228</v>
@@ -10016,11 +10546,11 @@
       </c>
       <c r="H174" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I174" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J174" s="36" t="s">
         <v>198</v>
@@ -10044,7 +10574,7 @@
         <v>108</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D175" s="37" t="s">
         <v>228</v>
@@ -10060,11 +10590,11 @@
       </c>
       <c r="H175" s="35">
         <f t="shared" ref="H175" ca="1" si="12">IF(F175="DONE",NOW()-E175, NOW()-E175)</f>
-        <v>82.57035150462616</v>
+        <v>84.638211805555329</v>
       </c>
       <c r="I175" s="35">
         <f t="shared" ref="I175" ca="1" si="13">IF(F175="DONE", "", NOW()-G175)</f>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J175" s="36" t="s">
         <v>198</v>
@@ -10083,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
         <v>817330413</v>
       </c>
@@ -10107,17 +10637,17 @@
       </c>
       <c r="H176" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I176" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J176" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K176" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L176" s="36" t="s">
         <v>230</v>
@@ -10132,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
         <v>180350376</v>
       </c>
@@ -10156,17 +10686,17 @@
       </c>
       <c r="H177" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I177" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J177" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K177" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L177" s="36" t="s">
         <v>230</v>
@@ -10181,7 +10711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
         <v>180350029</v>
       </c>
@@ -10205,17 +10735,17 @@
       </c>
       <c r="H178" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I178" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J178" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K178" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L178" s="36" t="s">
         <v>230</v>
@@ -10230,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>817330413</v>
       </c>
@@ -10254,17 +10784,17 @@
       </c>
       <c r="H179" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I179" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J179" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K179" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L179" s="36" t="s">
         <v>230</v>
@@ -10279,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
         <v>180350376</v>
       </c>
@@ -10303,17 +10833,17 @@
       </c>
       <c r="H180" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I180" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J180" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K180" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L180" s="36" t="s">
         <v>230</v>
@@ -10328,7 +10858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
         <v>180350029</v>
       </c>
@@ -10352,17 +10882,17 @@
       </c>
       <c r="H181" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I181" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J181" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K181" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L181" s="36" t="s">
         <v>230</v>
@@ -10377,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>816310629</v>
       </c>
@@ -10401,17 +10931,17 @@
       </c>
       <c r="H182" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I182" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J182" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K182" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L182" s="36" t="s">
         <v>230</v>
@@ -10426,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
         <v>180350364</v>
       </c>
@@ -10450,17 +10980,17 @@
       </c>
       <c r="H183" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I183" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J183" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K183" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L183" s="36" t="s">
         <v>230</v>
@@ -10475,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
         <v>180350022</v>
       </c>
@@ -10499,17 +11029,17 @@
       </c>
       <c r="H184" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I184" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J184" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K184" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L184" s="36" t="s">
         <v>230</v>
@@ -10524,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
         <v>816330271</v>
       </c>
@@ -10548,17 +11078,17 @@
       </c>
       <c r="H185" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I185" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J185" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K185" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L185" s="36" t="s">
         <v>230</v>
@@ -10573,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
         <v>1803500377</v>
       </c>
@@ -10597,17 +11127,17 @@
       </c>
       <c r="H186" s="35">
         <f t="shared" ca="1" si="6"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="I186" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J186" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K186" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L186" s="36" t="s">
         <v>230</v>
@@ -10622,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="40" t="s">
         <v>93</v>
       </c>
@@ -10643,11 +11173,11 @@
       </c>
       <c r="H187" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I187" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J187" s="28" t="s">
         <v>209</v>
@@ -10665,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="40" t="s">
         <v>93</v>
       </c>
@@ -10686,11 +11216,11 @@
       </c>
       <c r="H188" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I188" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J188" s="28" t="s">
         <v>209</v>
@@ -10708,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="40" t="s">
         <v>93</v>
       </c>
@@ -10729,11 +11259,11 @@
       </c>
       <c r="H189" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I189" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J189" s="28" t="s">
         <v>209</v>
@@ -10772,17 +11302,17 @@
       </c>
       <c r="H190" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I190" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J190" s="5" t="s">
         <v>322</v>
       </c>
       <c r="K190" s="14" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L190" s="28" t="s">
         <v>230</v>
@@ -10797,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="40" t="s">
         <v>93</v>
       </c>
@@ -10818,11 +11348,11 @@
       </c>
       <c r="H191" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I191" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J191" s="28" t="s">
         <v>209</v>
@@ -10840,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="40" t="s">
         <v>93</v>
       </c>
@@ -10861,11 +11391,11 @@
       </c>
       <c r="H192" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I192" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J192" s="28" t="s">
         <v>209</v>
@@ -10883,7 +11413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="40" t="s">
         <v>93</v>
       </c>
@@ -10904,11 +11434,11 @@
       </c>
       <c r="H193" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I193" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J193" s="28" t="s">
         <v>209</v>
@@ -10926,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="40" t="s">
         <v>93</v>
       </c>
@@ -10947,11 +11477,11 @@
       </c>
       <c r="H194" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I194" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J194" s="28" t="s">
         <v>209</v>
@@ -10969,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="40" t="s">
         <v>93</v>
       </c>
@@ -10990,11 +11520,11 @@
       </c>
       <c r="H195" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I195" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J195" s="28" t="s">
         <v>209</v>
@@ -11012,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="40" t="s">
         <v>93</v>
       </c>
@@ -11033,11 +11563,11 @@
       </c>
       <c r="H196" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I196" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J196" s="28" t="s">
         <v>209</v>
@@ -11055,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="40" t="s">
         <v>93</v>
       </c>
@@ -11076,11 +11606,11 @@
       </c>
       <c r="H197" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I197" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>209</v>
@@ -11098,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="40" t="s">
         <v>93</v>
       </c>
@@ -11119,11 +11649,11 @@
       </c>
       <c r="H198" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I198" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>209</v>
@@ -11141,7 +11671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="40" t="s">
         <v>93</v>
       </c>
@@ -11162,11 +11692,11 @@
       </c>
       <c r="H199" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I199" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J199" s="28" t="s">
         <v>209</v>
@@ -11184,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="40" t="s">
         <v>93</v>
       </c>
@@ -11205,11 +11735,11 @@
       </c>
       <c r="H200" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I200" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J200" s="28" t="s">
         <v>209</v>
@@ -11227,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="40" t="s">
         <v>93</v>
       </c>
@@ -11248,11 +11778,11 @@
       </c>
       <c r="H201" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I201" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J201" s="28" t="s">
         <v>209</v>
@@ -11270,7 +11800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="40" t="s">
         <v>93</v>
       </c>
@@ -11291,11 +11821,11 @@
       </c>
       <c r="H202" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I202" s="35">
         <f t="shared" ca="1" si="7"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J202" s="28" t="s">
         <v>209</v>
@@ -11313,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="40" t="s">
         <v>93</v>
       </c>
@@ -11334,11 +11864,11 @@
       </c>
       <c r="H203" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I203" s="35">
-        <f t="shared" ref="I203:I261" ca="1" si="14">IF(F203="DONE", "", NOW()-G203)</f>
-        <v>52.57035150462616</v>
+        <f t="shared" ref="I203:I269" ca="1" si="14">IF(F203="DONE", "", NOW()-G203)</f>
+        <v>54.638211805555329</v>
       </c>
       <c r="J203" s="28" t="s">
         <v>209</v>
@@ -11356,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="40" t="s">
         <v>93</v>
       </c>
@@ -11377,11 +11907,11 @@
       </c>
       <c r="H204" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I204" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J204" s="28" t="s">
         <v>209</v>
@@ -11399,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="40" t="s">
         <v>93</v>
       </c>
@@ -11420,11 +11950,11 @@
       </c>
       <c r="H205" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I205" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J205" s="28" t="s">
         <v>209</v>
@@ -11442,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="40" t="s">
         <v>93</v>
       </c>
@@ -11463,11 +11993,11 @@
       </c>
       <c r="H206" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I206" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J206" s="28" t="s">
         <v>209</v>
@@ -11485,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="40" t="s">
         <v>93</v>
       </c>
@@ -11506,11 +12036,11 @@
       </c>
       <c r="H207" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I207" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J207" s="28" t="s">
         <v>209</v>
@@ -11528,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="40" t="s">
         <v>93</v>
       </c>
@@ -11549,11 +12079,11 @@
       </c>
       <c r="H208" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I208" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J208" s="28" t="s">
         <v>209</v>
@@ -11571,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="40" t="s">
         <v>93</v>
       </c>
@@ -11592,11 +12122,11 @@
       </c>
       <c r="H209" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I209" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="J209" s="28" t="s">
         <v>209</v>
@@ -11614,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="5" t="s">
         <v>168</v>
       </c>
@@ -11635,11 +12165,11 @@
       </c>
       <c r="H210" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I210" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J210" s="32" t="s">
         <v>209</v>
@@ -11657,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="32" t="s">
         <v>168</v>
       </c>
@@ -11678,11 +12208,11 @@
       </c>
       <c r="H211" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I211" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J211" s="32" t="s">
         <v>209</v>
@@ -11700,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="32" t="s">
         <v>168</v>
       </c>
@@ -11721,11 +12251,11 @@
       </c>
       <c r="H212" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I212" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J212" s="32" t="s">
         <v>209</v>
@@ -11743,7 +12273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="32" t="s">
         <v>168</v>
       </c>
@@ -11764,11 +12294,11 @@
       </c>
       <c r="H213" s="31">
         <f t="shared" ca="1" si="6"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I213" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J213" s="32" t="s">
         <v>209</v>
@@ -11786,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="32" t="s">
         <v>168</v>
       </c>
@@ -11806,12 +12336,12 @@
         <v>45488</v>
       </c>
       <c r="H214" s="31">
-        <f t="shared" ref="H214:H260" ca="1" si="15">IF(F214="DONE",NOW()-E214, NOW()-E214)</f>
-        <v>52.57035150462616</v>
+        <f t="shared" ref="H214:H262" ca="1" si="15">IF(F214="DONE",NOW()-E214, NOW()-E214)</f>
+        <v>54.638211805555329</v>
       </c>
       <c r="I214" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J214" s="32" t="s">
         <v>209</v>
@@ -11829,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="32" t="s">
         <v>168</v>
       </c>
@@ -11850,11 +12380,11 @@
       </c>
       <c r="H215" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I215" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J215" s="32" t="s">
         <v>209</v>
@@ -11872,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="32" t="s">
         <v>168</v>
       </c>
@@ -11893,11 +12423,11 @@
       </c>
       <c r="H216" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I216" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J216" s="32" t="s">
         <v>209</v>
@@ -11915,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="32" t="s">
         <v>168</v>
       </c>
@@ -11936,11 +12466,11 @@
       </c>
       <c r="H217" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I217" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J217" s="32" t="s">
         <v>209</v>
@@ -11958,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="32" t="s">
         <v>168</v>
       </c>
@@ -11979,11 +12509,11 @@
       </c>
       <c r="H218" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I218" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J218" s="32" t="s">
         <v>209</v>
@@ -12001,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="32" t="s">
         <v>168</v>
       </c>
@@ -12022,11 +12552,11 @@
       </c>
       <c r="H219" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I219" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J219" s="32" t="s">
         <v>209</v>
@@ -12044,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="32" t="s">
         <v>168</v>
       </c>
@@ -12065,11 +12595,11 @@
       </c>
       <c r="H220" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I220" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J220" s="32" t="s">
         <v>209</v>
@@ -12087,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="32" t="s">
         <v>168</v>
       </c>
@@ -12108,11 +12638,11 @@
       </c>
       <c r="H221" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I221" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J221" s="32" t="s">
         <v>209</v>
@@ -12130,7 +12660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="32" t="s">
         <v>168</v>
       </c>
@@ -12151,11 +12681,11 @@
       </c>
       <c r="H222" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I222" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J222" s="32" t="s">
         <v>209</v>
@@ -12173,7 +12703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32" t="s">
         <v>168</v>
       </c>
@@ -12194,11 +12724,11 @@
       </c>
       <c r="H223" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I223" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J223" s="32" t="s">
         <v>209</v>
@@ -12216,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32" t="s">
         <v>168</v>
       </c>
@@ -12237,11 +12767,11 @@
       </c>
       <c r="H224" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I224" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J224" s="32" t="s">
         <v>209</v>
@@ -12259,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="32" t="s">
         <v>168</v>
       </c>
@@ -12280,11 +12810,11 @@
       </c>
       <c r="H225" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I225" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J225" s="32" t="s">
         <v>209</v>
@@ -12302,7 +12832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32" t="s">
         <v>168</v>
       </c>
@@ -12323,11 +12853,11 @@
       </c>
       <c r="H226" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I226" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J226" s="32" t="s">
         <v>209</v>
@@ -12345,7 +12875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="32" t="s">
         <v>168</v>
       </c>
@@ -12366,11 +12896,11 @@
       </c>
       <c r="H227" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I227" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J227" s="32" t="s">
         <v>209</v>
@@ -12388,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="32" t="s">
         <v>168</v>
       </c>
@@ -12409,11 +12939,11 @@
       </c>
       <c r="H228" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I228" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J228" s="32" t="s">
         <v>209</v>
@@ -12431,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="32" t="s">
         <v>168</v>
       </c>
@@ -12452,11 +12982,11 @@
       </c>
       <c r="H229" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I229" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J229" s="32" t="s">
         <v>209</v>
@@ -12474,7 +13004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="32" t="s">
         <v>168</v>
       </c>
@@ -12495,11 +13025,11 @@
       </c>
       <c r="H230" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I230" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J230" s="32" t="s">
         <v>209</v>
@@ -12517,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="32" t="s">
         <v>168</v>
       </c>
@@ -12538,11 +13068,11 @@
       </c>
       <c r="H231" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I231" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J231" s="32" t="s">
         <v>209</v>
@@ -12560,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="32" t="s">
         <v>168</v>
       </c>
@@ -12581,11 +13111,11 @@
       </c>
       <c r="H232" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I232" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J232" s="32" t="s">
         <v>209</v>
@@ -12603,7 +13133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="32" t="s">
         <v>168</v>
       </c>
@@ -12624,11 +13154,11 @@
       </c>
       <c r="H233" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I233" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J233" s="32" t="s">
         <v>209</v>
@@ -12646,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="32" t="s">
         <v>168</v>
       </c>
@@ -12667,11 +13197,11 @@
       </c>
       <c r="H234" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I234" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J234" s="32" t="s">
         <v>209</v>
@@ -12689,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="32" t="s">
         <v>168</v>
       </c>
@@ -12710,11 +13240,11 @@
       </c>
       <c r="H235" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I235" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J235" s="32" t="s">
         <v>209</v>
@@ -12732,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="32" t="s">
         <v>168</v>
       </c>
@@ -12753,11 +13283,11 @@
       </c>
       <c r="H236" s="31">
         <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <v>54.638211805555329</v>
       </c>
       <c r="I236" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>38.57035150462616</v>
+        <v>40.638211805555329</v>
       </c>
       <c r="J236" s="32" t="s">
         <v>209</v>
@@ -12775,12 +13305,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C237" s="42" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D237" s="33" t="s">
         <v>228</v>
@@ -12796,17 +13326,17 @@
       </c>
       <c r="H237" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I237" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J237" s="36" t="s">
         <v>220</v>
       </c>
       <c r="K237" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L237" s="32" t="s">
         <v>230</v>
@@ -12826,7 +13356,7 @@
         <v>184</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D238" s="37" t="s">
         <v>228</v>
@@ -12842,17 +13372,17 @@
       </c>
       <c r="H238" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I238" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J238" s="5" t="s">
         <v>198</v>
       </c>
       <c r="K238" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L238" s="36" t="s">
         <v>230</v>
@@ -12872,7 +13402,7 @@
         <v>184</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D239" s="37" t="s">
         <v>228</v>
@@ -12888,17 +13418,17 @@
       </c>
       <c r="H239" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I239" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J239" s="36" t="s">
         <v>198</v>
       </c>
       <c r="K239" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L239" s="36" t="s">
         <v>230</v>
@@ -12913,12 +13443,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D240" s="37" t="s">
         <v>228</v>
@@ -12934,11 +13464,11 @@
       </c>
       <c r="H240" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I240" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>20.57035150462616</v>
+        <v>22.638211805555329</v>
       </c>
       <c r="J240" s="36" t="s">
         <v>220</v>
@@ -12959,12 +13489,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D241" s="37" t="s">
         <v>228</v>
@@ -12980,17 +13510,17 @@
       </c>
       <c r="H241" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I241" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J241" s="36" t="s">
         <v>220</v>
       </c>
       <c r="K241" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L241" s="36" t="s">
         <v>230</v>
@@ -13005,12 +13535,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C242" s="42" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D242" s="37" t="s">
         <v>228</v>
@@ -13026,17 +13556,17 @@
       </c>
       <c r="H242" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I242" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J242" s="36" t="s">
         <v>220</v>
       </c>
       <c r="K242" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L242" s="36" t="s">
         <v>230</v>
@@ -13056,7 +13586,7 @@
         <v>184</v>
       </c>
       <c r="C243" s="42" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D243" s="37" t="s">
         <v>228</v>
@@ -13072,17 +13602,17 @@
       </c>
       <c r="H243" s="35">
         <f t="shared" ca="1" si="15"/>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I243" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J243" s="36" t="s">
         <v>198</v>
       </c>
       <c r="K243" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L243" s="36" t="s">
         <v>230</v>
@@ -13097,13 +13627,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D244" s="37" t="s">
         <v>228</v>
@@ -13119,17 +13649,17 @@
       </c>
       <c r="H244" s="35">
         <f t="shared" ref="H244:H246" ca="1" si="16">IF(F244="DONE",NOW()-E244, NOW()-E244)</f>
-        <v>28.57035150462616</v>
+        <v>30.638211805555329</v>
       </c>
       <c r="I244" s="35">
         <f t="shared" ref="I244:I246" ca="1" si="17">IF(F244="DONE", "", NOW()-G244)</f>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J244" s="36" t="s">
         <v>220</v>
       </c>
       <c r="K244" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L244" s="36" t="s">
         <v>230</v>
@@ -13144,13 +13674,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D245" s="37" t="s">
         <v>228</v>
@@ -13166,11 +13696,11 @@
       </c>
       <c r="H245" s="35">
         <f t="shared" ca="1" si="16"/>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="I245" s="35">
         <f t="shared" ca="1" si="17"/>
-        <v>12.57035150462616</v>
+        <v>14.638211805555329</v>
       </c>
       <c r="J245" s="36" t="s">
         <v>220</v>
@@ -13189,13 +13719,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D246" s="37" t="s">
         <v>228</v>
@@ -13211,17 +13741,17 @@
       </c>
       <c r="H246" s="35">
         <f t="shared" ca="1" si="16"/>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="I246" s="35">
         <f t="shared" ca="1" si="17"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J246" s="36" t="s">
         <v>220</v>
       </c>
       <c r="K246" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L246" s="36" t="s">
         <v>230</v>
@@ -13236,13 +13766,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D247" s="37" t="s">
         <v>96</v>
@@ -13258,11 +13788,11 @@
       </c>
       <c r="H247" s="35">
         <f t="shared" ref="H247:H254" ca="1" si="18">IF(F247="DONE",NOW()-E247, NOW()-E247)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="I247" s="35">
         <f t="shared" ref="I247:I254" ca="1" si="19">IF(F247="DONE", "", NOW()-G247)</f>
-        <v>1.57035150462616</v>
+        <v>3.6382118055553292</v>
       </c>
       <c r="J247" s="36" t="s">
         <v>201</v>
@@ -13281,13 +13811,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="40" t="s">
         <v>176</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D248" s="37" t="s">
         <v>96</v>
@@ -13303,11 +13833,11 @@
       </c>
       <c r="H248" s="35">
         <f t="shared" ref="H248:H250" ca="1" si="20">IF(F248="DONE",NOW()-E248, NOW()-E248)</f>
-        <v>31.57035150462616</v>
+        <v>33.638211805555329</v>
       </c>
       <c r="I248" s="35">
         <f ca="1">IF(F248="DONE", "", NOW()-G248)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J248" s="36" t="s">
         <v>209</v>
@@ -13326,13 +13856,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="40" t="s">
         <v>176</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D249" s="37" t="s">
         <v>96</v>
@@ -13348,11 +13878,11 @@
       </c>
       <c r="H249" s="35">
         <f t="shared" ref="H249" ca="1" si="21">IF(F249="DONE",NOW()-E249, NOW()-E249)</f>
-        <v>31.57035150462616</v>
+        <v>33.638211805555329</v>
       </c>
       <c r="I249" s="35">
         <f ca="1">IF(F249="DONE", "", NOW()-G249)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J249" s="36" t="s">
         <v>209</v>
@@ -13371,13 +13901,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="40" t="s">
         <v>176</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D250" s="37" t="s">
         <v>96</v>
@@ -13393,11 +13923,11 @@
       </c>
       <c r="H250" s="35">
         <f t="shared" ca="1" si="20"/>
-        <v>31.57035150462616</v>
+        <v>33.638211805555329</v>
       </c>
       <c r="I250" s="35">
         <f ca="1">IF(F250="DONE", "", NOW()-G250)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J250" s="36" t="s">
         <v>209</v>
@@ -13416,13 +13946,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="40" t="s">
         <v>176</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D251" s="37" t="s">
         <v>96</v>
@@ -13438,11 +13968,11 @@
       </c>
       <c r="H251" s="35">
         <f t="shared" ref="H251" ca="1" si="22">IF(F251="DONE",NOW()-E251, NOW()-E251)</f>
-        <v>31.57035150462616</v>
+        <v>33.638211805555329</v>
       </c>
       <c r="I251" s="35">
         <f ca="1">IF(F251="DONE", "", NOW()-G251)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J251" s="36" t="s">
         <v>209</v>
@@ -13461,12 +13991,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D252" s="37" t="s">
         <v>228</v>
@@ -13482,11 +14012,11 @@
       </c>
       <c r="H252" s="35">
         <f t="shared" ref="H252" ca="1" si="23">IF(F252="DONE",NOW()-E252, NOW()-E252)</f>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="I252" s="35">
         <f t="shared" ref="I252" ca="1" si="24">IF(F252="DONE", "", NOW()-G252)</f>
-        <v>6.57035150462616</v>
+        <v>8.6382118055553292</v>
       </c>
       <c r="J252" s="36" t="s">
         <v>220</v>
@@ -13504,12 +14034,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D253" s="37" t="s">
         <v>228</v>
@@ -13525,11 +14055,11 @@
       </c>
       <c r="H253" s="35">
         <f ca="1">IF(F253="DONE",NOW()-E253, NOW()-E253)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="I253" s="35">
         <f ca="1">IF(F253="DONE", "", NOW()-G253)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="J253" s="36" t="s">
         <v>220</v>
@@ -13547,13 +14077,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D254" s="37" t="s">
         <v>228</v>
@@ -13569,17 +14099,17 @@
       </c>
       <c r="H254" s="35">
         <f t="shared" ca="1" si="18"/>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="I254" s="35">
         <f t="shared" ca="1" si="19"/>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J254" s="36" t="s">
         <v>220</v>
       </c>
       <c r="K254" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L254" s="36" t="s">
         <v>230</v>
@@ -13594,13 +14124,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D255" s="37" t="s">
         <v>96</v>
@@ -13616,17 +14146,17 @@
       </c>
       <c r="H255" s="35">
         <f t="shared" ref="H255" ca="1" si="25">IF(F255="DONE",NOW()-E255, NOW()-E255)</f>
-        <v>17.57035150462616</v>
+        <v>19.638211805555329</v>
       </c>
       <c r="I255" s="35">
         <f t="shared" ref="I255" ca="1" si="26">IF(F255="DONE", "", NOW()-G255)</f>
-        <v>8.57035150462616</v>
+        <v>10.638211805555329</v>
       </c>
       <c r="J255" s="36" t="s">
         <v>220</v>
       </c>
       <c r="K255" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L255" s="36" t="s">
         <v>230</v>
@@ -13641,13 +14171,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="D256" s="37" t="s">
         <v>96</v>
@@ -13662,18 +14192,18 @@
         <v>45495</v>
       </c>
       <c r="H256" s="35">
-        <f t="shared" ref="H256:H258" ca="1" si="27">IF(F256="DONE",NOW()-E256, NOW()-E256)</f>
-        <v>52.57035150462616</v>
+        <f t="shared" ref="H256:H260" ca="1" si="27">IF(F256="DONE",NOW()-E256, NOW()-E256)</f>
+        <v>54.638211805555329</v>
       </c>
       <c r="I256" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>31.57035150462616</v>
+        <v>33.638211805555329</v>
       </c>
       <c r="J256" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K256" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L256" s="36" t="s">
         <v>231</v>
@@ -13688,13 +14218,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="D257" s="37" t="s">
         <v>228</v>
@@ -13709,18 +14239,18 @@
         <v>45495</v>
       </c>
       <c r="H257" s="35">
-        <f t="shared" ref="H257" ca="1" si="28">IF(F257="DONE",NOW()-E257, NOW()-E257)</f>
-        <v>52.57035150462616</v>
+        <f t="shared" ref="H257:H258" ca="1" si="28">IF(F257="DONE",NOW()-E257, NOW()-E257)</f>
+        <v>54.638211805555329</v>
       </c>
       <c r="I257" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>31.57035150462616</v>
+        <v>33.638211805555329</v>
       </c>
       <c r="J257" s="36" t="s">
         <v>212</v>
       </c>
       <c r="K257" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L257" s="36" t="s">
         <v>231</v>
@@ -13735,15 +14265,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D258" s="37"/>
+        <v>396</v>
+      </c>
+      <c r="D258" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="E258" s="38">
         <v>45474</v>
       </c>
@@ -13754,12 +14286,12 @@
         <v>45507</v>
       </c>
       <c r="H258" s="35">
-        <f t="shared" ca="1" si="27"/>
-        <v>52.57035150462616</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>54.638211805555329</v>
       </c>
       <c r="I258" s="35">
-        <f t="shared" ca="1" si="14"/>
-        <v>19.57035150462616</v>
+        <f t="shared" ref="I258" ca="1" si="29">IF(F258="DONE", "", NOW()-G258)</f>
+        <v>21.638211805555329</v>
       </c>
       <c r="J258" s="36" t="s">
         <v>220</v>
@@ -13778,15 +14310,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
       <c r="B259" s="36" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D259" s="37"/>
+        <v>396</v>
+      </c>
+      <c r="D259" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="E259" s="38">
         <v>45474</v>
       </c>
@@ -13797,12 +14331,12 @@
         <v>45507</v>
       </c>
       <c r="H259" s="35">
-        <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>54.638211805555329</v>
       </c>
       <c r="I259" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>19.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J259" s="36" t="s">
         <v>220</v>
@@ -13821,39 +14355,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="5" t="s">
-        <v>105</v>
+    <row r="260" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="13"/>
+      <c r="B260" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>96</v>
+        <v>397</v>
+      </c>
+      <c r="D260" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="E260" s="38">
         <v>45474</v>
       </c>
-      <c r="F260" s="5" t="s">
-        <v>235</v>
+      <c r="F260" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="G260" s="38">
-        <v>45514</v>
+        <v>45507</v>
       </c>
       <c r="H260" s="35">
-        <f t="shared" ca="1" si="15"/>
-        <v>52.57035150462616</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>54.638211805555329</v>
       </c>
       <c r="I260" s="35">
-        <f t="shared" ca="1" si="14"/>
-        <v>12.57035150462616</v>
+        <f t="shared" ref="I260" ca="1" si="30">IF(F260="DONE", "", NOW()-G260)</f>
+        <v>21.638211805555329</v>
       </c>
       <c r="J260" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="K260" s="14" t="s">
-        <v>326</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K260" s="14"/>
       <c r="L260" s="36" t="s">
         <v>231</v>
       </c>
@@ -13864,42 +14397,41 @@
         <v>98</v>
       </c>
       <c r="O260" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="13"/>
       <c r="B261" s="36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>228</v>
+        <v>397</v>
+      </c>
+      <c r="D261" s="37" t="s">
+        <v>96</v>
       </c>
       <c r="E261" s="38">
         <v>45474</v>
       </c>
       <c r="F261" s="36" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="G261" s="38">
-        <v>45514</v>
+        <v>45507</v>
       </c>
       <c r="H261" s="35">
-        <f t="shared" ref="H261" ca="1" si="29">IF(F261="DONE",NOW()-E261, NOW()-E261)</f>
-        <v>52.57035150462616</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>54.638211805555329</v>
       </c>
       <c r="I261" s="35">
         <f t="shared" ca="1" si="14"/>
-        <v>12.57035150462616</v>
+        <v>21.638211805555329</v>
       </c>
       <c r="J261" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="K261" s="14" t="s">
-        <v>326</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K261" s="14"/>
       <c r="L261" s="36" t="s">
         <v>231</v>
       </c>
@@ -13910,69 +14442,176 @@
         <v>98</v>
       </c>
       <c r="O261" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C262" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E262" s="38">
+        <v>45474</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G262" s="38">
+        <v>45514</v>
+      </c>
+      <c r="H262" s="35">
+        <f t="shared" ca="1" si="15"/>
+        <v>54.638211805555329</v>
+      </c>
+      <c r="I262" s="35">
+        <f t="shared" ca="1" si="14"/>
+        <v>14.638211805555329</v>
+      </c>
+      <c r="J262" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="K262" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L262" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M262" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="N262" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O262" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E263" s="38">
+        <v>45474</v>
+      </c>
+      <c r="F263" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G263" s="38">
+        <v>45514</v>
+      </c>
+      <c r="H263" s="35">
+        <f t="shared" ref="H263:H269" ca="1" si="31">IF(F263="DONE",NOW()-E263, NOW()-E263)</f>
+        <v>54.638211805555329</v>
+      </c>
+      <c r="I263" s="35">
+        <f t="shared" ca="1" si="14"/>
+        <v>14.638211805555329</v>
+      </c>
+      <c r="J263" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="K263" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L263" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M263" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="N263" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O263" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B264" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C264" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="F262" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J262" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="M262" s="5" t="s">
+      <c r="D264" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E264" s="10">
+        <v>45524</v>
+      </c>
+      <c r="F264" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G264" s="10">
+        <v>45528</v>
+      </c>
+      <c r="H264" s="3">
+        <f t="shared" ca="1" si="31"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I264" s="3">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J264" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M264" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="N262" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C263" s="12" t="s">
+      <c r="N264" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O264" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B265" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C265" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="F263" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="J263" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="M263" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="N263" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C264" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="F264" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="J264" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="M264" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="N264" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C265" s="12" t="s">
-        <v>368</v>
+      <c r="D265" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E265" s="38">
+        <v>45524</v>
       </c>
       <c r="F265" s="36" t="s">
-        <v>188</v>
+        <v>235</v>
+      </c>
+      <c r="G265" s="10">
+        <v>45528</v>
+      </c>
+      <c r="H265" s="35">
+        <f t="shared" ca="1" si="31"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I265" s="3">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.63821180555532919</v>
       </c>
       <c r="J265" s="36" t="s">
-        <v>220</v>
+        <v>198</v>
+      </c>
+      <c r="L265" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="M265" s="36" t="s">
         <v>223</v>
@@ -13980,16 +14619,42 @@
       <c r="N265" s="37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O265" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B266" s="36" t="s">
+        <v>364</v>
+      </c>
       <c r="C266" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+      <c r="D266" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E266" s="38">
+        <v>45524</v>
       </c>
       <c r="F266" s="36" t="s">
-        <v>188</v>
+        <v>235</v>
+      </c>
+      <c r="G266" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H266" s="35">
+        <f t="shared" ca="1" si="31"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I266" s="35">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.63821180555532919</v>
       </c>
       <c r="J266" s="36" t="s">
-        <v>220</v>
+        <v>198</v>
+      </c>
+      <c r="L266" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="M266" s="36" t="s">
         <v>223</v>
@@ -13997,272 +14662,1383 @@
       <c r="N266" s="37" t="s">
         <v>98</v>
       </c>
+      <c r="O266" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B267" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D267" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E267" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F267" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G267" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H267" s="35">
+        <f t="shared" ca="1" si="31"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I267" s="35">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J267" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="L267" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M267" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N267" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O267" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B268" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D268" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E268" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F268" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G268" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H268" s="35">
+        <f t="shared" ca="1" si="31"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I268" s="35">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J268" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="L268" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M268" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N268" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O268" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B269" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D269" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E269" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F269" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G269" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H269" s="35">
+        <f t="shared" ca="1" si="31"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I269" s="35">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J269" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="L269" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M269" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N269" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O269" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B270" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E270" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F270" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G270" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H270" s="35">
+        <f t="shared" ref="H270:H290" ca="1" si="32">IF(F270="DONE",NOW()-E270, NOW()-E270)</f>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I270" s="35">
+        <f t="shared" ref="I270:I272" ca="1" si="33">IF(F270="DONE", "", NOW()-G270)</f>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="L270" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M270" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N270" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O270" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B271" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E271" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F271" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G271" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H271" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I271" s="35">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J271" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="L271" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M271" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N271" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O271" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B272" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E272" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G272" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H272" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I272" s="35">
+        <f t="shared" ca="1" si="33"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J272" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="L272" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M272" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N272" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O272" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D273" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E273" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F273" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H273" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="K273" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="L273" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M273" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N273" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O273" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
+      <c r="B274" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D274" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E274" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F274" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G274" s="38"/>
+      <c r="H274" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I274" s="35"/>
+      <c r="J274" s="36"/>
+      <c r="K274" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="L274" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M274" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N274" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O274" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="13"/>
+      <c r="B275" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D275" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E275" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F275" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G275" s="38"/>
+      <c r="H275" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I275" s="35"/>
+      <c r="J275" s="36"/>
+      <c r="K275" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="L275" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M275" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N275" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O275" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B276" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E276" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F276" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H276" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="K276" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="L276" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M276" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N276" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O276" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="13"/>
+      <c r="B277" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D277" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E277" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F277" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G277" s="38"/>
+      <c r="H277" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I277" s="35"/>
+      <c r="J277" s="36"/>
+      <c r="K277" s="14"/>
+      <c r="L277" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M277" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N277" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O277" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D278" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E278" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F278" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H278" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="L278" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M278" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N278" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O278" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+      <c r="B279" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D279" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E279" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F279" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G279" s="38"/>
+      <c r="H279" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I279" s="35"/>
+      <c r="J279" s="36"/>
+      <c r="K279" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="L279" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M279" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N279" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O279" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D280" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E280" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F280" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H280" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="K280" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="L280" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M280" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N280" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O280" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="13"/>
+      <c r="B281" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D281" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E281" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F281" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G281" s="38"/>
+      <c r="H281" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I281" s="35"/>
+      <c r="J281" s="36"/>
+      <c r="K281" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="L281" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M281" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N281" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O281" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D282" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E282" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F282" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H282" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="K282" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="L282" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M282" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N282" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O282" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="13"/>
+      <c r="B283" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D283" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E283" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F283" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G283" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H283" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I283" s="35">
+        <f t="shared" ref="I283:I285" ca="1" si="34">IF(F283="DONE", "", NOW()-G283)</f>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J283" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K283" s="14"/>
+      <c r="L283" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M283" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N283" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O283" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="13"/>
+      <c r="B284" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D284" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E284" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F284" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G284" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H284" s="35">
+        <f t="shared" ref="H284" ca="1" si="35">IF(F284="DONE",NOW()-E284, NOW()-E284)</f>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I284" s="35">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J284" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K284" s="14"/>
+      <c r="L284" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M284" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N284" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O284" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="13"/>
+      <c r="B285" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D285" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E285" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F285" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G285" s="38">
+        <v>45528</v>
+      </c>
+      <c r="H285" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I285" s="35">
+        <f t="shared" ca="1" si="34"/>
+        <v>0.63821180555532919</v>
+      </c>
+      <c r="J285" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K285" s="14"/>
+      <c r="L285" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M285" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N285" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O285" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B286" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D286" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E286" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F286" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H286" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="L286" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M286" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N286" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O286" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="13"/>
+      <c r="B287" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D287" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E287" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F287" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G287" s="38"/>
+      <c r="H287" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I287" s="35"/>
+      <c r="J287" s="36"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M287" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N287" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O287" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B288" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D288" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E288" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F288" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H288" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="L288" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M288" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N288" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O288" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+      <c r="B289" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D289" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E289" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F289" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G289" s="38"/>
+      <c r="H289" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="I289" s="35"/>
+      <c r="J289" s="36"/>
+      <c r="K289" s="14"/>
+      <c r="L289" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M289" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N289" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O289" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B290" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D290" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E290" s="38">
+        <v>45524</v>
+      </c>
+      <c r="F290" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H290" s="35">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.6382118055553292</v>
+      </c>
+      <c r="L290" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M290" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N290" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O290" s="41">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q266">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="ON-GOING ROUTING/REVIEW (DOCUSIGN)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="C256 C1:C46 C187:C243 C258:C260 C48:C167 C174 C176 C262:C1048576 C252:C253">
-    <cfRule type="duplicateValues" dxfId="72" priority="96"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="duplicateValues" dxfId="71" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C183">
-    <cfRule type="duplicateValues" dxfId="70" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="duplicateValues" dxfId="69" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C185">
-    <cfRule type="duplicateValues" dxfId="68" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186">
-    <cfRule type="duplicateValues" dxfId="67" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177">
-    <cfRule type="duplicateValues" dxfId="66" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178">
-    <cfRule type="duplicateValues" dxfId="65" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179">
-    <cfRule type="duplicateValues" dxfId="64" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C180">
-    <cfRule type="duplicateValues" dxfId="63" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C181">
-    <cfRule type="duplicateValues" dxfId="62" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256 C1:C46 C258:C260 C48:C167 C174 C176:C243 C262:C1048576 C252:C253">
-    <cfRule type="duplicateValues" dxfId="61" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="duplicateValues" dxfId="60" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="duplicateValues" dxfId="59" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="duplicateValues" dxfId="58" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="duplicateValues" dxfId="57" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="duplicateValues" dxfId="56" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="duplicateValues" dxfId="55" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="duplicateValues" dxfId="54" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="duplicateValues" dxfId="53" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="duplicateValues" dxfId="52" priority="76"/>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="duplicateValues" dxfId="98" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="duplicateValues" dxfId="51" priority="75"/>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="duplicateValues" dxfId="97" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="duplicateValues" dxfId="50" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="duplicateValues" dxfId="49" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F46 F176:F236 F49:F167 F243 F238:F240 F256:F1048576 F248:F252">
-    <cfRule type="cellIs" dxfId="48" priority="70" operator="equal">
+  <conditionalFormatting sqref="F1:F46 F176:F236 F49:F167 F243 F238:F240 F248:F252 F256:F257 F291:F1048576 F259 F261:F272">
+    <cfRule type="cellIs" dxfId="96" priority="123" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="duplicateValues" dxfId="47" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="duplicateValues" dxfId="46" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="duplicateValues" dxfId="45" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="duplicateValues" dxfId="44" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245">
-    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="117" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F253">
-    <cfRule type="cellIs" dxfId="42" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="116" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="duplicateValues" dxfId="41" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="duplicateValues" dxfId="40" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="duplicateValues" dxfId="39" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="duplicateValues" dxfId="38" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="cellIs" dxfId="37" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="110" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="34" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="107" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="106" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168">
-    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C175">
-    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C175">
-    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="duplicateValues" dxfId="27" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="duplicateValues" dxfId="26" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="duplicateValues" dxfId="25" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="duplicateValues" dxfId="23" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="duplicateValues" dxfId="22" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="duplicateValues" dxfId="20" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169">
-    <cfRule type="duplicateValues" dxfId="19" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169">
-    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F254">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F255">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F237">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F174">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F175">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F241">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F242">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286 C276 C256 C1:C46 C187:C243 C259 C48:C167 C174 C176 C264:C272 C252:C253 C278 C280 C282 C288 C290:C1048576 C262">
+    <cfRule type="duplicateValues" dxfId="47" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286 C276 C256 C1:C46 C259 C48:C167 C174 C176:C243 C264:C272 C252:C253 C278 C280 C282 C288 C290:C1048576 C262">
+    <cfRule type="duplicateValues" dxfId="46" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="duplicateValues" dxfId="44" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="duplicateValues" dxfId="43" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="duplicateValues" dxfId="41" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F276">
+    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="duplicateValues" dxfId="38" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F277">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="duplicateValues" dxfId="36" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="duplicateValues" dxfId="35" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F278">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="duplicateValues" dxfId="32" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F279">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="duplicateValues" dxfId="30" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="duplicateValues" dxfId="29" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F280">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="duplicateValues" dxfId="27" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F281">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F282">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F285">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F286">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F287">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F289">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F290">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F258">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F260">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F273">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"DONE"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"DONE"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F174">
+  <conditionalFormatting sqref="F284">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"DONE"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F241">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"DONE"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F242">
+  <conditionalFormatting sqref="F283">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
@@ -14297,10 +16073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14574,7 +16350,7 @@
         <v>201</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K15" t="s">
         <v>26</v>
@@ -14584,6 +16360,9 @@
       <c r="D16" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="K16" t="s">
         <v>27</v>
       </c>
@@ -14592,6 +16371,9 @@
       <c r="D17" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="K17" t="s">
         <v>28</v>
       </c>
@@ -14600,6 +16382,9 @@
       <c r="D18" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="K18" t="s">
         <v>29</v>
       </c>
@@ -14608,6 +16393,9 @@
       <c r="D19" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="K19" t="s">
         <v>30</v>
       </c>
@@ -14616,6 +16404,9 @@
       <c r="D20" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="K20" t="s">
         <v>31</v>
       </c>
@@ -14624,6 +16415,9 @@
       <c r="D21" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="K21" t="s">
         <v>32</v>
       </c>
@@ -14632,16 +16426,25 @@
       <c r="D22" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="F23" s="2" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="F24" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="25" spans="4:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
@@ -14651,6 +16454,11 @@
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/data/enrollment/ENROLLMENT RAW.xlsx
+++ b/data/enrollment/ENROLLMENT RAW.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$S$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$1:$S$1</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="all">#REF!</definedName>
     <definedName name="AREA">list!$E$2:$E$5</definedName>
@@ -86,7 +86,7 @@
     <definedName name="nlag">#REF!</definedName>
     <definedName name="no">#REF!</definedName>
     <definedName name="PIC">list!$D$2:$D$28</definedName>
-    <definedName name="PROJECT">list!$F$2:$F$24</definedName>
+    <definedName name="PROJECT">list!$F$2:$F$25</definedName>
     <definedName name="PROJECT_TYPE">list!$G$2:$G$3</definedName>
     <definedName name="qa">#REF!</definedName>
     <definedName name="qaz">#REF!</definedName>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="409">
   <si>
     <t>STATUS</t>
   </si>
@@ -1245,9 +1245,6 @@
     <t>104W B1V1 Fan &amp; Motor Servicing</t>
   </si>
   <si>
-    <t xml:space="preserve">Bearing Flange ASAHI 1-1/2 UCF208-24 </t>
-  </si>
-  <si>
     <t>Belt V BANDO A-61</t>
   </si>
   <si>
@@ -1360,6 +1357,12 @@
   </si>
   <si>
     <t>Silverpress flexible tubing - 1089041000201 (not found on order conf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearing Flange ASAHI UCF208-24 </t>
+  </si>
+  <si>
+    <t>Final Cooler</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,6 +1528,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3059,17 +3071,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3086,7 @@
     <col min="1" max="1" width="30.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="23" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -3107,19 +3116,19 @@
       <c r="E1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="38" t="s">
         <v>184</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="37" t="s">
         <v>183</v>
       </c>
       <c r="K1" s="10" t="s">
@@ -3141,7 +3150,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>94</v>
       </c>
@@ -3162,7 +3171,7 @@
       </c>
       <c r="H2" s="29">
         <f ca="1">IF(F2="DONE",NOW()-E2, NOW()-E2)</f>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I2" s="29" t="str">
         <f ca="1">IF(F2="DONE", "", NOW()-G2)</f>
@@ -3184,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>94</v>
       </c>
@@ -3205,7 +3214,7 @@
       </c>
       <c r="H3" s="29">
         <f t="shared" ref="H3:H67" ca="1" si="0">IF(F3="DONE",NOW()-E3, NOW()-E3)</f>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I3" s="29" t="str">
         <f t="shared" ref="I3:I67" ca="1" si="1">IF(F3="DONE", "", NOW()-G3)</f>
@@ -3227,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>94</v>
       </c>
@@ -3248,7 +3257,7 @@
       </c>
       <c r="H4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I4" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3270,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>94</v>
       </c>
@@ -3291,7 +3300,7 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I5" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3313,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>94</v>
       </c>
@@ -3334,7 +3343,7 @@
       </c>
       <c r="H6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I6" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3356,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>94</v>
       </c>
@@ -3377,7 +3386,7 @@
       </c>
       <c r="H7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I7" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3399,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>94</v>
       </c>
@@ -3420,7 +3429,7 @@
       </c>
       <c r="H8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I8" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3442,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
@@ -3463,7 +3472,7 @@
       </c>
       <c r="H9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I9" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3485,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
@@ -3506,7 +3515,7 @@
       </c>
       <c r="H10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I10" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3528,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>94</v>
       </c>
@@ -3549,7 +3558,7 @@
       </c>
       <c r="H11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I11" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3571,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>94</v>
       </c>
@@ -3592,7 +3601,7 @@
       </c>
       <c r="H12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I12" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3614,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>94</v>
       </c>
@@ -3635,7 +3644,7 @@
       </c>
       <c r="H13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I13" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3657,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>94</v>
       </c>
@@ -3678,7 +3687,7 @@
       </c>
       <c r="H14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I14" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3700,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -3721,7 +3730,7 @@
       </c>
       <c r="H15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I15" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3743,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>94</v>
       </c>
@@ -3764,7 +3773,7 @@
       </c>
       <c r="H16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I16" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3786,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
@@ -3807,7 +3816,7 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I17" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3829,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>94</v>
       </c>
@@ -3850,7 +3859,7 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I18" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3872,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>91</v>
       </c>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>207</v>
+        <v>28.629823958333873</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>228</v>
@@ -3915,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>91</v>
       </c>
@@ -3936,11 +3945,11 @@
       </c>
       <c r="H20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>207</v>
@@ -3958,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>91</v>
       </c>
@@ -3979,11 +3988,11 @@
       </c>
       <c r="H21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>207</v>
@@ -4001,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>91</v>
       </c>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="H22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>207</v>
@@ -4044,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>91</v>
       </c>
@@ -4065,11 +4074,11 @@
       </c>
       <c r="H23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>207</v>
@@ -4087,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
@@ -4108,11 +4117,11 @@
       </c>
       <c r="H24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>207</v>
@@ -4130,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>91</v>
       </c>
@@ -4151,11 +4160,11 @@
       </c>
       <c r="H25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>207</v>
@@ -4173,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>91</v>
       </c>
@@ -4194,11 +4203,11 @@
       </c>
       <c r="H26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>207</v>
@@ -4216,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>91</v>
       </c>
@@ -4237,11 +4246,11 @@
       </c>
       <c r="H27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>207</v>
@@ -4259,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
@@ -4280,11 +4289,11 @@
       </c>
       <c r="H28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>207</v>
@@ -4302,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -4323,11 +4332,11 @@
       </c>
       <c r="H29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>207</v>
@@ -4345,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>93</v>
       </c>
@@ -4366,7 +4375,7 @@
       </c>
       <c r="H30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I30" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4388,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="4" t="s">
         <v>98</v>
@@ -4410,7 +4419,7 @@
       </c>
       <c r="H31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>194.44111597222218</v>
+        <v>194.62982395833387</v>
       </c>
       <c r="I31" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4433,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>107</v>
       </c>
@@ -4454,11 +4463,11 @@
       </c>
       <c r="H32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>207</v>
@@ -4476,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -4497,11 +4506,11 @@
       </c>
       <c r="H33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J33" s="30" t="s">
         <v>207</v>
@@ -4519,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>107</v>
       </c>
@@ -4540,11 +4549,11 @@
       </c>
       <c r="H34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>207</v>
@@ -4562,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="H35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>207</v>
@@ -4605,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>107</v>
       </c>
@@ -4626,11 +4635,11 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J36" s="30" t="s">
         <v>207</v>
@@ -4648,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>107</v>
       </c>
@@ -4669,11 +4678,11 @@
       </c>
       <c r="H37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>207</v>
@@ -4691,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>92</v>
       </c>
@@ -4712,11 +4721,11 @@
       </c>
       <c r="H38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>207</v>
@@ -4734,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>92</v>
       </c>
@@ -4755,11 +4764,11 @@
       </c>
       <c r="H39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>207</v>
@@ -4777,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>92</v>
       </c>
@@ -4798,11 +4807,11 @@
       </c>
       <c r="H40" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I40" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>207</v>
@@ -4820,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>92</v>
       </c>
@@ -4841,11 +4850,11 @@
       </c>
       <c r="H41" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I41" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>207</v>
@@ -4863,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>92</v>
       </c>
@@ -4884,11 +4893,11 @@
       </c>
       <c r="H42" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I42" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>207</v>
@@ -4906,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
@@ -4927,11 +4936,11 @@
       </c>
       <c r="H43" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I43" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>207</v>
@@ -4949,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
@@ -4970,11 +4979,11 @@
       </c>
       <c r="H44" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I44" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>207</v>
@@ -4995,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
@@ -5016,11 +5025,11 @@
       </c>
       <c r="H45" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I45" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>207</v>
@@ -5041,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
@@ -5062,11 +5071,11 @@
       </c>
       <c r="H46" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I46" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>207</v>
@@ -5087,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="30" t="s">
         <v>182</v>
@@ -5109,11 +5118,11 @@
       </c>
       <c r="H47" s="29">
         <f t="shared" ref="H47" ca="1" si="2">IF(F47="DONE",NOW()-E47, NOW()-E47)</f>
-        <v>65.441115972222178</v>
+        <v>65.629823958333873</v>
       </c>
       <c r="I47" s="29">
         <f t="shared" ref="I47" ca="1" si="3">IF(F47="DONE", "", NOW()-G47)</f>
-        <v>33.441115972222178</v>
+        <v>33.629823958333873</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>207</v>
@@ -5132,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>353</v>
       </c>
@@ -5153,11 +5162,11 @@
       </c>
       <c r="H48" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>65.441115972222178</v>
+        <v>65.629823958333873</v>
       </c>
       <c r="I48" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>33.441115972222178</v>
+        <v>33.629823958333873</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>207</v>
@@ -5172,10 +5181,10 @@
         <v>97</v>
       </c>
       <c r="O48" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>166</v>
       </c>
@@ -5196,11 +5205,11 @@
       </c>
       <c r="H49" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I49" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>207</v>
@@ -5218,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>166</v>
       </c>
@@ -5239,11 +5248,11 @@
       </c>
       <c r="H50" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I50" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>207</v>
@@ -5261,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>166</v>
       </c>
@@ -5282,11 +5291,11 @@
       </c>
       <c r="H51" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I51" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>207</v>
@@ -5304,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>166</v>
       </c>
@@ -5325,11 +5334,11 @@
       </c>
       <c r="H52" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I52" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>207</v>
@@ -5347,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>166</v>
       </c>
@@ -5368,11 +5377,11 @@
       </c>
       <c r="H53" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I53" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>207</v>
@@ -5390,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>166</v>
       </c>
@@ -5411,11 +5420,11 @@
       </c>
       <c r="H54" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I54" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>207</v>
@@ -5433,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>166</v>
       </c>
@@ -5454,11 +5463,11 @@
       </c>
       <c r="H55" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I55" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>207</v>
@@ -5476,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>166</v>
       </c>
@@ -5497,11 +5506,11 @@
       </c>
       <c r="H56" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I56" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>207</v>
@@ -5519,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>166</v>
       </c>
@@ -5540,11 +5549,11 @@
       </c>
       <c r="H57" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I57" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>207</v>
@@ -5562,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>94</v>
       </c>
@@ -5583,11 +5592,11 @@
       </c>
       <c r="H58" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>207</v>
@@ -5605,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>94</v>
       </c>
@@ -5626,11 +5635,11 @@
       </c>
       <c r="H59" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I59" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>207</v>
@@ -5648,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>94</v>
       </c>
@@ -5669,11 +5678,11 @@
       </c>
       <c r="H60" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I60" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>207</v>
@@ -5691,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>94</v>
       </c>
@@ -5712,11 +5721,11 @@
       </c>
       <c r="H61" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I61" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>207</v>
@@ -5734,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>94</v>
       </c>
@@ -5755,11 +5764,11 @@
       </c>
       <c r="H62" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I62" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>207</v>
@@ -5777,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>94</v>
       </c>
@@ -5798,11 +5807,11 @@
       </c>
       <c r="H63" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I63" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>207</v>
@@ -5820,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>94</v>
       </c>
@@ -5841,11 +5850,11 @@
       </c>
       <c r="H64" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I64" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>207</v>
@@ -5863,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>94</v>
       </c>
@@ -5884,7 +5893,7 @@
       </c>
       <c r="H65" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I65" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5906,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>94</v>
       </c>
@@ -5927,7 +5936,7 @@
       </c>
       <c r="H66" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I66" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5949,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>94</v>
       </c>
@@ -5970,7 +5979,7 @@
       </c>
       <c r="H67" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I67" s="29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5992,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>94</v>
       </c>
@@ -6013,7 +6022,7 @@
       </c>
       <c r="H68" s="29">
         <f t="shared" ref="H68:H130" ca="1" si="4">IF(F68="DONE",NOW()-E68, NOW()-E68)</f>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I68" s="29" t="str">
         <f t="shared" ref="I68:I130" ca="1" si="5">IF(F68="DONE", "", NOW()-G68)</f>
@@ -6035,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>94</v>
       </c>
@@ -6056,7 +6065,7 @@
       </c>
       <c r="H69" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I69" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6078,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>94</v>
       </c>
@@ -6099,7 +6108,7 @@
       </c>
       <c r="H70" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I70" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6121,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>94</v>
       </c>
@@ -6142,7 +6151,7 @@
       </c>
       <c r="H71" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I71" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6164,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>94</v>
       </c>
@@ -6185,7 +6194,7 @@
       </c>
       <c r="H72" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I72" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6207,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>94</v>
       </c>
@@ -6228,7 +6237,7 @@
       </c>
       <c r="H73" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>254.44111597222218</v>
+        <v>254.62982395833387</v>
       </c>
       <c r="I73" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6250,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>94</v>
       </c>
@@ -6271,14 +6280,14 @@
       </c>
       <c r="H74" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I74" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>15.441115972222178</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>198</v>
+        <v>15.629823958333873</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>228</v>
@@ -6293,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>94</v>
       </c>
@@ -6314,11 +6323,11 @@
       </c>
       <c r="H75" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I75" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>163.44111597222218</v>
+        <v>163.62982395833387</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>207</v>
@@ -6336,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
@@ -6357,7 +6366,7 @@
       </c>
       <c r="H76" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I76" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6379,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>94</v>
       </c>
@@ -6400,7 +6409,7 @@
       </c>
       <c r="H77" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I77" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6422,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>94</v>
       </c>
@@ -6443,7 +6452,7 @@
       </c>
       <c r="H78" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I78" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6465,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>91</v>
       </c>
@@ -6486,7 +6495,7 @@
       </c>
       <c r="H79" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I79" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6508,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>91</v>
       </c>
@@ -6529,7 +6538,7 @@
       </c>
       <c r="H80" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I80" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6551,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>91</v>
       </c>
@@ -6572,7 +6581,7 @@
       </c>
       <c r="H81" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I81" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6594,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>91</v>
       </c>
@@ -6615,7 +6624,7 @@
       </c>
       <c r="H82" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I82" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6637,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>91</v>
       </c>
@@ -6658,7 +6667,7 @@
       </c>
       <c r="H83" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I83" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6680,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>91</v>
       </c>
@@ -6701,7 +6710,7 @@
       </c>
       <c r="H84" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I84" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6723,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>91</v>
       </c>
@@ -6744,7 +6753,7 @@
       </c>
       <c r="H85" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I85" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6766,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>91</v>
       </c>
@@ -6787,7 +6796,7 @@
       </c>
       <c r="H86" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I86" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6809,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>91</v>
       </c>
@@ -6830,7 +6839,7 @@
       </c>
       <c r="H87" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I87" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6852,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>91</v>
       </c>
@@ -6873,7 +6882,7 @@
       </c>
       <c r="H88" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I88" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6895,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>91</v>
       </c>
@@ -6916,7 +6925,7 @@
       </c>
       <c r="H89" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I89" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6938,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>91</v>
       </c>
@@ -6959,7 +6968,7 @@
       </c>
       <c r="H90" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I90" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6981,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>91</v>
       </c>
@@ -7002,7 +7011,7 @@
       </c>
       <c r="H91" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I91" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7024,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>91</v>
       </c>
@@ -7045,7 +7054,7 @@
       </c>
       <c r="H92" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I92" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7067,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>91</v>
       </c>
@@ -7088,7 +7097,7 @@
       </c>
       <c r="H93" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I93" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7110,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>91</v>
       </c>
@@ -7131,7 +7140,7 @@
       </c>
       <c r="H94" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I94" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7153,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>91</v>
       </c>
@@ -7174,7 +7183,7 @@
       </c>
       <c r="H95" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I95" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7196,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>91</v>
       </c>
@@ -7217,7 +7226,7 @@
       </c>
       <c r="H96" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I96" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7239,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>91</v>
       </c>
@@ -7260,7 +7269,7 @@
       </c>
       <c r="H97" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I97" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7282,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>91</v>
       </c>
@@ -7303,7 +7312,7 @@
       </c>
       <c r="H98" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I98" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7325,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>91</v>
       </c>
@@ -7346,7 +7355,7 @@
       </c>
       <c r="H99" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I99" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7368,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>91</v>
       </c>
@@ -7389,7 +7398,7 @@
       </c>
       <c r="H100" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I100" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7411,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>91</v>
       </c>
@@ -7432,7 +7441,7 @@
       </c>
       <c r="H101" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I101" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7454,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>91</v>
       </c>
@@ -7475,7 +7484,7 @@
       </c>
       <c r="H102" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I102" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7497,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>91</v>
       </c>
@@ -7518,7 +7527,7 @@
       </c>
       <c r="H103" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I103" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7540,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>91</v>
       </c>
@@ -7561,7 +7570,7 @@
       </c>
       <c r="H104" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I104" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7586,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>91</v>
       </c>
@@ -7607,7 +7616,7 @@
       </c>
       <c r="H105" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I105" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7629,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
         <v>91</v>
       </c>
@@ -7650,7 +7659,7 @@
       </c>
       <c r="H106" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I106" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7672,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
         <v>91</v>
       </c>
@@ -7693,7 +7702,7 @@
       </c>
       <c r="H107" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I107" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7715,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>91</v>
       </c>
@@ -7736,7 +7745,7 @@
       </c>
       <c r="H108" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I108" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7758,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
         <v>91</v>
       </c>
@@ -7779,7 +7788,7 @@
       </c>
       <c r="H109" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I109" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7801,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
         <v>91</v>
       </c>
@@ -7822,7 +7831,7 @@
       </c>
       <c r="H110" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I110" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7844,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
         <v>91</v>
       </c>
@@ -7865,7 +7874,7 @@
       </c>
       <c r="H111" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I111" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7887,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
         <v>91</v>
       </c>
@@ -7908,7 +7917,7 @@
       </c>
       <c r="H112" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I112" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7930,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="4" t="s">
         <v>91</v>
       </c>
@@ -7951,7 +7960,7 @@
       </c>
       <c r="H113" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I113" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7973,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
         <v>91</v>
       </c>
@@ -7994,7 +8003,7 @@
       </c>
       <c r="H114" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I114" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8016,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
         <v>91</v>
       </c>
@@ -8037,7 +8046,7 @@
       </c>
       <c r="H115" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I115" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8059,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
         <v>91</v>
       </c>
@@ -8080,7 +8089,7 @@
       </c>
       <c r="H116" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I116" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8102,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
         <v>91</v>
       </c>
@@ -8123,7 +8132,7 @@
       </c>
       <c r="H117" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I117" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8145,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
         <v>91</v>
       </c>
@@ -8166,11 +8175,11 @@
       </c>
       <c r="H118" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I118" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J118" s="30" t="s">
         <v>207</v>
@@ -8188,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
         <v>91</v>
       </c>
@@ -8209,11 +8218,11 @@
       </c>
       <c r="H119" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I119" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J119" s="30" t="s">
         <v>207</v>
@@ -8231,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
         <v>91</v>
       </c>
@@ -8252,11 +8261,11 @@
       </c>
       <c r="H120" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I120" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J120" s="30" t="s">
         <v>207</v>
@@ -8274,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
         <v>91</v>
       </c>
@@ -8295,11 +8304,11 @@
       </c>
       <c r="H121" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I121" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J121" s="30" t="s">
         <v>207</v>
@@ -8317,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>91</v>
       </c>
@@ -8338,11 +8347,11 @@
       </c>
       <c r="H122" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I122" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J122" s="30" t="s">
         <v>207</v>
@@ -8360,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>91</v>
       </c>
@@ -8381,11 +8390,11 @@
       </c>
       <c r="H123" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I123" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J123" s="30" t="s">
         <v>207</v>
@@ -8403,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>91</v>
       </c>
@@ -8424,11 +8433,11 @@
       </c>
       <c r="H124" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I124" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J124" s="30" t="s">
         <v>207</v>
@@ -8446,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
         <v>91</v>
       </c>
@@ -8467,11 +8476,11 @@
       </c>
       <c r="H125" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I125" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>207</v>
@@ -8489,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
         <v>91</v>
       </c>
@@ -8510,11 +8519,11 @@
       </c>
       <c r="H126" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I126" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>207</v>
@@ -8532,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
         <v>91</v>
       </c>
@@ -8553,11 +8562,11 @@
       </c>
       <c r="H127" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I127" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J127" s="4" t="s">
         <v>207</v>
@@ -8575,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
         <v>91</v>
       </c>
@@ -8596,11 +8605,11 @@
       </c>
       <c r="H128" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I128" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J128" s="4" t="s">
         <v>207</v>
@@ -8618,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
         <v>91</v>
       </c>
@@ -8639,11 +8648,11 @@
       </c>
       <c r="H129" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I129" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>207</v>
@@ -8661,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
         <v>91</v>
       </c>
@@ -8682,11 +8691,11 @@
       </c>
       <c r="H130" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I130" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>207</v>
@@ -8704,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
         <v>91</v>
       </c>
@@ -8725,11 +8734,11 @@
       </c>
       <c r="H131" s="29">
         <f t="shared" ref="H131:H204" ca="1" si="6">IF(F131="DONE",NOW()-E131, NOW()-E131)</f>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I131" s="29">
         <f t="shared" ref="I131:I193" ca="1" si="7">IF(F131="DONE", "", NOW()-G131)</f>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>207</v>
@@ -8747,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
         <v>91</v>
       </c>
@@ -8768,11 +8777,11 @@
       </c>
       <c r="H132" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I132" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>207</v>
@@ -8790,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
         <v>91</v>
       </c>
@@ -8811,11 +8820,11 @@
       </c>
       <c r="H133" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I133" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J133" s="4" t="s">
         <v>207</v>
@@ -8833,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
         <v>91</v>
       </c>
@@ -8854,11 +8863,11 @@
       </c>
       <c r="H134" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I134" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>207</v>
@@ -8876,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
         <v>91</v>
       </c>
@@ -8897,11 +8906,11 @@
       </c>
       <c r="H135" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I135" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>207</v>
@@ -8919,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
         <v>91</v>
       </c>
@@ -8940,11 +8949,11 @@
       </c>
       <c r="H136" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I136" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J136" s="4" t="s">
         <v>207</v>
@@ -8962,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
         <v>91</v>
       </c>
@@ -8983,11 +8992,11 @@
       </c>
       <c r="H137" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I137" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>207</v>
@@ -9005,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
         <v>91</v>
       </c>
@@ -9026,11 +9035,11 @@
       </c>
       <c r="H138" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I138" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>207</v>
@@ -9048,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
         <v>91</v>
       </c>
@@ -9069,11 +9078,11 @@
       </c>
       <c r="H139" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I139" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J139" s="4" t="s">
         <v>207</v>
@@ -9091,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
         <v>91</v>
       </c>
@@ -9112,11 +9121,11 @@
       </c>
       <c r="H140" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I140" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>207</v>
@@ -9134,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
         <v>91</v>
       </c>
@@ -9155,11 +9164,11 @@
       </c>
       <c r="H141" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I141" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>44.441115972222178</v>
+        <v>44.629823958333873</v>
       </c>
       <c r="J141" s="4" t="s">
         <v>207</v>
@@ -9177,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
         <v>91</v>
       </c>
@@ -9198,11 +9207,11 @@
       </c>
       <c r="H142" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I142" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J142" s="30" t="s">
         <v>207</v>
@@ -9220,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
         <v>93</v>
       </c>
@@ -9241,7 +9250,7 @@
       </c>
       <c r="H143" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I143" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9263,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="14" t="s">
         <v>93</v>
       </c>
@@ -9284,7 +9293,7 @@
       </c>
       <c r="H144" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I144" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9306,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
         <v>93</v>
       </c>
@@ -9327,7 +9336,7 @@
       </c>
       <c r="H145" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I145" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9349,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="14" t="s">
         <v>93</v>
       </c>
@@ -9370,7 +9379,7 @@
       </c>
       <c r="H146" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I146" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9392,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
         <v>98</v>
       </c>
@@ -9413,7 +9422,7 @@
       </c>
       <c r="H147" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I147" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9435,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="17" t="s">
         <v>98</v>
       </c>
@@ -9456,7 +9465,7 @@
       </c>
       <c r="H148" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I148" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9478,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="17" t="s">
         <v>98</v>
       </c>
@@ -9499,7 +9508,7 @@
       </c>
       <c r="H149" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I149" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9521,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="17" t="s">
         <v>98</v>
       </c>
@@ -9542,7 +9551,7 @@
       </c>
       <c r="H150" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I150" s="29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -9564,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="17" t="s">
         <v>98</v>
       </c>
@@ -9585,11 +9594,11 @@
       </c>
       <c r="H151" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="I151" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>14.441115972222178</v>
+        <v>14.629823958333873</v>
       </c>
       <c r="J151" s="30" t="s">
         <v>198</v>
@@ -9610,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
         <v>107</v>
       </c>
@@ -9631,11 +9640,11 @@
       </c>
       <c r="H152" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I152" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>33.441115972222178</v>
+        <v>33.629823958333873</v>
       </c>
       <c r="J152" s="30" t="s">
         <v>207</v>
@@ -9653,7 +9662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B153" s="20" t="s">
         <v>107</v>
       </c>
@@ -9674,11 +9683,11 @@
       </c>
       <c r="H153" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I153" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="J153" s="20" t="s">
         <v>207</v>
@@ -9699,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B154" s="20" t="s">
         <v>107</v>
       </c>
@@ -9720,11 +9729,11 @@
       </c>
       <c r="H154" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I154" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="J154" s="20" t="s">
         <v>207</v>
@@ -9745,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B155" s="20" t="s">
         <v>107</v>
       </c>
@@ -9766,11 +9775,11 @@
       </c>
       <c r="H155" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I155" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="J155" s="20" t="s">
         <v>207</v>
@@ -9791,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B156" s="20" t="s">
         <v>107</v>
       </c>
@@ -9812,11 +9821,11 @@
       </c>
       <c r="H156" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I156" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="J156" s="20" t="s">
         <v>207</v>
@@ -9837,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B157" s="20" t="s">
         <v>107</v>
       </c>
@@ -9858,11 +9867,11 @@
       </c>
       <c r="H157" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I157" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="J157" s="20" t="s">
         <v>207</v>
@@ -9883,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
         <v>107</v>
       </c>
@@ -9904,11 +9913,11 @@
       </c>
       <c r="H158" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I158" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>133.44111597222218</v>
+        <v>133.62982395833387</v>
       </c>
       <c r="J158" s="20" t="s">
         <v>207</v>
@@ -9929,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="30" t="s">
         <v>107</v>
@@ -9951,11 +9960,11 @@
       </c>
       <c r="H159" s="29">
         <f t="shared" ref="H159:H164" ca="1" si="8">IF(F159="DONE",NOW()-E159, NOW()-E159)</f>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I159" s="29">
         <f t="shared" ref="I159:I164" ca="1" si="9">IF(F159="DONE", "", NOW()-G159)</f>
-        <v>33.441115972222178</v>
+        <v>33.629823958333873</v>
       </c>
       <c r="J159" s="30" t="s">
         <v>207</v>
@@ -9996,11 +10005,11 @@
       </c>
       <c r="H160" s="29">
         <f t="shared" ref="H160:H162" ca="1" si="10">IF(F160="DONE",NOW()-E160, NOW()-E160)</f>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I160" s="29">
         <f t="shared" ref="I160:I162" ca="1" si="11">IF(F160="DONE", "", NOW()-G160)</f>
-        <v>20.441115972222178</v>
+        <v>20.629823958333873</v>
       </c>
       <c r="J160" s="30" t="s">
         <v>198</v>
@@ -10041,11 +10050,11 @@
       </c>
       <c r="H161" s="29">
         <f t="shared" ca="1" si="10"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I161" s="29">
         <f t="shared" ca="1" si="11"/>
-        <v>20.441115972222178</v>
+        <v>20.629823958333873</v>
       </c>
       <c r="J161" s="30" t="s">
         <v>198</v>
@@ -10086,11 +10095,11 @@
       </c>
       <c r="H162" s="29">
         <f t="shared" ca="1" si="10"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I162" s="29">
         <f t="shared" ca="1" si="11"/>
-        <v>20.441115972222178</v>
+        <v>20.629823958333873</v>
       </c>
       <c r="J162" s="30" t="s">
         <v>198</v>
@@ -10131,11 +10140,11 @@
       </c>
       <c r="H163" s="29">
         <f t="shared" ca="1" si="8"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I163" s="29">
         <f t="shared" ca="1" si="9"/>
-        <v>20.441115972222178</v>
+        <v>20.629823958333873</v>
       </c>
       <c r="J163" s="30" t="s">
         <v>198</v>
@@ -10176,11 +10185,11 @@
       </c>
       <c r="H164" s="29">
         <f t="shared" ca="1" si="8"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I164" s="29">
         <f t="shared" ca="1" si="9"/>
-        <v>20.441115972222178</v>
+        <v>20.629823958333873</v>
       </c>
       <c r="J164" s="30" t="s">
         <v>198</v>
@@ -10220,11 +10229,11 @@
       </c>
       <c r="H165" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I165" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>20.441115972222178</v>
+        <v>20.629823958333873</v>
       </c>
       <c r="J165" s="30" t="s">
         <v>198</v>
@@ -10264,11 +10273,11 @@
       </c>
       <c r="H166" s="29">
         <f t="shared" ref="H166" ca="1" si="12">IF(F166="DONE",NOW()-E166, NOW()-E166)</f>
-        <v>102.44111597222218</v>
+        <v>102.62982395833387</v>
       </c>
       <c r="I166" s="29">
         <f t="shared" ref="I166" ca="1" si="13">IF(F166="DONE", "", NOW()-G166)</f>
-        <v>20.441115972222178</v>
+        <v>20.629823958333873</v>
       </c>
       <c r="J166" s="30" t="s">
         <v>198</v>
@@ -10287,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>817330413</v>
       </c>
@@ -10311,11 +10320,11 @@
       </c>
       <c r="H167" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I167" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J167" s="30" t="s">
         <v>210</v>
@@ -10336,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>180350376</v>
       </c>
@@ -10360,11 +10369,11 @@
       </c>
       <c r="H168" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I168" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J168" s="30" t="s">
         <v>210</v>
@@ -10385,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>180350029</v>
       </c>
@@ -10409,11 +10418,11 @@
       </c>
       <c r="H169" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I169" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J169" s="30" t="s">
         <v>210</v>
@@ -10434,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>817330413</v>
       </c>
@@ -10458,11 +10467,11 @@
       </c>
       <c r="H170" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I170" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J170" s="30" t="s">
         <v>210</v>
@@ -10483,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>180350376</v>
       </c>
@@ -10507,11 +10516,11 @@
       </c>
       <c r="H171" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I171" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J171" s="30" t="s">
         <v>210</v>
@@ -10532,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>180350029</v>
       </c>
@@ -10556,11 +10565,11 @@
       </c>
       <c r="H172" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I172" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J172" s="30" t="s">
         <v>210</v>
@@ -10581,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>816310629</v>
       </c>
@@ -10605,11 +10614,11 @@
       </c>
       <c r="H173" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I173" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J173" s="30" t="s">
         <v>210</v>
@@ -10630,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>180350364</v>
       </c>
@@ -10654,11 +10663,11 @@
       </c>
       <c r="H174" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I174" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J174" s="30" t="s">
         <v>210</v>
@@ -10679,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>180350022</v>
       </c>
@@ -10703,11 +10712,11 @@
       </c>
       <c r="H175" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I175" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J175" s="30" t="s">
         <v>210</v>
@@ -10728,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>816330271</v>
       </c>
@@ -10752,11 +10761,11 @@
       </c>
       <c r="H176" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I176" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J176" s="30" t="s">
         <v>210</v>
@@ -10777,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>1803500377</v>
       </c>
@@ -10801,11 +10810,11 @@
       </c>
       <c r="H177" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="I177" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J177" s="30" t="s">
         <v>210</v>
@@ -10826,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="34" t="s">
         <v>92</v>
       </c>
@@ -10847,11 +10856,11 @@
       </c>
       <c r="H178" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I178" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J178" s="23" t="s">
         <v>207</v>
@@ -10869,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="34" t="s">
         <v>92</v>
       </c>
@@ -10890,11 +10899,11 @@
       </c>
       <c r="H179" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I179" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J179" s="23" t="s">
         <v>207</v>
@@ -10912,7 +10921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="34" t="s">
         <v>92</v>
       </c>
@@ -10933,11 +10942,11 @@
       </c>
       <c r="H180" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I180" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J180" s="23" t="s">
         <v>207</v>
@@ -10955,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="34" t="s">
         <v>92</v>
       </c>
@@ -10976,11 +10985,11 @@
       </c>
       <c r="H181" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I181" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>320</v>
@@ -11001,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="34" t="s">
         <v>92</v>
       </c>
@@ -11022,11 +11031,11 @@
       </c>
       <c r="H182" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I182" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J182" s="23" t="s">
         <v>207</v>
@@ -11044,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="34" t="s">
         <v>92</v>
       </c>
@@ -11065,11 +11074,11 @@
       </c>
       <c r="H183" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I183" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J183" s="23" t="s">
         <v>207</v>
@@ -11087,7 +11096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="34" t="s">
         <v>92</v>
       </c>
@@ -11108,11 +11117,11 @@
       </c>
       <c r="H184" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I184" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J184" s="23" t="s">
         <v>207</v>
@@ -11130,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="34" t="s">
         <v>92</v>
       </c>
@@ -11151,11 +11160,11 @@
       </c>
       <c r="H185" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I185" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J185" s="23" t="s">
         <v>207</v>
@@ -11173,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="34" t="s">
         <v>92</v>
       </c>
@@ -11194,11 +11203,11 @@
       </c>
       <c r="H186" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I186" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J186" s="23" t="s">
         <v>207</v>
@@ -11216,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="34" t="s">
         <v>92</v>
       </c>
@@ -11237,11 +11246,11 @@
       </c>
       <c r="H187" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I187" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J187" s="23" t="s">
         <v>207</v>
@@ -11259,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="34" t="s">
         <v>92</v>
       </c>
@@ -11280,11 +11289,11 @@
       </c>
       <c r="H188" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I188" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J188" s="23" t="s">
         <v>207</v>
@@ -11302,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="34" t="s">
         <v>92</v>
       </c>
@@ -11323,11 +11332,11 @@
       </c>
       <c r="H189" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I189" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J189" s="23" t="s">
         <v>207</v>
@@ -11345,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="34" t="s">
         <v>92</v>
       </c>
@@ -11366,11 +11375,11 @@
       </c>
       <c r="H190" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I190" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J190" s="23" t="s">
         <v>207</v>
@@ -11388,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="34" t="s">
         <v>92</v>
       </c>
@@ -11409,11 +11418,11 @@
       </c>
       <c r="H191" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I191" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J191" s="23" t="s">
         <v>207</v>
@@ -11431,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="34" t="s">
         <v>92</v>
       </c>
@@ -11452,11 +11461,11 @@
       </c>
       <c r="H192" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I192" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J192" s="23" t="s">
         <v>207</v>
@@ -11474,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="34" t="s">
         <v>92</v>
       </c>
@@ -11495,11 +11504,11 @@
       </c>
       <c r="H193" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I193" s="29">
         <f t="shared" ca="1" si="7"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J193" s="23" t="s">
         <v>207</v>
@@ -11517,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="34" t="s">
         <v>92</v>
       </c>
@@ -11538,11 +11547,11 @@
       </c>
       <c r="H194" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I194" s="29">
         <f t="shared" ref="I194:I260" ca="1" si="14">IF(F194="DONE", "", NOW()-G194)</f>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J194" s="23" t="s">
         <v>207</v>
@@ -11560,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="34" t="s">
         <v>92</v>
       </c>
@@ -11581,11 +11590,11 @@
       </c>
       <c r="H195" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I195" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J195" s="23" t="s">
         <v>207</v>
@@ -11603,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="34" t="s">
         <v>92</v>
       </c>
@@ -11624,11 +11633,11 @@
       </c>
       <c r="H196" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I196" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J196" s="23" t="s">
         <v>207</v>
@@ -11646,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="34" t="s">
         <v>92</v>
       </c>
@@ -11667,11 +11676,11 @@
       </c>
       <c r="H197" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I197" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J197" s="23" t="s">
         <v>207</v>
@@ -11689,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="34" t="s">
         <v>92</v>
       </c>
@@ -11710,11 +11719,11 @@
       </c>
       <c r="H198" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I198" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J198" s="23" t="s">
         <v>207</v>
@@ -11732,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="34" t="s">
         <v>92</v>
       </c>
@@ -11753,11 +11762,11 @@
       </c>
       <c r="H199" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I199" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J199" s="23" t="s">
         <v>207</v>
@@ -11775,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="34" t="s">
         <v>92</v>
       </c>
@@ -11796,11 +11805,11 @@
       </c>
       <c r="H200" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I200" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="J200" s="23" t="s">
         <v>207</v>
@@ -11818,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="4" t="s">
         <v>166</v>
       </c>
@@ -11839,11 +11848,11 @@
       </c>
       <c r="H201" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I201" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J201" s="26" t="s">
         <v>207</v>
@@ -11861,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="26" t="s">
         <v>166</v>
       </c>
@@ -11882,11 +11891,11 @@
       </c>
       <c r="H202" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I202" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J202" s="26" t="s">
         <v>207</v>
@@ -11904,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="26" t="s">
         <v>166</v>
       </c>
@@ -11925,11 +11934,11 @@
       </c>
       <c r="H203" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I203" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J203" s="26" t="s">
         <v>207</v>
@@ -11947,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="26" t="s">
         <v>166</v>
       </c>
@@ -11968,11 +11977,11 @@
       </c>
       <c r="H204" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I204" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J204" s="26" t="s">
         <v>207</v>
@@ -11990,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="26" t="s">
         <v>166</v>
       </c>
@@ -12011,11 +12020,11 @@
       </c>
       <c r="H205" s="29">
         <f t="shared" ref="H205:H253" ca="1" si="15">IF(F205="DONE",NOW()-E205, NOW()-E205)</f>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I205" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J205" s="26" t="s">
         <v>207</v>
@@ -12033,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="26" t="s">
         <v>166</v>
       </c>
@@ -12054,11 +12063,11 @@
       </c>
       <c r="H206" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I206" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J206" s="26" t="s">
         <v>207</v>
@@ -12076,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="26" t="s">
         <v>166</v>
       </c>
@@ -12097,11 +12106,11 @@
       </c>
       <c r="H207" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I207" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J207" s="26" t="s">
         <v>207</v>
@@ -12119,7 +12128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="26" t="s">
         <v>166</v>
       </c>
@@ -12140,11 +12149,11 @@
       </c>
       <c r="H208" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I208" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J208" s="26" t="s">
         <v>207</v>
@@ -12162,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="26" t="s">
         <v>166</v>
       </c>
@@ -12183,11 +12192,11 @@
       </c>
       <c r="H209" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I209" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J209" s="26" t="s">
         <v>207</v>
@@ -12205,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="26" t="s">
         <v>166</v>
       </c>
@@ -12226,11 +12235,11 @@
       </c>
       <c r="H210" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I210" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J210" s="26" t="s">
         <v>207</v>
@@ -12248,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="26" t="s">
         <v>166</v>
       </c>
@@ -12269,11 +12278,11 @@
       </c>
       <c r="H211" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I211" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J211" s="26" t="s">
         <v>207</v>
@@ -12291,7 +12300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="26" t="s">
         <v>166</v>
       </c>
@@ -12312,11 +12321,11 @@
       </c>
       <c r="H212" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I212" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J212" s="26" t="s">
         <v>207</v>
@@ -12334,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="26" t="s">
         <v>166</v>
       </c>
@@ -12355,11 +12364,11 @@
       </c>
       <c r="H213" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I213" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J213" s="26" t="s">
         <v>207</v>
@@ -12377,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="26" t="s">
         <v>166</v>
       </c>
@@ -12398,11 +12407,11 @@
       </c>
       <c r="H214" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I214" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J214" s="26" t="s">
         <v>207</v>
@@ -12420,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="26" t="s">
         <v>166</v>
       </c>
@@ -12441,11 +12450,11 @@
       </c>
       <c r="H215" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I215" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J215" s="26" t="s">
         <v>207</v>
@@ -12463,7 +12472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="26" t="s">
         <v>166</v>
       </c>
@@ -12484,11 +12493,11 @@
       </c>
       <c r="H216" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I216" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J216" s="26" t="s">
         <v>207</v>
@@ -12506,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="26" t="s">
         <v>166</v>
       </c>
@@ -12527,11 +12536,11 @@
       </c>
       <c r="H217" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I217" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J217" s="26" t="s">
         <v>207</v>
@@ -12549,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="26" t="s">
         <v>166</v>
       </c>
@@ -12570,11 +12579,11 @@
       </c>
       <c r="H218" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I218" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J218" s="26" t="s">
         <v>207</v>
@@ -12592,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="26" t="s">
         <v>166</v>
       </c>
@@ -12613,11 +12622,11 @@
       </c>
       <c r="H219" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I219" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J219" s="26" t="s">
         <v>207</v>
@@ -12635,7 +12644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="26" t="s">
         <v>166</v>
       </c>
@@ -12656,11 +12665,11 @@
       </c>
       <c r="H220" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I220" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J220" s="26" t="s">
         <v>207</v>
@@ -12678,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="26" t="s">
         <v>166</v>
       </c>
@@ -12699,11 +12708,11 @@
       </c>
       <c r="H221" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I221" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J221" s="26" t="s">
         <v>207</v>
@@ -12721,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="26" t="s">
         <v>166</v>
       </c>
@@ -12742,11 +12751,11 @@
       </c>
       <c r="H222" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I222" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J222" s="26" t="s">
         <v>207</v>
@@ -12764,7 +12773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="26" t="s">
         <v>166</v>
       </c>
@@ -12785,11 +12794,11 @@
       </c>
       <c r="H223" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I223" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J223" s="26" t="s">
         <v>207</v>
@@ -12807,7 +12816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="26" t="s">
         <v>166</v>
       </c>
@@ -12828,11 +12837,11 @@
       </c>
       <c r="H224" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I224" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J224" s="26" t="s">
         <v>207</v>
@@ -12850,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="26" t="s">
         <v>166</v>
       </c>
@@ -12871,11 +12880,11 @@
       </c>
       <c r="H225" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I225" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J225" s="26" t="s">
         <v>207</v>
@@ -12893,7 +12902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="26" t="s">
         <v>166</v>
       </c>
@@ -12914,11 +12923,11 @@
       </c>
       <c r="H226" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I226" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J226" s="26" t="s">
         <v>207</v>
@@ -12936,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="26" t="s">
         <v>166</v>
       </c>
@@ -12957,11 +12966,11 @@
       </c>
       <c r="H227" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I227" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>58.441115972222178</v>
+        <v>58.629823958333873</v>
       </c>
       <c r="J227" s="26" t="s">
         <v>207</v>
@@ -12979,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="34" t="s">
         <v>353</v>
       </c>
@@ -13000,11 +13009,11 @@
       </c>
       <c r="H228" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I228" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J228" s="30" t="s">
         <v>218</v>
@@ -13022,10 +13031,10 @@
         <v>97</v>
       </c>
       <c r="O228" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="34" t="s">
         <v>182</v>
       </c>
@@ -13046,11 +13055,11 @@
       </c>
       <c r="H229" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I229" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="J229" s="4" t="s">
         <v>207</v>
@@ -13071,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="34" t="s">
         <v>182</v>
       </c>
@@ -13092,11 +13101,11 @@
       </c>
       <c r="H230" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I230" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="J230" s="30" t="s">
         <v>207</v>
@@ -13117,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="34" t="s">
         <v>182</v>
       </c>
@@ -13138,11 +13147,11 @@
       </c>
       <c r="H231" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I231" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>40.441115972222178</v>
+        <v>40.629823958333873</v>
       </c>
       <c r="J231" s="30" t="s">
         <v>218</v>
@@ -13163,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="34" t="s">
         <v>353</v>
       </c>
@@ -13184,11 +13193,11 @@
       </c>
       <c r="H232" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I232" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J232" s="30" t="s">
         <v>218</v>
@@ -13206,10 +13215,10 @@
         <v>97</v>
       </c>
       <c r="O232" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="34" t="s">
         <v>353</v>
       </c>
@@ -13230,11 +13239,11 @@
       </c>
       <c r="H233" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I233" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J233" s="30" t="s">
         <v>218</v>
@@ -13252,10 +13261,10 @@
         <v>97</v>
       </c>
       <c r="O233" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="34" t="s">
         <v>182</v>
       </c>
@@ -13276,11 +13285,11 @@
       </c>
       <c r="H234" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I234" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="J234" s="30" t="s">
         <v>207</v>
@@ -13301,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="34" t="s">
         <v>353</v>
@@ -13323,11 +13332,11 @@
       </c>
       <c r="H235" s="29">
         <f t="shared" ref="H235:H237" ca="1" si="16">IF(F235="DONE",NOW()-E235, NOW()-E235)</f>
-        <v>48.441115972222178</v>
+        <v>48.629823958333873</v>
       </c>
       <c r="I235" s="29">
         <f t="shared" ref="I235:I237" ca="1" si="17">IF(F235="DONE", "", NOW()-G235)</f>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J235" s="30" t="s">
         <v>218</v>
@@ -13345,10 +13354,10 @@
         <v>97</v>
       </c>
       <c r="O235" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="34" t="s">
         <v>182</v>
@@ -13370,11 +13379,11 @@
       </c>
       <c r="H236" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="I236" s="29">
         <f t="shared" ca="1" si="17"/>
-        <v>32.441115972222178</v>
+        <v>32.629823958333873</v>
       </c>
       <c r="J236" s="30" t="s">
         <v>218</v>
@@ -13393,7 +13402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="34" t="s">
         <v>353</v>
@@ -13415,11 +13424,11 @@
       </c>
       <c r="H237" s="29">
         <f t="shared" ca="1" si="16"/>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="I237" s="29">
         <f t="shared" ca="1" si="17"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J237" s="30" t="s">
         <v>218</v>
@@ -13437,10 +13446,10 @@
         <v>97</v>
       </c>
       <c r="O237" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="34" t="s">
         <v>182</v>
@@ -13462,11 +13471,11 @@
       </c>
       <c r="H238" s="29">
         <f t="shared" ref="H238:H245" ca="1" si="18">IF(F238="DONE",NOW()-E238, NOW()-E238)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="I238" s="29">
         <f t="shared" ref="I238:I245" ca="1" si="19">IF(F238="DONE", "", NOW()-G238)</f>
-        <v>14.441115972222178</v>
+        <v>14.629823958333873</v>
       </c>
       <c r="J238" s="30" t="s">
         <v>207</v>
@@ -13485,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="34" t="s">
         <v>174</v>
@@ -13507,11 +13516,11 @@
       </c>
       <c r="H239" s="29">
         <f t="shared" ref="H239:H241" ca="1" si="20">IF(F239="DONE",NOW()-E239, NOW()-E239)</f>
-        <v>51.441115972222178</v>
+        <v>51.629823958333873</v>
       </c>
       <c r="I239" s="29">
         <f ca="1">IF(F239="DONE", "", NOW()-G239)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J239" s="30" t="s">
         <v>207</v>
@@ -13530,7 +13539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="34" t="s">
         <v>174</v>
@@ -13552,11 +13561,11 @@
       </c>
       <c r="H240" s="29">
         <f t="shared" ref="H240" ca="1" si="21">IF(F240="DONE",NOW()-E240, NOW()-E240)</f>
-        <v>51.441115972222178</v>
+        <v>51.629823958333873</v>
       </c>
       <c r="I240" s="29">
         <f ca="1">IF(F240="DONE", "", NOW()-G240)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J240" s="30" t="s">
         <v>207</v>
@@ -13575,7 +13584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="34" t="s">
         <v>174</v>
@@ -13597,11 +13606,11 @@
       </c>
       <c r="H241" s="29">
         <f t="shared" ca="1" si="20"/>
-        <v>51.441115972222178</v>
+        <v>51.629823958333873</v>
       </c>
       <c r="I241" s="29">
         <f ca="1">IF(F241="DONE", "", NOW()-G241)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J241" s="30" t="s">
         <v>207</v>
@@ -13620,7 +13629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="34" t="s">
         <v>174</v>
@@ -13642,11 +13651,11 @@
       </c>
       <c r="H242" s="29">
         <f t="shared" ref="H242" ca="1" si="22">IF(F242="DONE",NOW()-E242, NOW()-E242)</f>
-        <v>51.441115972222178</v>
+        <v>51.629823958333873</v>
       </c>
       <c r="I242" s="29">
         <f ca="1">IF(F242="DONE", "", NOW()-G242)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J242" s="30" t="s">
         <v>207</v>
@@ -13665,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B243" s="4" t="s">
         <v>91</v>
       </c>
@@ -13686,11 +13695,11 @@
       </c>
       <c r="H243" s="29">
         <f t="shared" ref="H243" ca="1" si="23">IF(F243="DONE",NOW()-E243, NOW()-E243)</f>
-        <v>26.441115972222178</v>
+        <v>26.629823958333873</v>
       </c>
       <c r="I243" s="29">
         <f t="shared" ref="I243" ca="1" si="24">IF(F243="DONE", "", NOW()-G243)</f>
-        <v>26.441115972222178</v>
+        <v>26.629823958333873</v>
       </c>
       <c r="J243" s="30" t="s">
         <v>218</v>
@@ -13708,7 +13717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="34" t="s">
         <v>182</v>
       </c>
@@ -13729,11 +13738,11 @@
       </c>
       <c r="H244" s="29">
         <f ca="1">IF(F244="DONE",NOW()-E244, NOW()-E244)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="I244" s="29">
         <f ca="1">IF(F244="DONE", "", NOW()-G244)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="J244" s="30" t="s">
         <v>218</v>
@@ -13748,10 +13757,10 @@
         <v>97</v>
       </c>
       <c r="O244" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="34" t="s">
         <v>353</v>
@@ -13773,11 +13782,11 @@
       </c>
       <c r="H245" s="29">
         <f t="shared" ca="1" si="18"/>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="I245" s="29">
         <f t="shared" ca="1" si="19"/>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J245" s="30" t="s">
         <v>218</v>
@@ -13795,10 +13804,10 @@
         <v>97</v>
       </c>
       <c r="O245" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="34" t="s">
         <v>353</v>
@@ -13820,11 +13829,11 @@
       </c>
       <c r="H246" s="29">
         <f t="shared" ref="H246" ca="1" si="25">IF(F246="DONE",NOW()-E246, NOW()-E246)</f>
-        <v>37.441115972222178</v>
+        <v>37.629823958333873</v>
       </c>
       <c r="I246" s="29">
         <f t="shared" ref="I246" ca="1" si="26">IF(F246="DONE", "", NOW()-G246)</f>
-        <v>28.441115972222178</v>
+        <v>28.629823958333873</v>
       </c>
       <c r="J246" s="30" t="s">
         <v>218</v>
@@ -13842,16 +13851,16 @@
         <v>97</v>
       </c>
       <c r="O246" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="30" t="s">
         <v>105</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D247" s="31" t="s">
         <v>95</v>
@@ -13867,11 +13876,11 @@
       </c>
       <c r="H247" s="29">
         <f t="shared" ref="H247:H251" ca="1" si="27">IF(F247="DONE",NOW()-E247, NOW()-E247)</f>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I247" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>51.441115972222178</v>
+        <v>51.629823958333873</v>
       </c>
       <c r="J247" s="30" t="s">
         <v>210</v>
@@ -13889,16 +13898,16 @@
         <v>97</v>
       </c>
       <c r="O247" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="30" t="s">
         <v>105</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D248" s="31" t="s">
         <v>226</v>
@@ -13914,11 +13923,11 @@
       </c>
       <c r="H248" s="29">
         <f t="shared" ref="H248:H249" ca="1" si="28">IF(F248="DONE",NOW()-E248, NOW()-E248)</f>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I248" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>51.441115972222178</v>
+        <v>51.629823958333873</v>
       </c>
       <c r="J248" s="30" t="s">
         <v>210</v>
@@ -13939,13 +13948,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D249" s="31" t="s">
         <v>95</v>
@@ -13961,11 +13970,11 @@
       </c>
       <c r="H249" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I249" s="29">
         <f t="shared" ref="I249" ca="1" si="29">IF(F249="DONE", "", NOW()-G249)</f>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J249" s="30" t="s">
         <v>218</v>
@@ -13984,13 +13993,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D250" s="31" t="s">
         <v>226</v>
@@ -14006,11 +14015,11 @@
       </c>
       <c r="H250" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I250" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J250" s="30" t="s">
         <v>218</v>
@@ -14029,13 +14038,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D251" s="31" t="s">
         <v>226</v>
@@ -14051,11 +14060,11 @@
       </c>
       <c r="H251" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I251" s="29">
         <f t="shared" ref="I251" ca="1" si="30">IF(F251="DONE", "", NOW()-G251)</f>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J251" s="30" t="s">
         <v>218</v>
@@ -14074,13 +14083,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D252" s="31" t="s">
         <v>95</v>
@@ -14096,11 +14105,11 @@
       </c>
       <c r="H252" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I252" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>39.441115972222178</v>
+        <v>39.629823958333873</v>
       </c>
       <c r="J252" s="30" t="s">
         <v>218</v>
@@ -14119,12 +14128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>95</v>
@@ -14140,11 +14149,11 @@
       </c>
       <c r="H253" s="29">
         <f t="shared" ca="1" si="15"/>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I253" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>23.441115972222178</v>
+        <v>23.629823958333873</v>
       </c>
       <c r="J253" s="30" t="s">
         <v>207</v>
@@ -14165,12 +14174,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>226</v>
@@ -14186,11 +14195,11 @@
       </c>
       <c r="H254" s="29">
         <f t="shared" ref="H254:H260" ca="1" si="31">IF(F254="DONE",NOW()-E254, NOW()-E254)</f>
-        <v>72.441115972222178</v>
+        <v>72.629823958333873</v>
       </c>
       <c r="I254" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>23.441115972222178</v>
+        <v>23.629823958333873</v>
       </c>
       <c r="J254" s="30" t="s">
         <v>207</v>
@@ -14211,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B255" s="4" t="s">
         <v>362</v>
       </c>
@@ -14232,14 +14241,14 @@
       </c>
       <c r="H255" s="29">
         <f t="shared" ca="1" si="31"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I255" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4411159722221782</v>
+        <v>2.6298239583338727</v>
       </c>
       <c r="J255" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L255" s="4" t="s">
         <v>228</v>
@@ -14254,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B256" s="30" t="s">
         <v>362</v>
       </c>
@@ -14275,14 +14284,14 @@
       </c>
       <c r="H256" s="29">
         <f t="shared" ca="1" si="31"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I256" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4411159722221782</v>
+        <v>2.6298239583338727</v>
       </c>
       <c r="J256" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L256" s="30" t="s">
         <v>228</v>
@@ -14297,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B257" s="30" t="s">
         <v>362</v>
       </c>
@@ -14318,14 +14327,14 @@
       </c>
       <c r="H257" s="29">
         <f t="shared" ca="1" si="31"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I257" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4411159722221782</v>
+        <v>2.6298239583338727</v>
       </c>
       <c r="J257" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L257" s="30" t="s">
         <v>228</v>
@@ -14340,7 +14349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B258" s="30" t="s">
         <v>362</v>
       </c>
@@ -14361,14 +14370,14 @@
       </c>
       <c r="H258" s="29">
         <f t="shared" ca="1" si="31"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I258" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4411159722221782</v>
+        <v>2.6298239583338727</v>
       </c>
       <c r="J258" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L258" s="30" t="s">
         <v>228</v>
@@ -14383,7 +14392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B259" s="30" t="s">
         <v>362</v>
       </c>
@@ -14404,14 +14413,14 @@
       </c>
       <c r="H259" s="29">
         <f t="shared" ca="1" si="31"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I259" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4411159722221782</v>
+        <v>2.6298239583338727</v>
       </c>
       <c r="J259" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L259" s="30" t="s">
         <v>228</v>
@@ -14426,7 +14435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B260" s="30" t="s">
         <v>362</v>
       </c>
@@ -14447,14 +14456,14 @@
       </c>
       <c r="H260" s="29">
         <f t="shared" ca="1" si="31"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I260" s="29">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4411159722221782</v>
+        <v>2.6298239583338727</v>
       </c>
       <c r="J260" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L260" s="30" t="s">
         <v>228</v>
@@ -14469,12 +14478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B261" s="30" t="s">
         <v>362</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>226</v>
@@ -14483,21 +14492,21 @@
         <v>45524</v>
       </c>
       <c r="F261" s="30" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="G261" s="32">
-        <v>45538</v>
+        <v>45546</v>
       </c>
       <c r="H261" s="29">
         <f t="shared" ref="H261:H281" ca="1" si="32">IF(F261="DONE",NOW()-E261, NOW()-E261)</f>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I261" s="29">
         <f t="shared" ref="I261:I263" ca="1" si="33">IF(F261="DONE", "", NOW()-G261)</f>
-        <v>8.4411159722221782</v>
+        <v>0.62982395833387272</v>
       </c>
       <c r="J261" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L261" s="30" t="s">
         <v>228</v>
@@ -14512,12 +14521,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B262" s="30" t="s">
         <v>362</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>226</v>
@@ -14526,21 +14535,21 @@
         <v>45524</v>
       </c>
       <c r="F262" s="30" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="G262" s="32">
-        <v>45538</v>
+        <v>45546</v>
       </c>
       <c r="H262" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I262" s="29">
         <f t="shared" ca="1" si="33"/>
-        <v>8.4411159722221782</v>
+        <v>0.62982395833387272</v>
       </c>
       <c r="J262" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L262" s="30" t="s">
         <v>228</v>
@@ -14555,12 +14564,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B263" s="30" t="s">
         <v>362</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>226</v>
@@ -14569,21 +14578,21 @@
         <v>45524</v>
       </c>
       <c r="F263" s="30" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="G263" s="32">
-        <v>45538</v>
+        <v>45546</v>
       </c>
       <c r="H263" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I263" s="29">
         <f t="shared" ca="1" si="33"/>
-        <v>8.4411159722221782</v>
+        <v>0.62982395833387272</v>
       </c>
       <c r="J263" s="30" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L263" s="30" t="s">
         <v>228</v>
@@ -14598,12 +14607,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B264" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D264" s="31" t="s">
         <v>226</v>
@@ -14616,10 +14625,13 @@
       </c>
       <c r="H264" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="K264" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L264" s="30" t="s">
         <v>228</v>
@@ -14634,13 +14646,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D265" s="31" t="s">
         <v>95</v>
@@ -14654,12 +14666,14 @@
       <c r="G265" s="32"/>
       <c r="H265" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I265" s="29"/>
-      <c r="J265" s="30"/>
+      <c r="J265" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="K265" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L265" s="30" t="s">
         <v>228</v>
@@ -14674,13 +14688,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D266" s="31" t="s">
         <v>226</v>
@@ -14694,12 +14708,14 @@
       <c r="G266" s="32"/>
       <c r="H266" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I266" s="29"/>
-      <c r="J266" s="30"/>
+      <c r="J266" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="K266" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L266" s="30" t="s">
         <v>228</v>
@@ -14714,12 +14730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B267" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>95</v>
@@ -14732,10 +14748,13 @@
       </c>
       <c r="H267" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J267" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="K267" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L267" s="30" t="s">
         <v>228</v>
@@ -14750,13 +14769,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D268" s="31" t="s">
         <v>226</v>
@@ -14770,10 +14789,12 @@
       <c r="G268" s="32"/>
       <c r="H268" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I268" s="29"/>
-      <c r="J268" s="30"/>
+      <c r="J268" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="K268" s="13"/>
       <c r="L268" s="30" t="s">
         <v>228</v>
@@ -14788,12 +14809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B269" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D269" s="31" t="s">
         <v>95</v>
@@ -14806,7 +14827,10 @@
       </c>
       <c r="H269" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J269" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="L269" s="30" t="s">
         <v>228</v>
@@ -14821,13 +14845,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D270" s="31" t="s">
         <v>226</v>
@@ -14841,12 +14865,14 @@
       <c r="G270" s="32"/>
       <c r="H270" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I270" s="29"/>
-      <c r="J270" s="30"/>
+      <c r="J270" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="K270" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L270" s="30" t="s">
         <v>228</v>
@@ -14861,12 +14887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B271" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D271" s="31" t="s">
         <v>95</v>
@@ -14879,10 +14905,13 @@
       </c>
       <c r="H271" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J271" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="K271" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L271" s="30" t="s">
         <v>228</v>
@@ -14897,13 +14926,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D272" s="31" t="s">
         <v>226</v>
@@ -14917,12 +14946,14 @@
       <c r="G272" s="32"/>
       <c r="H272" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I272" s="29"/>
-      <c r="J272" s="30"/>
+      <c r="J272" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="K272" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L272" s="30" t="s">
         <v>228</v>
@@ -14937,12 +14968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B273" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D273" s="31" t="s">
         <v>95</v>
@@ -14955,10 +14986,13 @@
       </c>
       <c r="H273" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J273" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="K273" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L273" s="30" t="s">
         <v>228</v>
@@ -14973,13 +15007,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D274" s="31" t="s">
         <v>226</v>
@@ -14995,14 +15029,14 @@
       </c>
       <c r="H274" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I274" s="29">
         <f t="shared" ref="I274:I276" ca="1" si="34">IF(F274="DONE", "", NOW()-G274)</f>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J274" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K274" s="13"/>
       <c r="L274" s="30" t="s">
@@ -15018,13 +15052,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D275" s="31" t="s">
         <v>226</v>
@@ -15040,14 +15074,14 @@
       </c>
       <c r="H275" s="29">
         <f t="shared" ref="H275" ca="1" si="35">IF(F275="DONE",NOW()-E275, NOW()-E275)</f>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I275" s="29">
         <f t="shared" ca="1" si="34"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J275" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K275" s="13"/>
       <c r="L275" s="30" t="s">
@@ -15063,13 +15097,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D276" s="31" t="s">
         <v>226</v>
@@ -15085,14 +15119,14 @@
       </c>
       <c r="H276" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I276" s="29">
         <f t="shared" ca="1" si="34"/>
-        <v>1.4411159722221782</v>
+        <v>1.6298239583338727</v>
       </c>
       <c r="J276" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K276" s="13"/>
       <c r="L276" s="30" t="s">
@@ -15108,12 +15142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B277" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D277" s="31" t="s">
         <v>95</v>
@@ -15126,7 +15160,10 @@
       </c>
       <c r="H277" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J277" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="L277" s="30" t="s">
         <v>228</v>
@@ -15141,13 +15178,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D278" s="31" t="s">
         <v>226</v>
@@ -15161,10 +15198,12 @@
       <c r="G278" s="32"/>
       <c r="H278" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I278" s="29"/>
-      <c r="J278" s="30"/>
+      <c r="J278" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="K278" s="13"/>
       <c r="L278" s="30" t="s">
         <v>228</v>
@@ -15179,12 +15218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B279" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D279" s="31" t="s">
         <v>95</v>
@@ -15197,7 +15236,10 @@
       </c>
       <c r="H279" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J279" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="L279" s="30" t="s">
         <v>228</v>
@@ -15212,13 +15254,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D280" s="31" t="s">
         <v>226</v>
@@ -15232,10 +15274,12 @@
       <c r="G280" s="32"/>
       <c r="H280" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
       </c>
       <c r="I280" s="29"/>
-      <c r="J280" s="30"/>
+      <c r="J280" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="K280" s="13"/>
       <c r="L280" s="30" t="s">
         <v>228</v>
@@ -15250,12 +15294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B281" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D281" s="31" t="s">
         <v>95</v>
@@ -15268,7 +15312,10 @@
       </c>
       <c r="H281" s="29">
         <f t="shared" ca="1" si="32"/>
-        <v>22.441115972222178</v>
+        <v>22.629823958333873</v>
+      </c>
+      <c r="J281" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="L281" s="30" t="s">
         <v>228</v>
@@ -15283,34 +15330,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B282" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="C282" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D282" s="31" t="s">
         <v>226</v>
+      </c>
+      <c r="E282" s="32">
+        <v>45524</v>
       </c>
       <c r="F282" s="30" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J282" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L282" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M282" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N282" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O282" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B283" s="30" t="s">
+        <v>408</v>
+      </c>
       <c r="C283" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D283" s="31" t="s">
         <v>95</v>
       </c>
+      <c r="E283" s="32">
+        <v>45524</v>
+      </c>
       <c r="F283" s="30" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J283" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L283" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="M283" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N283" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O283" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B284" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>226</v>
@@ -15321,13 +15410,28 @@
       <c r="F284" s="30" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J284" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L284" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="M284" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N284" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O284" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B285" s="30" t="s">
         <v>182</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>226</v>
@@ -15337,6 +15441,21 @@
       </c>
       <c r="F285" s="30" t="s">
         <v>186</v>
+      </c>
+      <c r="J285" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L285" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="M285" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N285" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O285" s="35">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
@@ -15346,18 +15465,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S285">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GCCD Transport Phase 1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <dateGroupItem year="2024" month="8" day="22" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S1"/>
   <conditionalFormatting sqref="C173">
     <cfRule type="duplicateValues" dxfId="122" priority="156"/>
   </conditionalFormatting>
@@ -15418,7 +15526,7 @@
   <conditionalFormatting sqref="C254">
     <cfRule type="duplicateValues" dxfId="103" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F46 F167:F227 F234 F229:F231 F239:F243 F247:F248 F250 F286:F1048576 F49:F158 F252:F263">
+  <conditionalFormatting sqref="F167:F227 F234 F229:F231 F239:F243 F247:F248 F250 F286:F1048576 F49:F158 F252:F263 F1:F46">
     <cfRule type="cellIs" dxfId="102" priority="131" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
@@ -15908,7 +16016,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>226</v>
@@ -15954,7 +16062,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>226</v>
@@ -16357,7 +16465,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D28"/>
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16422,7 +16530,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>353</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>228</v>
@@ -16454,7 +16562,7 @@
         <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>375</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>229</v>
@@ -16480,7 +16588,7 @@
         <v>222</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>103</v>
@@ -16500,7 +16608,7 @@
         <v>223</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>377</v>
       </c>
       <c r="I5" t="s">
         <v>108</v>
@@ -16517,7 +16625,7 @@
         <v>203</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -16531,7 +16639,7 @@
         <v>208</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -16545,7 +16653,7 @@
         <v>214</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -16559,7 +16667,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -16570,10 +16678,10 @@
         <v>189</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -16587,7 +16695,7 @@
         <v>202</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
@@ -16598,7 +16706,7 @@
         <v>216</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
         <v>23</v>
@@ -16609,7 +16717,7 @@
         <v>218</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
@@ -16631,7 +16739,7 @@
         <v>207</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="K15" t="s">
         <v>26</v>
@@ -16642,7 +16750,7 @@
         <v>199</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>362</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
         <v>27</v>
@@ -16653,7 +16761,7 @@
         <v>198</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>373</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
@@ -16664,7 +16772,7 @@
         <v>196</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
@@ -16675,7 +16783,7 @@
         <v>206</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -16686,7 +16794,7 @@
         <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -16697,7 +16805,7 @@
         <v>204</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>379</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s">
         <v>32</v>
@@ -16708,7 +16816,7 @@
         <v>213</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
@@ -16716,7 +16824,7 @@
         <v>197</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
@@ -16724,13 +16832,16 @@
         <v>209</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>382</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="4:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -16744,10 +16855,13 @@
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="F2:F25">
+    <sortCondition ref="F2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
